--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
@@ -5,16 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1CFD3F-862B-49DA-8BA3-CB40F23D0123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26BD03-C54C-4A39-8A8B-8124C8E0BA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
+    <workbookView xWindow="4540" yWindow="2570" windowWidth="19200" windowHeight="11460" activeTab="3" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="第1題a-d" sheetId="1" r:id="rId1"/>
+    <sheet name="第1題e-f" sheetId="2" r:id="rId2"/>
+    <sheet name="第1題g" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">第1題g!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">第1題g!$L$2:$L$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">第1題g!$M$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">第1題g!$M$2:$M$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">第1題g!$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">第1題g!$N$2:$N$41</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">第1題g!$O$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">第1題g!$O$2:$O$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <r>
       <t xml:space="preserve">                 </t>
@@ -322,6 +335,140 @@
     <t xml:space="preserve">   b </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n*p_i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x_i-n*pi)^2/(n*p_i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chisq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exponential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>λ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>average(X bar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X bar bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st number</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>frequences</t>
+  </si>
+  <si>
+    <t>50runs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frequence</t>
+  </si>
+  <si>
+    <t>100runs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500runs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Xbar-n*p_i)^2/(n*p_i)</t>
+  </si>
+  <si>
+    <t>(Xbar-n*p_i)^2/(n*p_i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>χ^2</t>
+  </si>
+  <si>
+    <t>thickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -395,15 +542,21 @@
       <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -460,32 +613,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +676,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,6 +716,1585 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>control</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$L$2:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C093-411E-A593-4321BD4968A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$M$2:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>362.54768359643975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C093-411E-A593-4321BD4968A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$N$2:$N$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>337.45231640356025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C093-411E-A593-4321BD4968A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X bar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$O$2:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>343.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>354.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>349.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>349.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>347.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>346.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>348.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>347.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>348.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>347.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>346.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>348.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>338.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>347.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>347.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>347.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>346.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>349.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>349.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>346.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>350.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>348.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C093-411E-A593-4321BD4968A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="906680656"/>
+        <c:axId val="645410800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="906680656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645410800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="645410800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="335"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>X bar</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906680656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB39956A-A1C1-4905-96C7-3DF2FC2A2CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,63 +2596,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532C8597-63B2-470E-BA6D-7DF44C990D1C}">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" customWidth="1"/>
+    <col min="15" max="15" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="14" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
@@ -889,8 +2674,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>352</v>
       </c>
       <c r="B3" s="1">
@@ -902,10 +2687,10 @@
       <c r="D3" s="1">
         <v>351</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>354</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G3">
@@ -916,14 +2701,14 @@
         <f>AVERAGE(E3:E87)</f>
         <v>349.7176470588235</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J3">
         <f>AVERAGE(D3:D87)</f>
         <v>347.07058823529411</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L3">
@@ -942,8 +2727,8 @@
         <v>13.657343660355693</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
         <v>354</v>
       </c>
       <c r="B4" s="1">
@@ -955,7 +2740,7 @@
       <c r="D4" s="1">
         <v>352</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>354</v>
       </c>
       <c r="F4" t="s">
@@ -995,8 +2780,8 @@
         <v>0.92312458647959073</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
         <v>352</v>
       </c>
       <c r="B5" s="1">
@@ -1008,7 +2793,7 @@
       <c r="D5" s="1">
         <v>349</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>353</v>
       </c>
       <c r="F5" t="s">
@@ -1048,8 +2833,8 @@
         <v>0.75506639095463346</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
         <v>355</v>
       </c>
       <c r="B6" s="1">
@@ -1061,7 +2846,7 @@
       <c r="D6" s="1">
         <v>354</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>356</v>
       </c>
       <c r="F6" t="s">
@@ -1075,13 +2860,13 @@
         <f>G6</f>
         <v>3.6045606032992628</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J6">
         <v>12</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="L6">
@@ -1099,7 +2884,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>351</v>
       </c>
@@ -1112,7 +2897,7 @@
       <c r="D7" s="1">
         <v>350</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>353</v>
       </c>
       <c r="F7" t="s">
@@ -1150,8 +2935,8 @@
         <v>0.64260375735827779</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
         <v>350</v>
       </c>
       <c r="B8" s="1">
@@ -1163,10 +2948,10 @@
       <c r="D8" s="1">
         <v>348</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>352</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G8">
@@ -1195,8 +2980,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
         <v>354</v>
       </c>
       <c r="B9" s="1">
@@ -1208,7 +2993,7 @@
       <c r="D9" s="1">
         <v>351</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>355</v>
       </c>
       <c r="F9" t="s">
@@ -1222,14 +3007,14 @@
         <f>_xlfn.T.INV(0.95,H8)</f>
         <v>1.6539742082435718</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J9">
         <f>_xlfn.CHISQ.INV.RT(0.1,J7-1)</f>
         <v>100.97998693373012</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="L9">
@@ -1237,8 +3022,8 @@
         <v>100.97998693373012</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
         <v>352</v>
       </c>
       <c r="B10" s="1">
@@ -1250,7 +3035,7 @@
       <c r="D10" s="1">
         <v>350</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>353</v>
       </c>
       <c r="F10" t="s">
@@ -1264,14 +3049,14 @@
         <f>_xlfn.T.INV(0.05,H8)</f>
         <v>-1.6539742082435718</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J10" t="str">
         <f>IF(J8&gt;=J9,"reject","accept")</f>
         <v>accept</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="str">
@@ -1279,8 +3064,8 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
         <v>354</v>
       </c>
       <c r="B11" s="1">
@@ -1292,7 +3077,7 @@
       <c r="D11" s="1">
         <v>352</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>354</v>
       </c>
       <c r="F11" t="s">
@@ -1306,14 +3091,14 @@
         <f>IF(OR(H7&lt;H10,H7&gt;H9),"reject","accept")</f>
         <v>reject</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J11">
         <f>_xlfn.CHISQ.DIST.RT(J8,J7-1)</f>
         <v>0.28883796642437726</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="L11">
@@ -1321,7 +3106,7 @@
         <v>4.9007026764476304E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>352</v>
       </c>
@@ -1349,7 +3134,7 @@
         <v>3.6846238660181996E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>353</v>
       </c>
@@ -1366,7 +3151,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>351</v>
       </c>
@@ -1383,7 +3168,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>352</v>
       </c>
@@ -1400,7 +3185,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>352</v>
       </c>
@@ -1416,8 +3201,12 @@
       <c r="E16" s="1">
         <v>352</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>_xlfn.NORM.DIST(346.5,349.91,2.235,0)*85</f>
+        <v>4.7376913028616645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>352</v>
       </c>
@@ -1434,7 +3223,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>351</v>
       </c>
@@ -1451,7 +3240,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>352</v>
       </c>
@@ -1468,7 +3257,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>338</v>
       </c>
@@ -1485,7 +3274,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>346</v>
       </c>
@@ -1502,7 +3291,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>344</v>
       </c>
@@ -1519,7 +3308,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>345</v>
       </c>
@@ -1536,7 +3325,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>346</v>
       </c>
@@ -1553,7 +3342,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>348</v>
       </c>
@@ -1570,7 +3359,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>348</v>
       </c>
@@ -1587,7 +3376,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>348</v>
       </c>
@@ -1604,7 +3393,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>344</v>
       </c>
@@ -1621,7 +3410,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>337</v>
       </c>
@@ -1638,7 +3427,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>344</v>
       </c>
@@ -1655,7 +3444,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>345</v>
       </c>
@@ -1672,7 +3461,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>344</v>
       </c>
@@ -1689,7 +3478,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>345</v>
       </c>
@@ -1706,7 +3495,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>349</v>
       </c>
@@ -1723,7 +3512,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>349</v>
       </c>
@@ -1740,7 +3529,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>348</v>
       </c>
@@ -1757,7 +3546,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>348</v>
       </c>
@@ -1774,7 +3563,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>354</v>
       </c>
@@ -1791,7 +3580,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>346</v>
       </c>
@@ -1808,7 +3597,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>350</v>
       </c>
@@ -1825,7 +3614,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>342</v>
       </c>
@@ -1842,7 +3631,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>349</v>
       </c>
@@ -1859,7 +3648,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>349</v>
       </c>
@@ -1876,7 +3665,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>349</v>
       </c>
@@ -1893,7 +3682,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>348</v>
       </c>
@@ -1910,7 +3699,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>349</v>
       </c>
@@ -1927,7 +3716,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>339</v>
       </c>
@@ -1944,7 +3733,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>350</v>
       </c>
@@ -1961,7 +3750,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>349</v>
       </c>
@@ -1978,7 +3767,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>343</v>
       </c>
@@ -1995,7 +3784,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>342</v>
       </c>
@@ -2012,7 +3801,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>350</v>
       </c>
@@ -2029,7 +3818,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>350</v>
       </c>
@@ -2046,7 +3835,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>355</v>
       </c>
@@ -2063,7 +3852,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>349</v>
       </c>
@@ -2080,7 +3869,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>351</v>
       </c>
@@ -2097,7 +3886,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>350</v>
       </c>
@@ -2114,7 +3903,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>345</v>
       </c>
@@ -2131,7 +3920,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>345</v>
       </c>
@@ -2148,7 +3937,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>348</v>
       </c>
@@ -2165,7 +3954,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>348</v>
       </c>
@@ -2182,7 +3971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>352</v>
       </c>
@@ -2199,7 +3988,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>350</v>
       </c>
@@ -2216,7 +4005,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>350</v>
       </c>
@@ -2233,7 +4022,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>348</v>
       </c>
@@ -2250,7 +4039,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>348</v>
       </c>
@@ -2267,7 +4056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>351</v>
       </c>
@@ -2284,7 +4073,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>347</v>
       </c>
@@ -2301,7 +4090,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>349</v>
       </c>
@@ -2318,7 +4107,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>347</v>
       </c>
@@ -2335,7 +4124,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>347</v>
       </c>
@@ -2352,7 +4141,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>347</v>
       </c>
@@ -2369,7 +4158,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>349</v>
       </c>
@@ -2386,7 +4175,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>338</v>
       </c>
@@ -2403,7 +4192,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>348</v>
       </c>
@@ -2420,7 +4209,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>348</v>
       </c>
@@ -2437,7 +4226,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>346</v>
       </c>
@@ -2454,7 +4243,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>348</v>
       </c>
@@ -2471,7 +4260,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>346</v>
       </c>
@@ -2488,7 +4277,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>350</v>
       </c>
@@ -2505,7 +4294,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>350</v>
       </c>
@@ -2522,7 +4311,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>350</v>
       </c>
@@ -2539,7 +4328,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>348</v>
       </c>
@@ -2556,7 +4345,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>350</v>
       </c>
@@ -2573,7 +4362,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>345</v>
       </c>
@@ -2590,7 +4379,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>351</v>
       </c>
@@ -2607,7 +4396,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>349</v>
       </c>
@@ -2633,4 +4422,6809 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE61DF3A-4BAF-4756-A3DC-7C530FC9C6E3}">
+  <dimension ref="A1:M86"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>352</v>
+      </c>
+      <c r="B3">
+        <f>MIN(A2:A86)</f>
+        <v>336</v>
+      </c>
+      <c r="C3">
+        <f>MAX(A2:A86)</f>
+        <v>354</v>
+      </c>
+      <c r="E3">
+        <v>336</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF($A$2:$A$86,E3)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>F3/SUM($F$3:$F$21)</f>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.GAMMA.DIST(E3,$B$7,$C$7,0)</f>
+        <v>7.701305021607939E-4</v>
+      </c>
+      <c r="I3">
+        <f>H3*85</f>
+        <v>6.5461092683667482E-2</v>
+      </c>
+      <c r="J3">
+        <f>(F3-I3)^2/I3</f>
+        <v>57.170460047245861</v>
+      </c>
+      <c r="K3">
+        <f>_xlfn.EXPON.DIST(E3,$D$7,0)</f>
+        <v>1.0943103190729421E-3</v>
+      </c>
+      <c r="L3">
+        <f>85*K3</f>
+        <v>9.3016377121200089E-2</v>
+      </c>
+      <c r="M3">
+        <f ca="1">(F3-M3)^2/L3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>349</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>337</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F21" si="0">COUNTIF($A$2:$A$86,E4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G21" si="1">F4/SUM($F$3:$F$21)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="2">_xlfn.GAMMA.DIST(E4,$B$7,$C$7,0)</f>
+        <v>1.8405851629077819E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="3">H4*85</f>
+        <v>0.15644973884716146</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J21" si="4">(F4-I4)^2/I4</f>
+        <v>0.15644973884716146</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K21" si="5">_xlfn.EXPON.DIST(E4,$D$7,0)</f>
+        <v>1.0911618663552644E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L21" si="6">85*K4</f>
+        <v>9.2748758640197479E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M21" ca="1" si="7">(F4-M4)^2/L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>354</v>
+      </c>
+      <c r="B5">
+        <f>AVERAGE(A2:A86)</f>
+        <v>347.07058823529411</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.VAR.S(A2:A86)</f>
+        <v>12.471148459383761</v>
+      </c>
+      <c r="D5">
+        <f>C5^0.5</f>
+        <v>3.531451324793216</v>
+      </c>
+      <c r="E5">
+        <v>338</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>4.0403114604880518E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.34342647414148442</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>1.2552579003582682</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>1.0880224720868608E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>9.2481910127383174E-2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>350</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>339</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>8.1500321976242917E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.69275273679806482</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.69275273679806482</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>1.0848921102055635E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>9.2215829367472898E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>348</v>
+      </c>
+      <c r="B7">
+        <f>B5^2/C5</f>
+        <v>9658.9334663365316</v>
+      </c>
+      <c r="C7">
+        <f>C5/B5</f>
+        <v>3.5932599540612849E-2</v>
+      </c>
+      <c r="D7">
+        <f>1/B5</f>
+        <v>2.8812582624317819E-3</v>
+      </c>
+      <c r="E7">
+        <v>340</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.5114912588487928E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.2847675700214738</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>6.3118474366985769E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>1.0817707547241882E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>9.1950514151556001E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>351</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>341</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>2.5785061529421376E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>2.1917302300008168</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>2.1917302300008168</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>1.0786583797303189E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>9.1685962277077107E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>350</v>
+      </c>
+      <c r="B9">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>342</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>4.048176299069333E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>3.4409498542089332</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>9.0828718450145687E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>1.0755549593860925E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>9.1422171547817871E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>352</v>
+      </c>
+      <c r="E10">
+        <v>343</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>5.8518072550149569E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>4.9740361667627138</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>1.7782120645433983</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>1.0724604679279842E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>9.1159139773878656E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>351</v>
+      </c>
+      <c r="E11">
+        <v>344</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>7.7923554298015937E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>6.6235021153313545</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>1.0391426211243486</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>1.069374879666594E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>9.0896864771660493E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>351</v>
+      </c>
+      <c r="E12">
+        <v>345</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>8.2352941176470587E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>9.5631863257402694E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>8.1287083768792296</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.15672632612346857</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>1.0662981689864325E-3</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>9.0635344363846765E-2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>351</v>
+      </c>
+      <c r="E13">
+        <v>346</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.10821732269277187</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>9.1984724288856086</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>3.6590556115281059</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>1.0632303103457097E-3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>9.0374576379385327E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>348</v>
+      </c>
+      <c r="E14">
+        <v>347</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.14117647058823529</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.11296779736736627</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>9.6022627762261337</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.59872802153518323</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>1.0601712782761217E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>9.0114558653470345E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>353</v>
+      </c>
+      <c r="E15">
+        <v>348</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.12941176470588237</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.10883733347088335</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>9.2511733450250855</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.33059532613724424</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1.0571210473826398E-3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>8.9855289027524377E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>351</v>
+      </c>
+      <c r="E16">
+        <v>349</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>9.6820293177353037E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>8.2297249200750073</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>2.1738968280534547</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1.0540795923432995E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>8.9596765349180457E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>352</v>
+      </c>
+      <c r="E17">
+        <v>350</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>9.4117647058823528E-2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>7.9564320572952943E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>6.762967248701</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.22626902829971524</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>1.0510468879089915E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>8.9338985472264279E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>354</v>
+      </c>
+      <c r="E18">
+        <v>351</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>7.0588235294117646E-2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>6.0426896320624118E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>5.1362861872530496</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.14524142992290021</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>1.0480229089032489E-3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>8.9081947256776151E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>342</v>
+      </c>
+      <c r="E19">
+        <v>352</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>4.7058823529411764E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>4.2432342275792422E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>3.6067490934423558</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>4.2876915333417712E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>1.0450076302220424E-3</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>8.8825648568873608E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>347</v>
+      </c>
+      <c r="E20">
+        <v>353</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.7562060074800138E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2.3427751063580118</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>5.0151964317820992E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>1.0420010268335687E-3</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>8.8570087280853332E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>343</v>
+      </c>
+      <c r="E21">
+        <v>354</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705882E-2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1.6567837333978378E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>1.4082661733881621</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.24863831012447157</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>1.0390030737780437E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>8.8315261271133719E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>346</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="13">
+        <f>SUM(F3:F21)</f>
+        <v>85</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" ref="G22:J22" si="8">SUM(G3:G21)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="8"/>
+        <v>0.98165248982387432</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="8"/>
+        <v>72.070132293110831</v>
+      </c>
+      <c r="K22" s="16">
+        <f>SUM(K3:K21)</f>
+        <v>2.0262188134135908E-2</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="15">
+        <f ca="1">SUM(M3:M21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>346</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23">
+        <f>_xlfn.CHISQ.INV.RT(0.1,18)</f>
+        <v>25.989423082637209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>346</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(J22&gt;J23,"reject","accept")</f>
+        <v>reject</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>347</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <f>_xlfn.CHISQ.DIST.RT(J22,18)</f>
+        <v>2.0110666131143229E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A7079-D14C-4D77-87E0-ECB4CEC88EC2}">
+  <dimension ref="A1:O87"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="2"/>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(F3:F47)</f>
+        <v>348.50666666666672</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>$J$5</f>
+        <v>350</v>
+      </c>
+      <c r="M2">
+        <f>$J$6</f>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N2">
+        <f>$J$7</f>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O2">
+        <v>349.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
+        <v>352</v>
+      </c>
+      <c r="B3" s="2">
+        <v>352</v>
+      </c>
+      <c r="C3" s="2">
+        <v>353</v>
+      </c>
+      <c r="D3" s="2">
+        <v>351</v>
+      </c>
+      <c r="E3" s="7">
+        <v>354</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(A3:E3)</f>
+        <v>352.4</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <f>_xlfn.VAR.S(F3:F47)</f>
+        <v>17.493818181818209</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L41" si="0">$J$5</f>
+        <v>350</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M41" si="1">$J$6</f>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N41" si="2">$J$7</f>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O3">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
+        <v>354</v>
+      </c>
+      <c r="B4" s="2">
+        <v>353</v>
+      </c>
+      <c r="C4" s="2">
+        <v>354</v>
+      </c>
+      <c r="D4" s="2">
+        <v>352</v>
+      </c>
+      <c r="E4" s="7">
+        <v>354</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F67" si="3">AVERAGE(A4:E4)</f>
+        <v>353.4</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <f>J3^0.5</f>
+        <v>4.1825611988132589</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O4">
+        <v>343.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
+        <v>352</v>
+      </c>
+      <c r="B5" s="2">
+        <v>352</v>
+      </c>
+      <c r="C5" s="2">
+        <v>352</v>
+      </c>
+      <c r="D5" s="2">
+        <v>349</v>
+      </c>
+      <c r="E5" s="7">
+        <v>353</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
+        <v>351.6</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5">
+        <v>350</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O5">
+        <v>343.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
+        <v>355</v>
+      </c>
+      <c r="B6" s="2">
+        <v>356</v>
+      </c>
+      <c r="C6" s="2">
+        <v>355</v>
+      </c>
+      <c r="D6" s="2">
+        <v>354</v>
+      </c>
+      <c r="E6" s="7">
+        <v>356</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>355.2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6">
+        <f>J5+3*J4</f>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O6">
+        <v>349.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>351</v>
+      </c>
+      <c r="B7" s="2">
+        <v>352</v>
+      </c>
+      <c r="C7" s="2">
+        <v>351</v>
+      </c>
+      <c r="D7" s="2">
+        <v>350</v>
+      </c>
+      <c r="E7" s="7">
+        <v>353</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>351.4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7">
+        <f>J5-3*J4</f>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O7">
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
+        <v>350</v>
+      </c>
+      <c r="B8" s="2">
+        <v>352</v>
+      </c>
+      <c r="C8" s="2">
+        <v>350</v>
+      </c>
+      <c r="D8" s="2">
+        <v>348</v>
+      </c>
+      <c r="E8" s="7">
+        <v>352</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>350.4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O8">
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>354</v>
+      </c>
+      <c r="B9" s="2">
+        <v>354</v>
+      </c>
+      <c r="C9" s="2">
+        <v>354</v>
+      </c>
+      <c r="D9" s="2">
+        <v>351</v>
+      </c>
+      <c r="E9" s="7">
+        <v>355</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>353.6</v>
+      </c>
+      <c r="G9" s="8">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O9">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>352</v>
+      </c>
+      <c r="B10" s="2">
+        <v>352</v>
+      </c>
+      <c r="C10" s="2">
+        <v>352</v>
+      </c>
+      <c r="D10" s="2">
+        <v>350</v>
+      </c>
+      <c r="E10" s="7">
+        <v>353</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>351.8</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O10">
+        <v>350.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>354</v>
+      </c>
+      <c r="B11" s="2">
+        <v>354</v>
+      </c>
+      <c r="C11" s="2">
+        <v>353</v>
+      </c>
+      <c r="D11" s="2">
+        <v>352</v>
+      </c>
+      <c r="E11" s="7">
+        <v>354</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
+        <v>353.4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O11">
+        <v>349.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>352</v>
+      </c>
+      <c r="B12" s="2">
+        <v>353</v>
+      </c>
+      <c r="C12" s="2">
+        <v>353</v>
+      </c>
+      <c r="D12" s="2">
+        <v>351</v>
+      </c>
+      <c r="E12" s="2">
+        <v>354</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
+        <v>352.6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O12">
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>353</v>
+      </c>
+      <c r="B13" s="2">
+        <v>352</v>
+      </c>
+      <c r="C13" s="2">
+        <v>353</v>
+      </c>
+      <c r="D13" s="2">
+        <v>351</v>
+      </c>
+      <c r="E13" s="2">
+        <v>353</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>352.4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O13">
+        <v>349.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>351</v>
+      </c>
+      <c r="B14" s="2">
+        <v>352</v>
+      </c>
+      <c r="C14" s="2">
+        <v>352</v>
+      </c>
+      <c r="D14" s="2">
+        <v>351</v>
+      </c>
+      <c r="E14" s="2">
+        <v>353</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>351.8</v>
+      </c>
+      <c r="G14" s="8">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O14">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>352</v>
+      </c>
+      <c r="B15" s="2">
+        <v>352</v>
+      </c>
+      <c r="C15" s="2">
+        <v>351</v>
+      </c>
+      <c r="D15" s="2">
+        <v>348</v>
+      </c>
+      <c r="E15" s="2">
+        <v>351</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
+        <v>350.8</v>
+      </c>
+      <c r="G15" s="8">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O15">
+        <v>347.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>352</v>
+      </c>
+      <c r="B16" s="2">
+        <v>352</v>
+      </c>
+      <c r="C16" s="2">
+        <v>350</v>
+      </c>
+      <c r="D16" s="2">
+        <v>353</v>
+      </c>
+      <c r="E16" s="2">
+        <v>352</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>351.8</v>
+      </c>
+      <c r="G16" s="8">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O16">
+        <v>350.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>352</v>
+      </c>
+      <c r="B17" s="2">
+        <v>353</v>
+      </c>
+      <c r="C17" s="2">
+        <v>353</v>
+      </c>
+      <c r="D17" s="2">
+        <v>351</v>
+      </c>
+      <c r="E17" s="2">
+        <v>354</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>352.6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O17">
+        <v>349.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>351</v>
+      </c>
+      <c r="B18" s="2">
+        <v>351</v>
+      </c>
+      <c r="C18" s="2">
+        <v>350</v>
+      </c>
+      <c r="D18" s="2">
+        <v>352</v>
+      </c>
+      <c r="E18" s="2">
+        <v>351</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+      <c r="G18" s="8">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O18">
+        <v>349.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>352</v>
+      </c>
+      <c r="B19" s="2">
+        <v>352</v>
+      </c>
+      <c r="C19" s="2">
+        <v>352</v>
+      </c>
+      <c r="D19" s="2">
+        <v>354</v>
+      </c>
+      <c r="E19" s="2">
+        <v>354</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
+        <v>352.8</v>
+      </c>
+      <c r="G19" s="8">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O19">
+        <v>346.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>338</v>
+      </c>
+      <c r="B20" s="2">
+        <v>339</v>
+      </c>
+      <c r="C20" s="2">
+        <v>338</v>
+      </c>
+      <c r="D20" s="2">
+        <v>342</v>
+      </c>
+      <c r="E20" s="2">
+        <v>340</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>339.4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O20">
+        <v>348.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>346</v>
+      </c>
+      <c r="B21" s="2">
+        <v>344</v>
+      </c>
+      <c r="C21" s="2">
+        <v>345</v>
+      </c>
+      <c r="D21" s="2">
+        <v>347</v>
+      </c>
+      <c r="E21" s="2">
+        <v>345</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>345.4</v>
+      </c>
+      <c r="G21" s="8">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O21">
+        <v>350.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>344</v>
+      </c>
+      <c r="B22" s="2">
+        <v>343</v>
+      </c>
+      <c r="C22" s="2">
+        <v>343</v>
+      </c>
+      <c r="D22" s="2">
+        <v>343</v>
+      </c>
+      <c r="E22" s="2">
+        <v>345</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="3"/>
+        <v>343.6</v>
+      </c>
+      <c r="G22" s="8">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O22">
+        <v>347.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>345</v>
+      </c>
+      <c r="B23" s="2">
+        <v>345</v>
+      </c>
+      <c r="C23" s="2">
+        <v>344</v>
+      </c>
+      <c r="D23" s="2">
+        <v>346</v>
+      </c>
+      <c r="E23" s="2">
+        <v>345</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="G23" s="8">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O23">
+        <v>348.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>346</v>
+      </c>
+      <c r="B24" s="2">
+        <v>346</v>
+      </c>
+      <c r="C24" s="2">
+        <v>345</v>
+      </c>
+      <c r="D24" s="2">
+        <v>346</v>
+      </c>
+      <c r="E24" s="2">
+        <v>347</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="3"/>
+        <v>346</v>
+      </c>
+      <c r="G24" s="8">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O24">
+        <v>347.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>348</v>
+      </c>
+      <c r="B25" s="2">
+        <v>350</v>
+      </c>
+      <c r="C25" s="2">
+        <v>346</v>
+      </c>
+      <c r="D25" s="2">
+        <v>346</v>
+      </c>
+      <c r="E25" s="2">
+        <v>350</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="G25" s="8">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O25">
+        <v>346.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>348</v>
+      </c>
+      <c r="B26" s="2">
+        <v>350</v>
+      </c>
+      <c r="C26" s="2">
+        <v>346</v>
+      </c>
+      <c r="D26" s="2">
+        <v>347</v>
+      </c>
+      <c r="E26" s="2">
+        <v>350</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>348.2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O26">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>348</v>
+      </c>
+      <c r="B27" s="2">
+        <v>348</v>
+      </c>
+      <c r="C27" s="2">
+        <v>346</v>
+      </c>
+      <c r="D27" s="2">
+        <v>346</v>
+      </c>
+      <c r="E27" s="2">
+        <v>349</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="3"/>
+        <v>347.4</v>
+      </c>
+      <c r="G27" s="8">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O27">
+        <v>348.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>344</v>
+      </c>
+      <c r="B28" s="2">
+        <v>344</v>
+      </c>
+      <c r="C28" s="2">
+        <v>345</v>
+      </c>
+      <c r="D28" s="2">
+        <v>343</v>
+      </c>
+      <c r="E28" s="2">
+        <v>346</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="3"/>
+        <v>344.4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O28">
+        <v>338.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>337</v>
+      </c>
+      <c r="B29" s="2">
+        <v>337</v>
+      </c>
+      <c r="C29" s="2">
+        <v>338</v>
+      </c>
+      <c r="D29" s="2">
+        <v>336</v>
+      </c>
+      <c r="E29" s="2">
+        <v>339</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="3"/>
+        <v>337.4</v>
+      </c>
+      <c r="G29" s="8">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O29">
+        <v>347.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>344</v>
+      </c>
+      <c r="B30" s="2">
+        <v>344</v>
+      </c>
+      <c r="C30" s="2">
+        <v>345</v>
+      </c>
+      <c r="D30" s="2">
+        <v>344</v>
+      </c>
+      <c r="E30" s="2">
+        <v>346</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="3"/>
+        <v>344.6</v>
+      </c>
+      <c r="G30" s="8">
+        <v>28</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O30">
+        <v>347.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>345</v>
+      </c>
+      <c r="B31" s="2">
+        <v>345</v>
+      </c>
+      <c r="C31" s="2">
+        <v>346</v>
+      </c>
+      <c r="D31" s="2">
+        <v>345</v>
+      </c>
+      <c r="E31" s="2">
+        <v>348</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="3"/>
+        <v>345.8</v>
+      </c>
+      <c r="G31" s="8">
+        <v>29</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O31">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>344</v>
+      </c>
+      <c r="B32" s="2">
+        <v>345</v>
+      </c>
+      <c r="C32" s="2">
+        <v>345</v>
+      </c>
+      <c r="D32" s="2">
+        <v>345</v>
+      </c>
+      <c r="E32" s="2">
+        <v>346</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+      <c r="G32" s="8">
+        <v>30</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O32">
+        <v>347.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>345</v>
+      </c>
+      <c r="B33" s="2">
+        <v>345</v>
+      </c>
+      <c r="C33" s="2">
+        <v>345</v>
+      </c>
+      <c r="D33" s="2">
+        <v>344</v>
+      </c>
+      <c r="E33" s="2">
+        <v>347</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="3"/>
+        <v>345.2</v>
+      </c>
+      <c r="G33" s="8">
+        <v>31</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O33">
+        <v>346.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>349</v>
+      </c>
+      <c r="B34" s="2">
+        <v>349</v>
+      </c>
+      <c r="C34" s="2">
+        <v>348</v>
+      </c>
+      <c r="D34" s="2">
+        <v>348</v>
+      </c>
+      <c r="E34" s="2">
+        <v>350</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="3"/>
+        <v>348.8</v>
+      </c>
+      <c r="G34" s="8">
+        <v>32</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O34">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>349</v>
+      </c>
+      <c r="B35" s="2">
+        <v>350</v>
+      </c>
+      <c r="C35" s="2">
+        <v>348</v>
+      </c>
+      <c r="D35" s="2">
+        <v>350</v>
+      </c>
+      <c r="E35" s="2">
+        <v>349</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="3"/>
+        <v>349.2</v>
+      </c>
+      <c r="G35" s="8">
+        <v>33</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O35">
+        <v>349.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>348</v>
+      </c>
+      <c r="B36" s="2">
+        <v>348</v>
+      </c>
+      <c r="C36" s="2">
+        <v>348</v>
+      </c>
+      <c r="D36" s="2">
+        <v>345</v>
+      </c>
+      <c r="E36" s="2">
+        <v>349</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="3"/>
+        <v>347.6</v>
+      </c>
+      <c r="G36" s="8">
+        <v>34</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O36">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>348</v>
+      </c>
+      <c r="B37" s="2">
+        <v>349</v>
+      </c>
+      <c r="C37" s="2">
+        <v>348</v>
+      </c>
+      <c r="D37" s="2">
+        <v>345</v>
+      </c>
+      <c r="E37" s="2">
+        <v>348</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="3"/>
+        <v>347.6</v>
+      </c>
+      <c r="G37" s="8">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O37">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>354</v>
+      </c>
+      <c r="B38" s="2">
+        <v>350</v>
+      </c>
+      <c r="C38" s="2">
+        <v>360</v>
+      </c>
+      <c r="D38" s="2">
+        <v>350</v>
+      </c>
+      <c r="E38" s="2">
+        <v>359</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="3"/>
+        <v>354.6</v>
+      </c>
+      <c r="G38" s="8">
+        <v>36</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O38">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>346</v>
+      </c>
+      <c r="B39" s="2">
+        <v>344</v>
+      </c>
+      <c r="C39" s="2">
+        <v>344</v>
+      </c>
+      <c r="D39" s="2">
+        <v>342</v>
+      </c>
+      <c r="E39" s="2">
+        <v>345</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="3"/>
+        <v>344.2</v>
+      </c>
+      <c r="G39" s="8">
+        <v>37</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O39">
+        <v>346.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>350</v>
+      </c>
+      <c r="B40" s="2">
+        <v>351</v>
+      </c>
+      <c r="C40" s="2">
+        <v>351</v>
+      </c>
+      <c r="D40" s="2">
+        <v>352</v>
+      </c>
+      <c r="E40" s="2">
+        <v>354</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="3"/>
+        <v>351.6</v>
+      </c>
+      <c r="G40" s="8">
+        <v>38</v>
+      </c>
+      <c r="K40">
+        <v>39</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O40">
+        <v>350.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>342</v>
+      </c>
+      <c r="B41" s="2">
+        <v>342</v>
+      </c>
+      <c r="C41" s="2">
+        <v>343</v>
+      </c>
+      <c r="D41" s="2">
+        <v>340</v>
+      </c>
+      <c r="E41" s="2">
+        <v>344</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="3"/>
+        <v>342.2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>39</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="O41">
+        <v>348.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>349</v>
+      </c>
+      <c r="B42" s="2">
+        <v>349</v>
+      </c>
+      <c r="C42" s="2">
+        <v>349</v>
+      </c>
+      <c r="D42" s="2">
+        <v>347</v>
+      </c>
+      <c r="E42" s="2">
+        <v>351</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="G42" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>349</v>
+      </c>
+      <c r="B43" s="2">
+        <v>348</v>
+      </c>
+      <c r="C43" s="2">
+        <v>348</v>
+      </c>
+      <c r="D43" s="2">
+        <v>347</v>
+      </c>
+      <c r="E43" s="2">
+        <v>350</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="3"/>
+        <v>348.4</v>
+      </c>
+      <c r="G43" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>349</v>
+      </c>
+      <c r="B44" s="2">
+        <v>349</v>
+      </c>
+      <c r="C44" s="2">
+        <v>347</v>
+      </c>
+      <c r="D44" s="2">
+        <v>350</v>
+      </c>
+      <c r="E44" s="2">
+        <v>349</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="3"/>
+        <v>348.8</v>
+      </c>
+      <c r="G44" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>348</v>
+      </c>
+      <c r="B45" s="2">
+        <v>348</v>
+      </c>
+      <c r="C45" s="2">
+        <v>347</v>
+      </c>
+      <c r="D45" s="2">
+        <v>347</v>
+      </c>
+      <c r="E45" s="2">
+        <v>349</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="3"/>
+        <v>347.8</v>
+      </c>
+      <c r="G45" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>349</v>
+      </c>
+      <c r="B46" s="2">
+        <v>349</v>
+      </c>
+      <c r="C46" s="2">
+        <v>349</v>
+      </c>
+      <c r="D46" s="2">
+        <v>346</v>
+      </c>
+      <c r="E46" s="2">
+        <v>350</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="3"/>
+        <v>348.6</v>
+      </c>
+      <c r="G46" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>339</v>
+      </c>
+      <c r="B47" s="2">
+        <v>340</v>
+      </c>
+      <c r="C47" s="2">
+        <v>341</v>
+      </c>
+      <c r="D47" s="2">
+        <v>338</v>
+      </c>
+      <c r="E47" s="2">
+        <v>342</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="G47" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>350</v>
+      </c>
+      <c r="B48" s="2">
+        <v>350</v>
+      </c>
+      <c r="C48" s="2">
+        <v>348</v>
+      </c>
+      <c r="D48" s="2">
+        <v>347</v>
+      </c>
+      <c r="E48" s="2">
+        <v>351</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="3"/>
+        <v>349.2</v>
+      </c>
+      <c r="G48" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>349</v>
+      </c>
+      <c r="B49" s="2">
+        <v>350</v>
+      </c>
+      <c r="C49" s="2">
+        <v>349</v>
+      </c>
+      <c r="D49" s="2">
+        <v>349</v>
+      </c>
+      <c r="E49" s="2">
+        <v>351</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="3"/>
+        <v>349.6</v>
+      </c>
+      <c r="G49" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>343</v>
+      </c>
+      <c r="B50" s="2">
+        <v>343</v>
+      </c>
+      <c r="C50" s="2">
+        <v>343</v>
+      </c>
+      <c r="D50" s="2">
+        <v>342</v>
+      </c>
+      <c r="E50" s="2">
+        <v>345</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="3"/>
+        <v>343.2</v>
+      </c>
+      <c r="G50" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>342</v>
+      </c>
+      <c r="B51" s="2">
+        <v>344</v>
+      </c>
+      <c r="C51" s="2">
+        <v>345</v>
+      </c>
+      <c r="D51" s="2">
+        <v>342</v>
+      </c>
+      <c r="E51" s="2">
+        <v>345</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="3"/>
+        <v>343.6</v>
+      </c>
+      <c r="G51" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>350</v>
+      </c>
+      <c r="B52" s="2">
+        <v>350</v>
+      </c>
+      <c r="C52" s="2">
+        <v>349</v>
+      </c>
+      <c r="D52" s="2">
+        <v>347</v>
+      </c>
+      <c r="E52" s="2">
+        <v>350</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="3"/>
+        <v>349.2</v>
+      </c>
+      <c r="G52" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>350</v>
+      </c>
+      <c r="B53" s="2">
+        <v>350</v>
+      </c>
+      <c r="C53" s="2">
+        <v>349</v>
+      </c>
+      <c r="D53" s="2">
+        <v>348</v>
+      </c>
+      <c r="E53" s="2">
+        <v>350</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
+        <v>349.4</v>
+      </c>
+      <c r="G53" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>355</v>
+      </c>
+      <c r="B54" s="2">
+        <v>354</v>
+      </c>
+      <c r="C54" s="2">
+        <v>355</v>
+      </c>
+      <c r="D54" s="2">
+        <v>353</v>
+      </c>
+      <c r="E54" s="2">
+        <v>356</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="3"/>
+        <v>354.6</v>
+      </c>
+      <c r="G54" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>349</v>
+      </c>
+      <c r="B55" s="2">
+        <v>349</v>
+      </c>
+      <c r="C55" s="2">
+        <v>350</v>
+      </c>
+      <c r="D55" s="2">
+        <v>347</v>
+      </c>
+      <c r="E55" s="2">
+        <v>350</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="G55" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>351</v>
+      </c>
+      <c r="B56" s="2">
+        <v>351</v>
+      </c>
+      <c r="C56" s="2">
+        <v>350</v>
+      </c>
+      <c r="D56" s="2">
+        <v>348</v>
+      </c>
+      <c r="E56" s="2">
+        <v>352</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="3"/>
+        <v>350.4</v>
+      </c>
+      <c r="G56" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>350</v>
+      </c>
+      <c r="B57" s="2">
+        <v>350</v>
+      </c>
+      <c r="C57" s="2">
+        <v>350</v>
+      </c>
+      <c r="D57" s="2">
+        <v>348</v>
+      </c>
+      <c r="E57" s="2">
+        <v>351</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="3"/>
+        <v>349.8</v>
+      </c>
+      <c r="G57" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>345</v>
+      </c>
+      <c r="B58" s="2">
+        <v>346</v>
+      </c>
+      <c r="C58" s="2">
+        <v>355</v>
+      </c>
+      <c r="D58" s="2">
+        <v>345</v>
+      </c>
+      <c r="E58" s="2">
+        <v>356</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="3"/>
+        <v>349.4</v>
+      </c>
+      <c r="G58" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>345</v>
+      </c>
+      <c r="B59" s="2">
+        <v>346</v>
+      </c>
+      <c r="C59" s="2">
+        <v>354</v>
+      </c>
+      <c r="D59" s="2">
+        <v>346</v>
+      </c>
+      <c r="E59" s="2">
+        <v>355</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="3"/>
+        <v>349.2</v>
+      </c>
+      <c r="G59" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>348</v>
+      </c>
+      <c r="B60" s="2">
+        <v>345</v>
+      </c>
+      <c r="C60" s="2">
+        <v>348</v>
+      </c>
+      <c r="D60" s="2">
+        <v>346</v>
+      </c>
+      <c r="E60" s="2">
+        <v>348</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="3"/>
+        <v>347</v>
+      </c>
+      <c r="G60" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>348</v>
+      </c>
+      <c r="B61" s="2">
+        <v>348</v>
+      </c>
+      <c r="C61" s="2">
+        <v>348</v>
+      </c>
+      <c r="D61" s="2">
+        <v>346</v>
+      </c>
+      <c r="E61" s="2">
+        <v>349</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="3"/>
+        <v>347.8</v>
+      </c>
+      <c r="G61" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>352</v>
+      </c>
+      <c r="B62" s="2">
+        <v>348</v>
+      </c>
+      <c r="C62" s="2">
+        <v>349</v>
+      </c>
+      <c r="D62" s="2">
+        <v>350</v>
+      </c>
+      <c r="E62" s="2">
+        <v>353</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="3"/>
+        <v>350.4</v>
+      </c>
+      <c r="G62" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>350</v>
+      </c>
+      <c r="B63" s="2">
+        <v>350</v>
+      </c>
+      <c r="C63" s="2">
+        <v>348</v>
+      </c>
+      <c r="D63" s="2">
+        <v>350</v>
+      </c>
+      <c r="E63" s="2">
+        <v>351</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="3"/>
+        <v>349.8</v>
+      </c>
+      <c r="G63" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>350</v>
+      </c>
+      <c r="B64" s="2">
+        <v>350</v>
+      </c>
+      <c r="C64" s="2">
+        <v>348</v>
+      </c>
+      <c r="D64" s="2">
+        <v>350</v>
+      </c>
+      <c r="E64" s="2">
+        <v>351</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="3"/>
+        <v>349.8</v>
+      </c>
+      <c r="G64" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>348</v>
+      </c>
+      <c r="B65" s="2">
+        <v>347</v>
+      </c>
+      <c r="C65" s="2">
+        <v>346</v>
+      </c>
+      <c r="D65" s="2">
+        <v>344</v>
+      </c>
+      <c r="E65" s="2">
+        <v>348</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="3"/>
+        <v>346.6</v>
+      </c>
+      <c r="G65" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>348</v>
+      </c>
+      <c r="B66" s="2">
+        <v>349</v>
+      </c>
+      <c r="C66" s="2">
+        <v>348</v>
+      </c>
+      <c r="D66" s="2">
+        <v>348</v>
+      </c>
+      <c r="E66" s="2">
+        <v>350</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="3"/>
+        <v>348.6</v>
+      </c>
+      <c r="G66" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>351</v>
+      </c>
+      <c r="B67" s="2">
+        <v>351</v>
+      </c>
+      <c r="C67" s="2">
+        <v>350</v>
+      </c>
+      <c r="D67" s="2">
+        <v>349</v>
+      </c>
+      <c r="E67" s="2">
+        <v>352</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="3"/>
+        <v>350.6</v>
+      </c>
+      <c r="G67" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>347</v>
+      </c>
+      <c r="B68" s="2">
+        <v>348</v>
+      </c>
+      <c r="C68" s="2">
+        <v>349</v>
+      </c>
+      <c r="D68" s="2">
+        <v>346</v>
+      </c>
+      <c r="E68" s="2">
+        <v>349</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ref="F68:F87" si="4">AVERAGE(A68:E68)</f>
+        <v>347.8</v>
+      </c>
+      <c r="G68" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>349</v>
+      </c>
+      <c r="B69" s="2">
+        <v>349</v>
+      </c>
+      <c r="C69" s="2">
+        <v>348</v>
+      </c>
+      <c r="D69" s="2">
+        <v>347</v>
+      </c>
+      <c r="E69" s="2">
+        <v>349</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="4"/>
+        <v>348.4</v>
+      </c>
+      <c r="G69" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>347</v>
+      </c>
+      <c r="B70" s="2">
+        <v>348</v>
+      </c>
+      <c r="C70" s="2">
+        <v>348</v>
+      </c>
+      <c r="D70" s="2">
+        <v>346</v>
+      </c>
+      <c r="E70" s="2">
+        <v>348</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>347.4</v>
+      </c>
+      <c r="G70" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>347</v>
+      </c>
+      <c r="B71" s="2">
+        <v>347</v>
+      </c>
+      <c r="C71" s="2">
+        <v>347</v>
+      </c>
+      <c r="D71" s="2">
+        <v>345</v>
+      </c>
+      <c r="E71" s="2">
+        <v>348</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="4"/>
+        <v>346.8</v>
+      </c>
+      <c r="G71" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>347</v>
+      </c>
+      <c r="B72" s="2">
+        <v>347</v>
+      </c>
+      <c r="C72" s="2">
+        <v>345</v>
+      </c>
+      <c r="D72" s="2">
+        <v>349</v>
+      </c>
+      <c r="E72" s="2">
+        <v>347</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="4"/>
+        <v>347</v>
+      </c>
+      <c r="G72" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>349</v>
+      </c>
+      <c r="B73" s="2">
+        <v>349</v>
+      </c>
+      <c r="C73" s="2">
+        <v>349</v>
+      </c>
+      <c r="D73" s="2">
+        <v>347</v>
+      </c>
+      <c r="E73" s="2">
+        <v>350</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="4"/>
+        <v>348.8</v>
+      </c>
+      <c r="G73" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>338</v>
+      </c>
+      <c r="B74" s="2">
+        <v>338</v>
+      </c>
+      <c r="C74" s="2">
+        <v>340</v>
+      </c>
+      <c r="D74" s="2">
+        <v>336</v>
+      </c>
+      <c r="E74" s="2">
+        <v>340</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="4"/>
+        <v>338.4</v>
+      </c>
+      <c r="G74" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>348</v>
+      </c>
+      <c r="B75" s="2">
+        <v>348</v>
+      </c>
+      <c r="C75" s="2">
+        <v>348</v>
+      </c>
+      <c r="D75" s="2">
+        <v>346</v>
+      </c>
+      <c r="E75" s="2">
+        <v>349</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="4"/>
+        <v>347.8</v>
+      </c>
+      <c r="G75" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>348</v>
+      </c>
+      <c r="B76" s="2">
+        <v>348</v>
+      </c>
+      <c r="C76" s="2">
+        <v>348</v>
+      </c>
+      <c r="D76" s="2">
+        <v>346</v>
+      </c>
+      <c r="E76" s="2">
+        <v>348</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="4"/>
+        <v>347.6</v>
+      </c>
+      <c r="G76" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>346</v>
+      </c>
+      <c r="B77" s="2">
+        <v>346</v>
+      </c>
+      <c r="C77" s="2">
+        <v>347</v>
+      </c>
+      <c r="D77" s="2">
+        <v>344</v>
+      </c>
+      <c r="E77" s="2">
+        <v>347</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="4"/>
+        <v>346</v>
+      </c>
+      <c r="G77" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>348</v>
+      </c>
+      <c r="B78" s="2">
+        <v>348</v>
+      </c>
+      <c r="C78" s="2">
+        <v>347</v>
+      </c>
+      <c r="D78" s="2">
+        <v>346</v>
+      </c>
+      <c r="E78" s="2">
+        <v>349</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="4"/>
+        <v>347.6</v>
+      </c>
+      <c r="G78" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>346</v>
+      </c>
+      <c r="B79" s="2">
+        <v>347</v>
+      </c>
+      <c r="C79" s="2">
+        <v>347</v>
+      </c>
+      <c r="D79" s="2">
+        <v>345</v>
+      </c>
+      <c r="E79" s="2">
+        <v>348</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="4"/>
+        <v>346.6</v>
+      </c>
+      <c r="G79" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>350</v>
+      </c>
+      <c r="B80" s="2">
+        <v>349</v>
+      </c>
+      <c r="C80" s="2">
+        <v>349</v>
+      </c>
+      <c r="D80" s="2">
+        <v>347</v>
+      </c>
+      <c r="E80" s="2">
+        <v>350</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="G80" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>350</v>
+      </c>
+      <c r="B81" s="2">
+        <v>350</v>
+      </c>
+      <c r="C81" s="2">
+        <v>350</v>
+      </c>
+      <c r="D81" s="2">
+        <v>348</v>
+      </c>
+      <c r="E81" s="2">
+        <v>351</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="4"/>
+        <v>349.8</v>
+      </c>
+      <c r="G81" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>350</v>
+      </c>
+      <c r="B82" s="2">
+        <v>350</v>
+      </c>
+      <c r="C82" s="2">
+        <v>349</v>
+      </c>
+      <c r="D82" s="2">
+        <v>348</v>
+      </c>
+      <c r="E82" s="2">
+        <v>351</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="4"/>
+        <v>349.6</v>
+      </c>
+      <c r="G82" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>348</v>
+      </c>
+      <c r="B83" s="2">
+        <v>348</v>
+      </c>
+      <c r="C83" s="2">
+        <v>348</v>
+      </c>
+      <c r="D83" s="2">
+        <v>346</v>
+      </c>
+      <c r="E83" s="2">
+        <v>350</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="G83" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>350</v>
+      </c>
+      <c r="B84" s="2">
+        <v>349</v>
+      </c>
+      <c r="C84" s="2">
+        <v>349</v>
+      </c>
+      <c r="D84" s="2">
+        <v>347</v>
+      </c>
+      <c r="E84" s="2">
+        <v>350</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="G84" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>345</v>
+      </c>
+      <c r="B85" s="2">
+        <v>347</v>
+      </c>
+      <c r="C85" s="2">
+        <v>346</v>
+      </c>
+      <c r="D85" s="2">
+        <v>348</v>
+      </c>
+      <c r="E85" s="2">
+        <v>347</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="4"/>
+        <v>346.6</v>
+      </c>
+      <c r="G85" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>351</v>
+      </c>
+      <c r="B86" s="2">
+        <v>351</v>
+      </c>
+      <c r="C86" s="2">
+        <v>350</v>
+      </c>
+      <c r="D86" s="2">
+        <v>348</v>
+      </c>
+      <c r="E86" s="2">
+        <v>352</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="4"/>
+        <v>350.4</v>
+      </c>
+      <c r="G86" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>349</v>
+      </c>
+      <c r="B87" s="2">
+        <v>348</v>
+      </c>
+      <c r="C87" s="2">
+        <v>349</v>
+      </c>
+      <c r="D87" s="2">
+        <v>346</v>
+      </c>
+      <c r="E87" s="2">
+        <v>351</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="4"/>
+        <v>348.6</v>
+      </c>
+      <c r="G87" s="8">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78914AF-0B29-4F08-BDD3-64D6B55884A0}">
+  <dimension ref="A1:R44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="12" max="12" width="22.7265625" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E3">
+        <f>50*D3</f>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F3">
+        <f>(B3-E3)^2/E3</f>
+        <v>0.56140350877193002</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>0.16</v>
+      </c>
+      <c r="J3">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K3">
+        <f>100*J3</f>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L3">
+        <f>(H3-K3)^2/K3</f>
+        <v>2.8070175438596667E-3</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>76</v>
+      </c>
+      <c r="O3">
+        <v>0.152</v>
+      </c>
+      <c r="P3">
+        <f>6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q3">
+        <f>P3*500</f>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R3">
+        <f>(N3-Q3)^2/Q3</f>
+        <v>0.11003508771929814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>0.16</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D40" si="0">6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E40" si="1">50*D4</f>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F40" si="2">(B4-E4)^2/E4</f>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J40" si="3">6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K40" si="4">100*J4</f>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L40" si="5">(H4-K4)^2/K4</f>
+        <v>3.9473684210526251E-2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>84</v>
+      </c>
+      <c r="O4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P40" si="6">6/38</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q40" si="7">P4*500</f>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R40" si="8">(N4-Q4)^2/Q4</f>
+        <v>0.3233684210526318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.24</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2.1347368421052635</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>0.21</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>1.7194736842105267</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>91</v>
+      </c>
+      <c r="O5">
+        <v>0.182</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="8"/>
+        <v>1.8400350877192988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.56140350877193002</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>0.16</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>2.8070175438596667E-3</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>82</v>
+      </c>
+      <c r="O6">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>0.11803508771929837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.0614035087719298</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>0.09</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>2.919473684210526</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>68</v>
+      </c>
+      <c r="O7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>1.5180350877192978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.08</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.9214035087719297</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>0.13</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.49280701754385947</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>78</v>
+      </c>
+      <c r="O8">
+        <v>0.156</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>1.1368421052631543E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.56140350877193002</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>0.16</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>2.8070175438596667E-3</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>79</v>
+      </c>
+      <c r="O9">
+        <v>0.158</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>3.508771929824761E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.0614035087719298</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>0.11</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>1.4528070175438592</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>69</v>
+      </c>
+      <c r="O10">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>1.2533684210526312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.9214035087719297</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>0.15</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>3.9473684210526251E-2</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>63</v>
+      </c>
+      <c r="O11">
+        <v>0.126</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>3.221368421052631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.0614035087719298</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>0.18</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0.30947368421052651</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>74</v>
+      </c>
+      <c r="O12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>0.31003508771929805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0.12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.45473684210526299</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>0.16</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>2.8070175438596667E-3</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>74</v>
+      </c>
+      <c r="O13">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>0.31003508771929805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0.18</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.15473684210526326</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>0.19</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0.65280701754385995</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>85</v>
+      </c>
+      <c r="O14">
+        <v>0.17</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>0.46403508771929847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>0.06</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3.034736842105263</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>0.09</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>2.919473684210526</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>76</v>
+      </c>
+      <c r="O15">
+        <v>0.152</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>0.11003508771929814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.10140350877192976</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0.12</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0.90947368421052599</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>84</v>
+      </c>
+      <c r="O16">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>0.3233684210526318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0.16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>0.19</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0.65280701754385995</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>84</v>
+      </c>
+      <c r="O17">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>0.3233684210526318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0.12</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.45473684210526299</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>0.13</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0.49280701754385947</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>82</v>
+      </c>
+      <c r="O18">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>0.11803508771929837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.22</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.2214035087719302</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>0.22</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>2.4428070175438603</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>87</v>
+      </c>
+      <c r="O19">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>0.82136842105263186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.56140350877193002</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20">
+        <v>0.17</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>9.2807017543859754E-2</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>71</v>
+      </c>
+      <c r="O20">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>0.80003508771929788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.10140350877192976</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0.20280701754385952</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>91</v>
+      </c>
+      <c r="O21">
+        <v>0.182</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>1.8400350877192988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0.16</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+      <c r="I22">
+        <v>0.19</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.65280701754385995</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>73</v>
+      </c>
+      <c r="O22">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>0.44803508771929801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>0.16</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>0.16</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>2.8070175438596667E-3</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>89</v>
+      </c>
+      <c r="O23">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>1.2800350877192985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0.08</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.9214035087719297</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <v>0.13</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.49280701754385947</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <v>75</v>
+      </c>
+      <c r="O24">
+        <v>0.15</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>0.19736842105263144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0.10140350877192976</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>0.18</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.30947368421052651</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <v>74</v>
+      </c>
+      <c r="O25">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>0.31003508771929805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>0.22</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.2214035087719302</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <v>0.17</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>9.2807017543859754E-2</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <v>77</v>
+      </c>
+      <c r="O26">
+        <v>0.154</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>4.8035087719298174E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>4.7214035087719308</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>0.23</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>3.2928070175438604</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>81</v>
+      </c>
+      <c r="O27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>5.3368421052631655E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.56140350877193002</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>0.19</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.65280701754385995</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>85</v>
+      </c>
+      <c r="O28">
+        <v>0.17</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>0.46403508771929847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>0.16</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>0.15</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>3.9473684210526251E-2</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>91</v>
+      </c>
+      <c r="O29">
+        <v>0.182</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>1.8400350877192988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>0.16</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>16</v>
+      </c>
+      <c r="I30">
+        <v>0.16</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>2.8070175438596667E-3</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>86</v>
+      </c>
+      <c r="O30">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>0.6300350877192985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>0.26</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>3.3014035087719305</v>
+      </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>0.23</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>3.2928070175438604</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <v>89</v>
+      </c>
+      <c r="O31">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>1.2800350877192985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0.16</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0.20280701754385952</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>76</v>
+      </c>
+      <c r="O32">
+        <v>0.152</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>0.11003508771929814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.08</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.9214035087719297</v>
+      </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>4.8928070175438592</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>86</v>
+      </c>
+      <c r="O33">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>0.6300350877192985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.10140350877192976</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>0.12</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.90947368421052599</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <v>70</v>
+      </c>
+      <c r="O34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>1.0140350877192978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.18</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.15473684210526326</v>
+      </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>0.18</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.30947368421052651</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>76</v>
+      </c>
+      <c r="O35">
+        <v>0.152</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>0.11003508771929814</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>0.18</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.15473684210526326</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="I36">
+        <v>0.17</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>9.2807017543859754E-2</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>71</v>
+      </c>
+      <c r="O36">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>0.80003508771929788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>0.16</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>0.17</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>9.2807017543859754E-2</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>80</v>
+      </c>
+      <c r="O37">
+        <v>0.16</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>1.4035087719298286E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0.16</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>1.4035087719298333E-3</v>
+      </c>
+      <c r="G38">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>17</v>
+      </c>
+      <c r="I38">
+        <v>0.17</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>9.2807017543859754E-2</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>76</v>
+      </c>
+      <c r="O38">
+        <v>0.152</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>0.11003508771929814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>0.12</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.45473684210526299</v>
+      </c>
+      <c r="G39">
+        <v>37</v>
+      </c>
+      <c r="H39">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>0.11</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>1.4528070175438592</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
+        <v>64</v>
+      </c>
+      <c r="O39">
+        <v>0.128</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>2.8300350877192977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0.2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052628</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.56140350877193002</v>
+      </c>
+      <c r="G40">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>0.17</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>9.2807017543859754E-2</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <v>83</v>
+      </c>
+      <c r="O40">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>78.94736842105263</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="8"/>
+        <v>0.20803508771929841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <f>SUM(F3:F40)</f>
+        <v>32.120000000000005</v>
+      </c>
+      <c r="K41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41">
+        <f>SUM(L3:L40)</f>
+        <v>32.32</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f>SUM(R3:R40)</f>
+        <v>26.193333333333332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42">
+        <f>_xlfn.CHISQ.INV.RT(0.1,37)</f>
+        <v>48.363408352194327</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L42">
+        <f>_xlfn.CHISQ.INV.RT(0.1,37)</f>
+        <v>48.363408352194327</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="R42">
+        <f>_xlfn.CHISQ.INV.RT(0.1,37)</f>
+        <v>48.363408352194327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="str">
+        <f>IF(F41&gt;F42,"reject","accept")</f>
+        <v>accept</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="str">
+        <f>IF(L41&gt;L42,"reject","accept")</f>
+        <v>accept</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" t="str">
+        <f>IF(R41&gt;R42,"reject","accept")</f>
+        <v>accept</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44">
+        <f>_xlfn.CHISQ.DIST.RT(F41,37)</f>
+        <v>0.69702508825261122</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44">
+        <f>_xlfn.CHISQ.DIST.RT(L41,37)</f>
+        <v>0.68807169256566014</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>19</v>
+      </c>
+      <c r="R44">
+        <f>_xlfn.CHISQ.DIST.RT(R41,37)</f>
+        <v>0.907445500522854</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB26BD03-C54C-4A39-8A8B-8124C8E0BA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF65094C-24C0-4E7C-97F7-065FFF22979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="2570" windowWidth="19200" windowHeight="11460" activeTab="3" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題a-d" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,6 @@
     <sheet name="第1題g" sheetId="3" r:id="rId3"/>
     <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">第1題g!$L$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">第1題g!$L$2:$L$41</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">第1題g!$M$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">第1題g!$M$2:$M$41</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">第1題g!$N$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">第1題g!$N$2:$N$41</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">第1題g!$O$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">第1題g!$O$2:$O$41</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <r>
       <t xml:space="preserve">                 </t>
@@ -469,6 +459,26 @@
     <t>thickness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>range®</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL=R bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X bar chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,6 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -803,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$L$1</c:f>
+              <c:f>第1題g!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -826,7 +837,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$L$2:$L$41</c:f>
+              <c:f>第1題g!$M$3:$M$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -965,7 +976,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$M$1</c:f>
+              <c:f>第1題g!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -988,7 +999,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$M$2:$M$41</c:f>
+              <c:f>第1題g!$N$3:$N$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1127,7 +1138,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$N$1</c:f>
+              <c:f>第1題g!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1150,7 +1161,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$N$2:$N$41</c:f>
+              <c:f>第1題g!$O$3:$O$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1289,7 +1300,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$O$1</c:f>
+              <c:f>第1題g!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1308,11 +1319,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$O$2:$O$41</c:f>
+              <c:f>第1題g!$P$3:$P$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1700,7 +1723,1382 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$R$5:$R$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3176470588235296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B4CD-4BF4-9661-4418A611E6C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$S$5:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.9976599870538951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B4CD-4BF4-9661-4418A611E6C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$T$5:$T$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B4CD-4BF4-9661-4418A611E6C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$U$5:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B4CD-4BF4-9661-4418A611E6C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="403706511"/>
+        <c:axId val="403706927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="403706511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403706927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="403706927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403706511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2256,19 +3654,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>879475</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>193675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2289,6 +4203,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16E50B7-0BC3-4CB5-8B9F-612B04C3F9A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2600,32 +4550,32 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" customWidth="1"/>
-    <col min="15" max="15" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
@@ -2633,13 +4583,13 @@
       <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2674,7 +4624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>352</v>
       </c>
@@ -2727,7 +4677,7 @@
         <v>13.657343660355693</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>354</v>
       </c>
@@ -2780,7 +4730,7 @@
         <v>0.92312458647959073</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>352</v>
       </c>
@@ -2833,7 +4783,7 @@
         <v>0.75506639095463346</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>355</v>
       </c>
@@ -2884,7 +4834,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>351</v>
       </c>
@@ -2935,7 +4885,7 @@
         <v>0.64260375735827779</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>350</v>
       </c>
@@ -2980,7 +4930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>354</v>
       </c>
@@ -3022,7 +4972,7 @@
         <v>100.97998693373012</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>352</v>
       </c>
@@ -3064,7 +5014,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>354</v>
       </c>
@@ -3106,7 +5056,7 @@
         <v>4.9007026764476304E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>352</v>
       </c>
@@ -3134,7 +5084,7 @@
         <v>3.6846238660181996E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>353</v>
       </c>
@@ -3151,7 +5101,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>351</v>
       </c>
@@ -3168,7 +5118,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>352</v>
       </c>
@@ -3185,7 +5135,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>352</v>
       </c>
@@ -3206,7 +5156,7 @@
         <v>4.7376913028616645</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>352</v>
       </c>
@@ -3223,7 +5173,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>351</v>
       </c>
@@ -3240,7 +5190,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>352</v>
       </c>
@@ -3257,7 +5207,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>338</v>
       </c>
@@ -3274,7 +5224,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>346</v>
       </c>
@@ -3291,7 +5241,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>344</v>
       </c>
@@ -3308,7 +5258,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>345</v>
       </c>
@@ -3325,7 +5275,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>346</v>
       </c>
@@ -3342,7 +5292,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>348</v>
       </c>
@@ -3359,7 +5309,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>348</v>
       </c>
@@ -3376,7 +5326,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>348</v>
       </c>
@@ -3393,7 +5343,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>344</v>
       </c>
@@ -3410,7 +5360,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>337</v>
       </c>
@@ -3427,7 +5377,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>344</v>
       </c>
@@ -3444,7 +5394,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>345</v>
       </c>
@@ -3461,7 +5411,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>344</v>
       </c>
@@ -3478,7 +5428,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>345</v>
       </c>
@@ -3495,7 +5445,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>349</v>
       </c>
@@ -3512,7 +5462,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>349</v>
       </c>
@@ -3529,7 +5479,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>348</v>
       </c>
@@ -3546,7 +5496,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>348</v>
       </c>
@@ -3563,7 +5513,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>354</v>
       </c>
@@ -3580,7 +5530,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>346</v>
       </c>
@@ -3597,7 +5547,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>350</v>
       </c>
@@ -3614,7 +5564,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>342</v>
       </c>
@@ -3631,7 +5581,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>349</v>
       </c>
@@ -3648,7 +5598,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>349</v>
       </c>
@@ -3665,7 +5615,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>349</v>
       </c>
@@ -3682,7 +5632,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>348</v>
       </c>
@@ -3699,7 +5649,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>349</v>
       </c>
@@ -3716,7 +5666,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>339</v>
       </c>
@@ -3733,7 +5683,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>350</v>
       </c>
@@ -3750,7 +5700,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>349</v>
       </c>
@@ -3767,7 +5717,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>343</v>
       </c>
@@ -3784,7 +5734,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>342</v>
       </c>
@@ -3801,7 +5751,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>350</v>
       </c>
@@ -3818,7 +5768,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>350</v>
       </c>
@@ -3835,7 +5785,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>355</v>
       </c>
@@ -3852,7 +5802,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>349</v>
       </c>
@@ -3869,7 +5819,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>351</v>
       </c>
@@ -3886,7 +5836,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>350</v>
       </c>
@@ -3903,7 +5853,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>345</v>
       </c>
@@ -3920,7 +5870,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>345</v>
       </c>
@@ -3937,7 +5887,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>348</v>
       </c>
@@ -3954,7 +5904,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>348</v>
       </c>
@@ -3971,7 +5921,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>352</v>
       </c>
@@ -3988,7 +5938,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>350</v>
       </c>
@@ -4005,7 +5955,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>350</v>
       </c>
@@ -4022,7 +5972,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>348</v>
       </c>
@@ -4039,7 +5989,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>348</v>
       </c>
@@ -4056,7 +6006,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>351</v>
       </c>
@@ -4073,7 +6023,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>347</v>
       </c>
@@ -4090,7 +6040,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>349</v>
       </c>
@@ -4107,7 +6057,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>347</v>
       </c>
@@ -4124,7 +6074,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>347</v>
       </c>
@@ -4141,7 +6091,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>347</v>
       </c>
@@ -4158,7 +6108,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>349</v>
       </c>
@@ -4175,7 +6125,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>338</v>
       </c>
@@ -4192,7 +6142,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>348</v>
       </c>
@@ -4209,7 +6159,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>348</v>
       </c>
@@ -4226,7 +6176,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>346</v>
       </c>
@@ -4243,7 +6193,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>348</v>
       </c>
@@ -4260,7 +6210,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>346</v>
       </c>
@@ -4277,7 +6227,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>350</v>
       </c>
@@ -4294,7 +6244,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>350</v>
       </c>
@@ -4311,7 +6261,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>350</v>
       </c>
@@ -4328,7 +6278,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>348</v>
       </c>
@@ -4345,7 +6295,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>350</v>
       </c>
@@ -4362,7 +6312,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>345</v>
       </c>
@@ -4379,7 +6329,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>351</v>
       </c>
@@ -4396,7 +6346,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>349</v>
       </c>
@@ -4432,34 +6382,34 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>351</v>
       </c>
@@ -4497,7 +6447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>352</v>
       </c>
@@ -4545,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>349</v>
       </c>
@@ -4594,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>354</v>
       </c>
@@ -4646,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>350</v>
       </c>
@@ -4695,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>348</v>
       </c>
@@ -4747,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>351</v>
       </c>
@@ -4790,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>350</v>
       </c>
@@ -4833,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>352</v>
       </c>
@@ -4873,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>351</v>
       </c>
@@ -4913,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>351</v>
       </c>
@@ -4953,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>351</v>
       </c>
@@ -4993,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>348</v>
       </c>
@@ -5033,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>353</v>
       </c>
@@ -5073,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>351</v>
       </c>
@@ -5113,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>352</v>
       </c>
@@ -5153,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>354</v>
       </c>
@@ -5193,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>342</v>
       </c>
@@ -5233,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>347</v>
       </c>
@@ -5273,7 +7223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>343</v>
       </c>
@@ -5313,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>346</v>
       </c>
@@ -5351,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>346</v>
       </c>
@@ -5366,7 +7316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>346</v>
       </c>
@@ -5378,7 +7328,7 @@
         <v>reject</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>347</v>
       </c>
@@ -5390,307 +7340,307 @@
         <v>2.0110666131143229E-8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>352</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>342</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>344</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>346</v>
       </c>
@@ -5707,44 +7657,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A7079-D14C-4D77-87E0-ECB4CEC88EC2}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="6" max="7" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="2"/>
-      <c r="I1" t="s">
+      <c r="G1" s="17"/>
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5764,36 +7709,45 @@
         <v>48</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>AVERAGE(F3:F47)</f>
         <v>348.50666666666672</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <f>$J$5</f>
-        <v>350</v>
-      </c>
-      <c r="M2">
-        <f>$J$6</f>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N2">
-        <f>$J$7</f>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O2">
-        <v>349.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>352</v>
       </c>
@@ -5813,36 +7767,59 @@
         <f>AVERAGE(A3:E3)</f>
         <v>352.4</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="17">
+        <f>MAX(A3:E3)-MIN(A3:E3)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="8">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <f>_xlfn.VAR.S(F3:F47)</f>
         <v>17.493818181818209</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
       <c r="L3">
-        <f t="shared" ref="L3:L41" si="0">$J$5</f>
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M41" si="1">$J$6</f>
+        <f>$K$5</f>
+        <v>350</v>
+      </c>
+      <c r="N3">
+        <f>$K$6</f>
         <v>362.54768359643975</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N41" si="2">$J$7</f>
+      <c r="O3">
+        <f>$K$7</f>
         <v>337.45231640356025</v>
       </c>
-      <c r="O3">
-        <v>349.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P3">
+        <v>349.2</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>$K$12</f>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S3">
+        <f>$K$13</f>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>G48</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>354</v>
       </c>
@@ -5859,39 +7836,62 @@
         <v>354</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F67" si="3">AVERAGE(A4:E4)</f>
+        <f t="shared" ref="F4:F67" si="0">AVERAGE(A4:E4)</f>
         <v>353.4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G67" si="1">MAX(A4:E4)-MIN(A4:E4)</f>
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4">
-        <f>J3^0.5</f>
+      <c r="K4">
+        <f>K3^0.5</f>
         <v>4.1825611988132589</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M4:M42" si="2">$K$5</f>
+        <v>350</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N42" si="3">$K$6</f>
         <v>362.54768359643975</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
+      <c r="O4">
+        <f t="shared" ref="O4:O42" si="4">$K$7</f>
         <v>337.45231640356025</v>
       </c>
-      <c r="O4">
-        <v>343.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P4">
+        <v>349.6</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R42" si="5">$K$12</f>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S42" si="6">$K$13</f>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T4">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U42" si="7">G49</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>352</v>
       </c>
@@ -5908,38 +7908,61 @@
         <v>353</v>
       </c>
       <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>351.6</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5">
+        <v>350</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="3"/>
-        <v>351.6</v>
-      </c>
-      <c r="G5" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P5">
+        <v>343.2</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5">
-        <v>350</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O5">
-        <v>343.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T5">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>355</v>
       </c>
@@ -5956,39 +7979,62 @@
         <v>356</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>355.2</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <f>K5+3*K4</f>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="3"/>
-        <v>355.2</v>
-      </c>
-      <c r="G6" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P6">
+        <v>343.6</v>
+      </c>
+      <c r="Q6">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6">
-        <f>J5+3*J4</f>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O6">
-        <v>349.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>351</v>
       </c>
@@ -6005,39 +8051,62 @@
         <v>353</v>
       </c>
       <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>351.4</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7">
+        <f>K5-3*K4</f>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="3"/>
-        <v>351.4</v>
-      </c>
-      <c r="G7" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P7">
+        <v>349.2</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7">
-        <f>J5-3*J4</f>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O7">
-        <v>349.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>350</v>
       </c>
@@ -6054,32 +8123,55 @@
         <v>352</v>
       </c>
       <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>350.4</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="3"/>
-        <v>350.4</v>
-      </c>
-      <c r="G8" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P8">
+        <v>349.4</v>
+      </c>
+      <c r="Q8">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O8">
-        <v>354.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T8">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>354</v>
       </c>
@@ -6096,32 +8188,62 @@
         <v>355</v>
       </c>
       <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>353.6</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="8">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE(G3:G87)</f>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="3"/>
-        <v>353.6</v>
-      </c>
-      <c r="G9" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P9">
+        <v>354.6</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
       </c>
-      <c r="K9">
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O9">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T9">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>352</v>
       </c>
@@ -6138,32 +8260,62 @@
         <v>353</v>
       </c>
       <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>351.8</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="8">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f>_xlfn.VAR.S(G3:G87)</f>
+        <v>2.4336134453781506</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="3"/>
-        <v>351.8</v>
-      </c>
-      <c r="G10" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P10">
+        <v>349</v>
+      </c>
+      <c r="Q10">
         <v>8</v>
       </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O10">
-        <v>350.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T10">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>354</v>
       </c>
@@ -6180,32 +8332,62 @@
         <v>354</v>
       </c>
       <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>353.4</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <f>K10^0.5</f>
+        <v>1.5600043094101217</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="3"/>
-        <v>353.4</v>
-      </c>
-      <c r="G11" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P11">
+        <v>350.4</v>
+      </c>
+      <c r="Q11">
         <v>9</v>
       </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O11">
-        <v>349.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T11">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>352</v>
       </c>
@@ -6222,32 +8404,62 @@
         <v>354</v>
       </c>
       <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12">
+        <f>K9</f>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="3"/>
-        <v>352.6</v>
-      </c>
-      <c r="G12" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P12">
+        <v>349.8</v>
+      </c>
+      <c r="Q12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O12">
-        <v>349.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T12">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>353</v>
       </c>
@@ -6264,32 +8476,62 @@
         <v>353</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>352.4</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13">
+        <f>K12+3*K11</f>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="3"/>
-        <v>352.4</v>
-      </c>
-      <c r="G13" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P13">
+        <v>349.4</v>
+      </c>
+      <c r="Q13">
         <v>11</v>
       </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O13">
-        <v>349.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T13">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>351</v>
       </c>
@@ -6306,32 +8548,62 @@
         <v>353</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>351.8</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <f>K12-3*K11</f>
+        <v>-1.3623658694068355</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="3"/>
-        <v>351.8</v>
-      </c>
-      <c r="G14" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P14">
+        <v>349.2</v>
+      </c>
+      <c r="Q14">
         <v>12</v>
       </c>
-      <c r="K14">
-        <v>13</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O14">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T14">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>352</v>
       </c>
@@ -6348,32 +8620,55 @@
         <v>351</v>
       </c>
       <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>350.8</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="3"/>
-        <v>350.8</v>
-      </c>
-      <c r="G15" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P15">
+        <v>347</v>
+      </c>
+      <c r="Q15">
         <v>13</v>
       </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O15">
-        <v>347.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T15">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>352</v>
       </c>
@@ -6390,32 +8685,55 @@
         <v>352</v>
       </c>
       <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>351.8</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="3"/>
-        <v>351.8</v>
-      </c>
-      <c r="G16" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P16">
+        <v>347.8</v>
+      </c>
+      <c r="Q16">
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>15</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O16">
-        <v>350.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T16">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>352</v>
       </c>
@@ -6432,32 +8750,55 @@
         <v>354</v>
       </c>
       <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H17" s="8">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="3"/>
-        <v>352.6</v>
-      </c>
-      <c r="G17" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P17">
+        <v>350.4</v>
+      </c>
+      <c r="Q17">
         <v>15</v>
       </c>
-      <c r="K17">
-        <v>16</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O17">
-        <v>349.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T17">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>351</v>
       </c>
@@ -6474,32 +8815,55 @@
         <v>351</v>
       </c>
       <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H18" s="8">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="3"/>
-        <v>351</v>
-      </c>
-      <c r="G18" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P18">
+        <v>349.8</v>
+      </c>
+      <c r="Q18">
         <v>16</v>
       </c>
-      <c r="K18">
-        <v>17</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O18">
-        <v>349.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T18">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>352</v>
       </c>
@@ -6516,32 +8880,55 @@
         <v>354</v>
       </c>
       <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>352.8</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H19" s="8">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="3"/>
-        <v>352.8</v>
-      </c>
-      <c r="G19" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P19">
+        <v>349.8</v>
+      </c>
+      <c r="Q19">
         <v>17</v>
       </c>
-      <c r="K19">
-        <v>18</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O19">
-        <v>346.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T19">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>338</v>
       </c>
@@ -6558,32 +8945,55 @@
         <v>340</v>
       </c>
       <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>339.4</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="3"/>
-        <v>339.4</v>
-      </c>
-      <c r="G20" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P20">
+        <v>346.6</v>
+      </c>
+      <c r="Q20">
         <v>18</v>
       </c>
-      <c r="K20">
-        <v>19</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O20">
-        <v>348.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T20">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>346</v>
       </c>
@@ -6600,32 +9010,55 @@
         <v>345</v>
       </c>
       <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>345.4</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="8">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="3"/>
-        <v>345.4</v>
-      </c>
-      <c r="G21" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P21">
+        <v>348.6</v>
+      </c>
+      <c r="Q21">
         <v>19</v>
       </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O21">
-        <v>350.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R21">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T21">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>344</v>
       </c>
@@ -6642,32 +9075,55 @@
         <v>345</v>
       </c>
       <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>343.6</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="3"/>
-        <v>343.6</v>
-      </c>
-      <c r="G22" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P22">
+        <v>350.6</v>
+      </c>
+      <c r="Q22">
         <v>20</v>
       </c>
-      <c r="K22">
-        <v>21</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O22">
-        <v>347.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T22">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>345</v>
       </c>
@@ -6684,32 +9140,55 @@
         <v>345</v>
       </c>
       <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>21</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="3"/>
-        <v>345</v>
-      </c>
-      <c r="G23" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P23">
+        <v>347.8</v>
+      </c>
+      <c r="Q23">
         <v>21</v>
       </c>
-      <c r="K23">
-        <v>22</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O23">
-        <v>348.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R23">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T23">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>346</v>
       </c>
@@ -6726,32 +9205,55 @@
         <v>347</v>
       </c>
       <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="8">
+        <v>22</v>
+      </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="3"/>
-        <v>346</v>
-      </c>
-      <c r="G24" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P24">
+        <v>348.4</v>
+      </c>
+      <c r="Q24">
         <v>22</v>
       </c>
-      <c r="K24">
-        <v>23</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O24">
-        <v>347.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>348</v>
       </c>
@@ -6768,32 +9270,55 @@
         <v>350</v>
       </c>
       <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <v>23</v>
+      </c>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-      <c r="G25" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P25">
+        <v>347.4</v>
+      </c>
+      <c r="Q25">
         <v>23</v>
       </c>
-      <c r="K25">
-        <v>24</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O25">
-        <v>346.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R25">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T25">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>348</v>
       </c>
@@ -6810,32 +9335,55 @@
         <v>350</v>
       </c>
       <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>348.2</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="8">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="3"/>
-        <v>348.2</v>
-      </c>
-      <c r="G26" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P26">
+        <v>346.8</v>
+      </c>
+      <c r="Q26">
         <v>24</v>
       </c>
-      <c r="K26">
-        <v>25</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O26">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T26">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>348</v>
       </c>
@@ -6852,32 +9400,55 @@
         <v>349</v>
       </c>
       <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>347.4</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="8">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="3"/>
-        <v>347.4</v>
-      </c>
-      <c r="G27" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P27">
+        <v>347</v>
+      </c>
+      <c r="Q27">
         <v>25</v>
       </c>
-      <c r="K27">
-        <v>26</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O27">
-        <v>348.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T27">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>344</v>
       </c>
@@ -6894,32 +9465,55 @@
         <v>346</v>
       </c>
       <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>344.4</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H28" s="8">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="3"/>
-        <v>344.4</v>
-      </c>
-      <c r="G28" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P28">
+        <v>348.8</v>
+      </c>
+      <c r="Q28">
         <v>26</v>
       </c>
-      <c r="K28">
-        <v>27</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O28">
-        <v>338.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T28">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>337</v>
       </c>
@@ -6936,32 +9530,55 @@
         <v>339</v>
       </c>
       <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>337.4</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H29" s="8">
+        <v>27</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="3"/>
-        <v>337.4</v>
-      </c>
-      <c r="G29" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P29">
+        <v>338.4</v>
+      </c>
+      <c r="Q29">
         <v>27</v>
       </c>
-      <c r="K29">
-        <v>28</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O29">
-        <v>347.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T29">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>344</v>
       </c>
@@ -6978,32 +9595,55 @@
         <v>346</v>
       </c>
       <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>344.6</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="8">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="3"/>
-        <v>344.6</v>
-      </c>
-      <c r="G30" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P30">
+        <v>347.8</v>
+      </c>
+      <c r="Q30">
         <v>28</v>
       </c>
-      <c r="K30">
-        <v>29</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O30">
-        <v>347.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R30">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T30">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>345</v>
       </c>
@@ -7020,32 +9660,55 @@
         <v>348</v>
       </c>
       <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>345.8</v>
+      </c>
+      <c r="G31" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>29</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="3"/>
-        <v>345.8</v>
-      </c>
-      <c r="G31" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P31">
+        <v>347.6</v>
+      </c>
+      <c r="Q31">
         <v>29</v>
       </c>
-      <c r="K31">
-        <v>30</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O31">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R31">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T31">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>344</v>
       </c>
@@ -7062,32 +9725,55 @@
         <v>346</v>
       </c>
       <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="8">
+        <v>30</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="3"/>
-        <v>345</v>
-      </c>
-      <c r="G32" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P32">
+        <v>346</v>
+      </c>
+      <c r="Q32">
         <v>30</v>
       </c>
-      <c r="K32">
-        <v>31</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O32">
-        <v>347.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R32">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T32">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>345</v>
       </c>
@@ -7104,32 +9790,55 @@
         <v>347</v>
       </c>
       <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>345.2</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="8">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="3"/>
-        <v>345.2</v>
-      </c>
-      <c r="G33" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P33">
+        <v>347.6</v>
+      </c>
+      <c r="Q33">
         <v>31</v>
       </c>
-      <c r="K33">
-        <v>32</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O33">
-        <v>346.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R33">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T33">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>349</v>
       </c>
@@ -7146,32 +9855,55 @@
         <v>350</v>
       </c>
       <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>348.8</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="8">
+        <v>32</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="3"/>
-        <v>348.8</v>
-      </c>
-      <c r="G34" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P34">
+        <v>346.6</v>
+      </c>
+      <c r="Q34">
         <v>32</v>
       </c>
-      <c r="K34">
-        <v>33</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O34">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R34">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T34">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>349</v>
       </c>
@@ -7188,32 +9920,55 @@
         <v>349</v>
       </c>
       <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H35" s="8">
+        <v>33</v>
+      </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="3"/>
-        <v>349.2</v>
-      </c>
-      <c r="G35" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P35">
+        <v>349</v>
+      </c>
+      <c r="Q35">
         <v>33</v>
       </c>
-      <c r="K35">
-        <v>34</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O35">
-        <v>349.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T35">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>348</v>
       </c>
@@ -7230,32 +9985,55 @@
         <v>349</v>
       </c>
       <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>347.6</v>
+      </c>
+      <c r="G36" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H36" s="8">
+        <v>34</v>
+      </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="3"/>
-        <v>347.6</v>
-      </c>
-      <c r="G36" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P36">
+        <v>349.8</v>
+      </c>
+      <c r="Q36">
         <v>34</v>
       </c>
-      <c r="K36">
-        <v>35</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O36">
-        <v>349.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T36">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>348</v>
       </c>
@@ -7272,32 +10050,55 @@
         <v>348</v>
       </c>
       <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>347.6</v>
+      </c>
+      <c r="G37" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H37" s="8">
+        <v>35</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="3"/>
-        <v>347.6</v>
-      </c>
-      <c r="G37" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P37">
+        <v>349.6</v>
+      </c>
+      <c r="Q37">
         <v>35</v>
       </c>
-      <c r="K37">
-        <v>36</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O37">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T37">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>354</v>
       </c>
@@ -7314,32 +10115,55 @@
         <v>359</v>
       </c>
       <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>354.6</v>
+      </c>
+      <c r="G38" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H38" s="8">
+        <v>36</v>
+      </c>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="3"/>
-        <v>354.6</v>
-      </c>
-      <c r="G38" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P38">
+        <v>348</v>
+      </c>
+      <c r="Q38">
         <v>36</v>
       </c>
-      <c r="K38">
-        <v>37</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O38">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T38">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>346</v>
       </c>
@@ -7356,32 +10180,55 @@
         <v>345</v>
       </c>
       <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>344.2</v>
+      </c>
+      <c r="G39" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H39" s="8">
+        <v>37</v>
+      </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="3"/>
-        <v>344.2</v>
-      </c>
-      <c r="G39" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P39">
+        <v>349</v>
+      </c>
+      <c r="Q39">
         <v>37</v>
       </c>
-      <c r="K39">
-        <v>38</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O39">
-        <v>346.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T39">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>350</v>
       </c>
@@ -7398,32 +10245,55 @@
         <v>354</v>
       </c>
       <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>351.6</v>
+      </c>
+      <c r="G40" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H40" s="8">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="3"/>
-        <v>351.6</v>
-      </c>
-      <c r="G40" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P40">
+        <v>346.6</v>
+      </c>
+      <c r="Q40">
         <v>38</v>
       </c>
-      <c r="K40">
-        <v>39</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O40">
-        <v>350.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T40">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>342</v>
       </c>
@@ -7440,32 +10310,55 @@
         <v>344</v>
       </c>
       <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>342.2</v>
+      </c>
+      <c r="G41" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H41" s="8">
+        <v>39</v>
+      </c>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="3"/>
-        <v>342.2</v>
-      </c>
-      <c r="G41" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P41">
+        <v>350.4</v>
+      </c>
+      <c r="Q41">
         <v>39</v>
       </c>
-      <c r="K41">
-        <v>40</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="1"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="2"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="O41">
-        <v>348.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T41">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>349</v>
       </c>
@@ -7482,14 +10375,55 @@
         <v>351</v>
       </c>
       <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="G42" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H42" s="8">
+        <v>40</v>
+      </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-      <c r="G42" s="8">
+        <v>362.54768359643975</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="P42">
+        <v>348.6</v>
+      </c>
+      <c r="Q42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>3.3176470588235296</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>7.9976599870538951</v>
+      </c>
+      <c r="T42">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>349</v>
       </c>
@@ -7506,14 +10440,18 @@
         <v>350</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>348.4</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H43" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>349</v>
       </c>
@@ -7530,14 +10468,18 @@
         <v>349</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>348.8</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H44" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>348</v>
       </c>
@@ -7554,14 +10496,18 @@
         <v>349</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>347.8</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H45" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>349</v>
       </c>
@@ -7578,14 +10524,18 @@
         <v>350</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>348.6</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H46" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>339</v>
       </c>
@@ -7602,14 +10552,18 @@
         <v>342</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H47" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>350</v>
       </c>
@@ -7626,14 +10580,18 @@
         <v>351</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H48" s="8">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>349</v>
       </c>
@@ -7650,14 +10608,18 @@
         <v>351</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.6</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>343</v>
       </c>
@@ -7674,14 +10636,18 @@
         <v>345</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>343.2</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H50" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>342</v>
       </c>
@@ -7698,14 +10664,18 @@
         <v>345</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>343.6</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>350</v>
       </c>
@@ -7722,14 +10692,18 @@
         <v>350</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>350</v>
       </c>
@@ -7746,14 +10720,18 @@
         <v>350</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.4</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H53" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>355</v>
       </c>
@@ -7770,14 +10748,18 @@
         <v>356</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>354.6</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H54" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>349</v>
       </c>
@@ -7794,14 +10776,18 @@
         <v>350</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H55" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>351</v>
       </c>
@@ -7818,14 +10804,18 @@
         <v>352</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>350.4</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H56" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>350</v>
       </c>
@@ -7842,14 +10832,18 @@
         <v>351</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H57" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>345</v>
       </c>
@@ -7866,14 +10860,18 @@
         <v>356</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.4</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H58" s="8">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>345</v>
       </c>
@@ -7890,14 +10888,18 @@
         <v>355</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H59" s="8">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>348</v>
       </c>
@@ -7914,14 +10916,18 @@
         <v>348</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>347</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H60" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>348</v>
       </c>
@@ -7938,14 +10944,18 @@
         <v>349</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>347.8</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H61" s="8">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>352</v>
       </c>
@@ -7962,14 +10972,18 @@
         <v>353</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>350.4</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H62" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>350</v>
       </c>
@@ -7986,14 +11000,18 @@
         <v>351</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H63" s="8">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>350</v>
       </c>
@@ -8010,14 +11028,18 @@
         <v>351</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H64" s="8">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>348</v>
       </c>
@@ -8034,14 +11056,18 @@
         <v>348</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>346.6</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H65" s="8">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>348</v>
       </c>
@@ -8058,14 +11084,18 @@
         <v>350</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>348.6</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H66" s="8">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>351</v>
       </c>
@@ -8082,14 +11112,18 @@
         <v>352</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>350.6</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H67" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>347</v>
       </c>
@@ -8106,14 +11140,18 @@
         <v>349</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F87" si="4">AVERAGE(A68:E68)</f>
+        <f t="shared" ref="F68:F87" si="8">AVERAGE(A68:E68)</f>
         <v>347.8</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="17">
+        <f t="shared" ref="G68:G87" si="9">MAX(A68:E68)-MIN(A68:E68)</f>
+        <v>3</v>
+      </c>
+      <c r="H68" s="8">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>349</v>
       </c>
@@ -8130,14 +11168,18 @@
         <v>349</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>348.4</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H69" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>347</v>
       </c>
@@ -8154,14 +11196,18 @@
         <v>348</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>347.4</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H70" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>347</v>
       </c>
@@ -8178,14 +11224,18 @@
         <v>348</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>346.8</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H71" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>347</v>
       </c>
@@ -8202,14 +11252,18 @@
         <v>347</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>347</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="17">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H72" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>349</v>
       </c>
@@ -8226,14 +11280,18 @@
         <v>350</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>348.8</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H73" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>338</v>
       </c>
@@ -8250,14 +11308,18 @@
         <v>340</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>338.4</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="17">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H74" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>348</v>
       </c>
@@ -8274,14 +11336,18 @@
         <v>349</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>347.8</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H75" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>348</v>
       </c>
@@ -8298,14 +11364,18 @@
         <v>348</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>347.6</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="H76" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>346</v>
       </c>
@@ -8322,14 +11392,18 @@
         <v>347</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>346</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H77" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>348</v>
       </c>
@@ -8346,14 +11420,18 @@
         <v>349</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>347.6</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H78" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>346</v>
       </c>
@@ -8370,14 +11448,18 @@
         <v>348</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>346.6</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H79" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>350</v>
       </c>
@@ -8394,14 +11476,18 @@
         <v>350</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>349</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H80" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>350</v>
       </c>
@@ -8418,14 +11504,18 @@
         <v>351</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>349.8</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H81" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>350</v>
       </c>
@@ -8442,14 +11532,18 @@
         <v>351</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>349.6</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H82" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>348</v>
       </c>
@@ -8466,14 +11560,18 @@
         <v>350</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>348</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="17">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H83" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>350</v>
       </c>
@@ -8490,14 +11588,18 @@
         <v>350</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>349</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H84" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>345</v>
       </c>
@@ -8514,14 +11616,18 @@
         <v>347</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>346.6</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="17">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H85" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>351</v>
       </c>
@@ -8538,14 +11644,18 @@
         <v>352</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>350.4</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="17">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="H86" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>349</v>
       </c>
@@ -8562,16 +11672,21 @@
         <v>351</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>348.6</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="17">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="H87" s="8">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8583,18 +11698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78914AF-0B29-4F08-BDD3-64D6B55884A0}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.81640625" customWidth="1"/>
-    <col min="12" max="12" width="22.7265625" customWidth="1"/>
-    <col min="18" max="18" width="20.26953125" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="18" max="18" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -8605,7 +11720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -8661,7 +11776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8726,7 +11841,7 @@
         <v>0.11003508771929814</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8791,7 +11906,7 @@
         <v>0.3233684210526318</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8856,7 +11971,7 @@
         <v>1.8400350877192988</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8921,7 +12036,7 @@
         <v>0.11803508771929837</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8986,7 +12101,7 @@
         <v>1.5180350877192978</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9051,7 +12166,7 @@
         <v>1.1368421052631543E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9116,7 +12231,7 @@
         <v>3.508771929824761E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9181,7 +12296,7 @@
         <v>1.2533684210526312</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9246,7 +12361,7 @@
         <v>3.221368421052631</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9311,7 +12426,7 @@
         <v>0.31003508771929805</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9376,7 +12491,7 @@
         <v>0.31003508771929805</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9441,7 +12556,7 @@
         <v>0.46403508771929847</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9506,7 +12621,7 @@
         <v>0.11003508771929814</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9571,7 +12686,7 @@
         <v>0.3233684210526318</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9636,7 +12751,7 @@
         <v>0.3233684210526318</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9701,7 +12816,7 @@
         <v>0.11803508771929837</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9766,7 +12881,7 @@
         <v>0.82136842105263186</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9831,7 +12946,7 @@
         <v>0.80003508771929788</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9896,7 +13011,7 @@
         <v>1.8400350877192988</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9961,7 +13076,7 @@
         <v>0.44803508771929801</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -10026,7 +13141,7 @@
         <v>1.2800350877192985</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -10091,7 +13206,7 @@
         <v>0.19736842105263144</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -10156,7 +13271,7 @@
         <v>0.31003508771929805</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10221,7 +13336,7 @@
         <v>4.8035087719298174E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -10286,7 +13401,7 @@
         <v>5.3368421052631655E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -10351,7 +13466,7 @@
         <v>0.46403508771929847</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10416,7 +13531,7 @@
         <v>1.8400350877192988</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10481,7 +13596,7 @@
         <v>0.6300350877192985</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10546,7 +13661,7 @@
         <v>1.2800350877192985</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10611,7 +13726,7 @@
         <v>0.11003508771929814</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10676,7 +13791,7 @@
         <v>0.6300350877192985</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10741,7 +13856,7 @@
         <v>1.0140350877192978</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10806,7 +13921,7 @@
         <v>0.11003508771929814</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10871,7 +13986,7 @@
         <v>0.80003508771929788</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10936,7 +14051,7 @@
         <v>1.4035087719298286E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11001,7 +14116,7 @@
         <v>0.11003508771929814</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11066,7 +14181,7 @@
         <v>2.8300350877192977</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11131,7 +14246,7 @@
         <v>0.20803508771929841</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>40</v>
       </c>
@@ -11154,7 +14269,7 @@
         <v>26.193333333333332</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E42" s="9" t="s">
         <v>63</v>
       </c>
@@ -11177,7 +14292,7 @@
         <v>48.363408352194327</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>18</v>
       </c>
@@ -11200,7 +14315,7 @@
         <v>accept</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>19</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF65094C-24C0-4E7C-97F7-065FFF22979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDE9F00-5A25-4AA2-81B2-E16ABF0FDDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題a-d" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
   <si>
     <r>
       <t xml:space="preserve">                 </t>
@@ -479,6 +479,22 @@
     <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>new1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X_bar_bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -666,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,6 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -814,7 +831,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$M$2</c:f>
+              <c:f>第1題g!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +854,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$M$3:$M$42</c:f>
+              <c:f>第1題g!$Q$3:$Q$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -976,7 +993,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$N$2</c:f>
+              <c:f>第1題g!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -999,7 +1016,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$N$3:$N$42</c:f>
+              <c:f>第1題g!$R$3:$R$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1138,7 +1155,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$O$2</c:f>
+              <c:f>第1題g!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1161,7 +1178,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$O$3:$O$42</c:f>
+              <c:f>第1題g!$S$3:$S$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1300,7 +1317,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$P$2</c:f>
+              <c:f>第1題g!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1335,7 +1352,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$P$3:$P$42</c:f>
+              <c:f>第1題g!$T$3:$T$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1748,7 +1765,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$R$2</c:f>
+              <c:f>第1題g!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1771,7 +1788,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:f>第1題g!$U$5:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1894,123 +1911,123 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$R$5:$R$44</c:f>
+              <c:f>第1題g!$V$5:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.3176470588235296</c:v>
+                  <c:v>3.1555555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,7 +2044,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$S$2</c:f>
+              <c:f>第1題g!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2050,7 +2067,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:f>第1題g!$U$5:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2173,123 +2190,123 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$S$5:$S$44</c:f>
+              <c:f>第1題g!$W$5:$W$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.9976599870538951</c:v>
+                  <c:v>7.147593084983809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,7 +2323,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$T$2</c:f>
+              <c:f>第1題g!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2329,7 +2346,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:f>第1題g!$U$5:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2452,7 +2469,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$T$5:$T$44</c:f>
+              <c:f>第1題g!$X$5:$X$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2585,7 +2602,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$U$2</c:f>
+              <c:f>第1題g!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2620,7 +2637,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$Q$5:$Q$44</c:f>
+              <c:f>第1題g!$U$5:$U$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2743,7 +2760,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$U$5:$U$44</c:f>
+              <c:f>第1題g!$Y$5:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4174,16 +4191,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>879475</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4210,14 +4227,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -4564,18 +4581,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
@@ -4583,11 +4600,11 @@
       <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -6398,16 +6415,16 @@
       <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -7657,1215 +7674,1487 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A7079-D14C-4D77-87E0-ECB4CEC88EC2}">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="11" max="11" width="8.25" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="17"/>
-      <c r="J1" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K2">
-        <f>AVERAGE(F3:F47)</f>
+      <c r="O2">
+        <f>AVERAGE(G3:G47)</f>
         <v>348.50666666666672</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>53</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
         <v>352</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>352</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>353</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>351</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>354</v>
       </c>
-      <c r="F3" s="2">
-        <f>AVERAGE(A3:E3)</f>
+      <c r="G3" s="2">
+        <f>AVERAGE(B3:F3)</f>
         <v>352.4</v>
       </c>
-      <c r="G3" s="17">
-        <f>MAX(A3:E3)-MIN(A3:E3)</f>
+      <c r="H3" s="18">
+        <f>IF(OR(G3&gt;=$O$6,G3&lt;=$O$7),0,G3)</f>
+        <v>352.4</v>
+      </c>
+      <c r="I3" s="18">
+        <f>IF(OR(G3&gt;=$O$22,G3&lt;=$O$23),0,G3)</f>
+        <v>352.4</v>
+      </c>
+      <c r="J3" s="17">
+        <f>MAX(B3:F3)-MIN(B3:F3)</f>
         <v>3</v>
       </c>
-      <c r="H3" s="8">
+      <c r="K3" s="18">
+        <f>IF(OR(J3&gt;=$O$13,J3&lt;=$O$14),0,J3)</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="K3">
-        <f>_xlfn.VAR.S(F3:F47)</f>
+      <c r="O3">
+        <f>_xlfn.VAR.S(G3:G47)</f>
         <v>17.493818181818209</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <f>$K$5</f>
-        <v>350</v>
-      </c>
-      <c r="N3">
-        <f>$K$6</f>
+      <c r="Q3">
+        <f>$O$5</f>
+        <v>350</v>
+      </c>
+      <c r="R3">
+        <f>$O$6</f>
         <v>362.54768359643975</v>
       </c>
-      <c r="O3">
-        <f>$K$7</f>
+      <c r="S3">
+        <f>$O$7</f>
         <v>337.45231640356025</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>349.2</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <f>$K$12</f>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S3">
-        <f>$K$13</f>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T3">
+      <c r="V3">
+        <f>$O$12</f>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W3">
+        <f>$O$13</f>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X3">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U3">
-        <f>G48</f>
+      <c r="Y3">
+        <f>J49</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
         <v>354</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>353</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>354</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>352</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>354</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" ref="F4:F67" si="0">AVERAGE(A4:E4)</f>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G68" si="0">AVERAGE(B4:F4)</f>
         <v>353.4</v>
       </c>
-      <c r="G4" s="17">
-        <f t="shared" ref="G4:G67" si="1">MAX(A4:E4)-MIN(A4:E4)</f>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H68" si="1">IF(OR(G4&gt;=$O$6,G4&lt;=$O$7),0,G4)</f>
+        <v>353.4</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" ref="I4:I47" si="2">IF(OR(G4&gt;=$O$22,G4&lt;=$O$23),0,G4)</f>
+        <v>353.4</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" ref="J4:J68" si="3">MAX(B4:F4)-MIN(B4:F4)</f>
         <v>2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="K4" s="18">
+        <f t="shared" ref="K4:K47" si="4">IF(OR(J4&gt;=$O$13,J4&lt;=$O$14),0,J4)</f>
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>11</v>
       </c>
-      <c r="K4">
-        <f>K3^0.5</f>
+      <c r="O4">
+        <f>O3^0.5</f>
         <v>4.1825611988132589</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M42" si="2">$K$5</f>
-        <v>350</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N42" si="3">$K$6</f>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q42" si="5">$O$5</f>
+        <v>350</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R42" si="6">$O$6</f>
         <v>362.54768359643975</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O42" si="4">$K$7</f>
+      <c r="S4">
+        <f t="shared" ref="S4:S42" si="7">$O$7</f>
         <v>337.45231640356025</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>349.6</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R42" si="5">$K$12</f>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S42" si="6">$K$13</f>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T4">
+      <c r="V4">
+        <f t="shared" ref="V4:V42" si="8">$O$12</f>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W42" si="9">$O$13</f>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U42" si="7">G49</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y42" si="10">J50</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>352</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
         <v>352</v>
       </c>
       <c r="C5" s="2">
         <v>352</v>
       </c>
       <c r="D5" s="2">
+        <v>352</v>
+      </c>
+      <c r="E5" s="2">
         <v>349</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>353</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>351.6</v>
       </c>
-      <c r="G5" s="17">
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
+        <v>351.6</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" si="2"/>
+        <v>351.6</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H5" s="8">
+      <c r="K5" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L5" s="8">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="K5">
-        <v>350</v>
-      </c>
-      <c r="L5">
+      <c r="O5">
+        <v>350</v>
+      </c>
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="4"/>
+      <c r="S5">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>343.2</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T5">
+      <c r="V5">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U5">
-        <f t="shared" si="7"/>
+      <c r="Y5">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
         <v>355</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>356</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>355</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>354</v>
       </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>356</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>355.2</v>
       </c>
-      <c r="G6" s="17">
+      <c r="H6" s="18">
         <f t="shared" si="1"/>
+        <v>355.2</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" si="2"/>
+        <v>355.2</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="K6" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>51</v>
       </c>
-      <c r="K6">
-        <f>K5+3*K4</f>
+      <c r="O6">
+        <f>O5+3*O4</f>
         <v>362.54768359643975</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
+      <c r="S6">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>343.6</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>4</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T6">
+      <c r="V6">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="7"/>
+      <c r="Y6">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
         <v>351</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>352</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>351</v>
       </c>
-      <c r="D7" s="2">
-        <v>350</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
+        <v>350</v>
+      </c>
+      <c r="F7" s="7">
         <v>353</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>351.4</v>
       </c>
-      <c r="G7" s="17">
+      <c r="H7" s="18">
         <f t="shared" si="1"/>
+        <v>351.4</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="2"/>
+        <v>351.4</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="K7" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L7" s="8">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>52</v>
       </c>
-      <c r="K7">
-        <f>K5-3*K4</f>
+      <c r="O7">
+        <f>O5-3*O4</f>
         <v>337.45231640356025</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="4"/>
+      <c r="S7">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>349.2</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T7">
+      <c r="V7">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="7"/>
+      <c r="Y7">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>350</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>350</v>
+      </c>
+      <c r="C8" s="2">
         <v>352</v>
       </c>
-      <c r="C8" s="2">
-        <v>350</v>
-      </c>
       <c r="D8" s="2">
+        <v>350</v>
+      </c>
+      <c r="E8" s="2">
         <v>348</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <v>352</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>350.4</v>
       </c>
-      <c r="G8" s="17">
+      <c r="H8" s="18">
         <f t="shared" si="1"/>
+        <v>350.4</v>
+      </c>
+      <c r="I8" s="18">
+        <f t="shared" si="2"/>
+        <v>350.4</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="K8" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="8">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>6</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="4"/>
+      <c r="S8">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>349.4</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>6</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T8">
+      <c r="V8">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X8">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="7"/>
+      <c r="Y8">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>354</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
         <v>354</v>
       </c>
       <c r="C9" s="2">
         <v>354</v>
       </c>
       <c r="D9" s="2">
+        <v>354</v>
+      </c>
+      <c r="E9" s="2">
         <v>351</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>355</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>353.6</v>
       </c>
-      <c r="G9" s="17">
+      <c r="H9" s="18">
         <f t="shared" si="1"/>
+        <v>353.6</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="2"/>
+        <v>353.6</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H9" s="8">
+      <c r="K9" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="8">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>66</v>
       </c>
-      <c r="K9">
-        <f>AVERAGE(G3:G87)</f>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="L9">
+      <c r="O9">
+        <f>AVERAGE(J3:J47)</f>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="P9">
         <v>7</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="4"/>
+      <c r="S9">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>354.6</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>7</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T9">
+      <c r="V9">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X9">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="7"/>
+      <c r="Y9">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>352</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
         <v>352</v>
       </c>
       <c r="C10" s="2">
         <v>352</v>
       </c>
       <c r="D10" s="2">
-        <v>350</v>
-      </c>
-      <c r="E10" s="7">
+        <v>352</v>
+      </c>
+      <c r="E10" s="2">
+        <v>350</v>
+      </c>
+      <c r="F10" s="7">
         <v>353</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
-      <c r="G10" s="17">
+      <c r="H10" s="18">
         <f t="shared" si="1"/>
+        <v>351.8</v>
+      </c>
+      <c r="I10" s="18">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H10" s="8">
+      <c r="K10" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="8">
         <v>8</v>
       </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>10</v>
       </c>
-      <c r="K10">
-        <f>_xlfn.VAR.S(G3:G87)</f>
-        <v>2.4336134453781506</v>
-      </c>
-      <c r="L10">
+      <c r="O10">
+        <f>_xlfn.VAR.S(J3:J47)</f>
+        <v>1.7707070707070705</v>
+      </c>
+      <c r="P10">
         <v>8</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="4"/>
+      <c r="S10">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P10">
+      <c r="T10">
         <v>349</v>
       </c>
-      <c r="Q10">
+      <c r="U10">
         <v>8</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T10">
+      <c r="V10">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X10">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="7"/>
+      <c r="Y10">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
         <v>354</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>354</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>353</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>352</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>354</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>353.4</v>
       </c>
-      <c r="G11" s="17">
+      <c r="H11" s="18">
         <f t="shared" si="1"/>
+        <v>353.4</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="2"/>
+        <v>353.4</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="K11" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L11" s="8">
         <v>9</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>11</v>
       </c>
-      <c r="K11">
-        <f>K10^0.5</f>
-        <v>1.5600043094101217</v>
-      </c>
-      <c r="L11">
+      <c r="O11">
+        <f>O10^0.5</f>
+        <v>1.3306791764760846</v>
+      </c>
+      <c r="P11">
         <v>9</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="4"/>
+      <c r="S11">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>350.4</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>9</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T11">
+      <c r="V11">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X11">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="7"/>
+      <c r="Y11">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
         <v>352</v>
-      </c>
-      <c r="B12" s="2">
-        <v>353</v>
       </c>
       <c r="C12" s="2">
         <v>353</v>
       </c>
       <c r="D12" s="2">
+        <v>353</v>
+      </c>
+      <c r="E12" s="2">
         <v>351</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>354</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>352.6</v>
       </c>
-      <c r="G12" s="17">
+      <c r="H12" s="18">
         <f t="shared" si="1"/>
+        <v>352.6</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="2"/>
+        <v>352.6</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H12" s="8">
+      <c r="K12" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L12" s="8">
         <v>10</v>
       </c>
-      <c r="J12" t="s">
+      <c r="N12" t="s">
         <v>67</v>
       </c>
-      <c r="K12">
-        <f>K9</f>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="L12">
+      <c r="O12">
+        <f>O9</f>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="P12">
         <v>10</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="4"/>
+      <c r="S12">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <v>349.8</v>
       </c>
-      <c r="Q12">
+      <c r="U12">
         <v>10</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T12">
+      <c r="V12">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="7"/>
+      <c r="Y12">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
         <v>353</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>352</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>353</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>351</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>353</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>352.4</v>
       </c>
-      <c r="G13" s="17">
+      <c r="H13" s="18">
         <f t="shared" si="1"/>
+        <v>352.4</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="2"/>
+        <v>352.4</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="K13" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="8">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
         <v>51</v>
       </c>
-      <c r="K13">
-        <f>K12+3*K11</f>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="L13">
+      <c r="O13">
+        <f>O12+3*O11</f>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="P13">
         <v>11</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="4"/>
+      <c r="S13">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P13">
+      <c r="T13">
         <v>349.4</v>
       </c>
-      <c r="Q13">
+      <c r="U13">
         <v>11</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T13">
+      <c r="V13">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X13">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U13">
-        <f t="shared" si="7"/>
+      <c r="Y13">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
         <v>351</v>
-      </c>
-      <c r="B14" s="2">
-        <v>352</v>
       </c>
       <c r="C14" s="2">
         <v>352</v>
       </c>
       <c r="D14" s="2">
+        <v>352</v>
+      </c>
+      <c r="E14" s="2">
         <v>351</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>353</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
-      <c r="G14" s="17">
+      <c r="H14" s="18">
         <f t="shared" si="1"/>
+        <v>351.8</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="K14" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="8">
         <v>12</v>
       </c>
-      <c r="J14" t="s">
+      <c r="N14" t="s">
         <v>52</v>
       </c>
-      <c r="K14">
-        <f>K12-3*K11</f>
-        <v>-1.3623658694068355</v>
-      </c>
-      <c r="L14">
+      <c r="O14">
+        <f>O12-3*O11</f>
+        <v>-0.83648197387269851</v>
+      </c>
+      <c r="P14">
         <v>12</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="4"/>
+      <c r="S14">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P14">
+      <c r="T14">
         <v>349.2</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>12</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T14">
+      <c r="V14">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U14">
-        <f t="shared" si="7"/>
+      <c r="Y14">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>352</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>352</v>
       </c>
       <c r="C15" s="2">
+        <v>352</v>
+      </c>
+      <c r="D15" s="2">
         <v>351</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>348</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>351</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>350.8</v>
       </c>
-      <c r="G15" s="17">
+      <c r="H15" s="18">
         <f t="shared" si="1"/>
+        <v>350.8</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="2"/>
+        <v>350.8</v>
+      </c>
+      <c r="J15" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H15" s="8">
+      <c r="K15" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L15" s="8">
         <v>13</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>13</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="4"/>
+      <c r="S15">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P15">
+      <c r="T15">
         <v>347</v>
       </c>
-      <c r="Q15">
+      <c r="U15">
         <v>13</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T15">
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X15">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U15">
-        <f t="shared" si="7"/>
+      <c r="Y15">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>352</v>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>352</v>
       </c>
       <c r="C16" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D16" s="2">
+        <v>350</v>
+      </c>
+      <c r="E16" s="2">
         <v>353</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>352</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
-      <c r="G16" s="17">
+      <c r="H16" s="18">
         <f t="shared" si="1"/>
+        <v>351.8</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H16" s="8">
+      <c r="K16" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L16" s="8">
         <v>14</v>
       </c>
-      <c r="L16">
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16">
         <v>14</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="4"/>
+      <c r="S16">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P16">
+      <c r="T16">
         <v>347.8</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>14</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T16">
+      <c r="V16">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X16">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U16">
-        <f t="shared" si="7"/>
+      <c r="Y16">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
         <v>352</v>
-      </c>
-      <c r="B17" s="2">
-        <v>353</v>
       </c>
       <c r="C17" s="2">
         <v>353</v>
       </c>
       <c r="D17" s="2">
+        <v>353</v>
+      </c>
+      <c r="E17" s="2">
         <v>351</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>354</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>352.6</v>
       </c>
-      <c r="G17" s="17">
+      <c r="H17" s="18">
         <f t="shared" si="1"/>
+        <v>352.6</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="2"/>
+        <v>352.6</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H17" s="8">
+      <c r="K17" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L17" s="8">
         <v>15</v>
       </c>
-      <c r="L17">
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17">
+        <f>COUNTIF(H3:H47,"&lt;&gt;0")</f>
+        <v>44</v>
+      </c>
+      <c r="P17">
         <v>15</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="4"/>
+      <c r="S17">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P17">
+      <c r="T17">
         <v>350.4</v>
       </c>
-      <c r="Q17">
+      <c r="U17">
         <v>15</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T17">
+      <c r="V17">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X17">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U17">
-        <f t="shared" si="7"/>
+      <c r="Y17">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>351</v>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>351</v>
       </c>
       <c r="C18" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D18" s="2">
+        <v>350</v>
+      </c>
+      <c r="E18" s="2">
         <v>352</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>351</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
-      <c r="G18" s="17">
+      <c r="H18" s="18">
         <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+      <c r="J18" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="K18" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
         <v>16</v>
       </c>
-      <c r="L18">
+      <c r="N18" t="s">
+        <v>71</v>
+      </c>
+      <c r="O18">
+        <f>SUM(H3:H47)/O17</f>
+        <v>348.75909090909096</v>
+      </c>
+      <c r="P18">
         <v>16</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="4"/>
+      <c r="S18">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P18">
+      <c r="T18">
         <v>349.8</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>16</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T18">
+      <c r="V18">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X18">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U18">
-        <f t="shared" si="7"/>
+      <c r="Y18">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>352</v>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>352</v>
@@ -8874,196 +9163,262 @@
         <v>352</v>
       </c>
       <c r="D19" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E19" s="2">
         <v>354</v>
       </c>
       <c r="F19" s="2">
+        <v>354</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>352.8</v>
       </c>
-      <c r="G19" s="17">
+      <c r="H19" s="18">
         <f t="shared" si="1"/>
+        <v>352.8</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="2"/>
+        <v>352.8</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="K19" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="8">
         <v>17</v>
       </c>
-      <c r="L19">
+      <c r="N19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <f>_xlfn.VAR.S(H3:H28,H30:H47)</f>
+        <v>14.966659619450336</v>
+      </c>
+      <c r="P19">
         <v>17</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="3"/>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="4"/>
+      <c r="S19">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <v>349.8</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <v>17</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T19">
+      <c r="V19">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X19">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U19">
-        <f t="shared" si="7"/>
+      <c r="Y19">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <v>338</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>339</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>338</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>342</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>340</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>339.4</v>
       </c>
-      <c r="G20" s="17">
+      <c r="H20" s="18">
         <f t="shared" si="1"/>
+        <v>339.4</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="2"/>
+        <v>339.4</v>
+      </c>
+      <c r="J20" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H20" s="8">
+      <c r="K20" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L20" s="8">
         <v>18</v>
       </c>
-      <c r="L20">
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <f>O19^0.5</f>
+        <v>3.8686767271833835</v>
+      </c>
+      <c r="P20">
         <v>18</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="3"/>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="4"/>
+      <c r="S20">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P20">
+      <c r="T20">
         <v>346.6</v>
       </c>
-      <c r="Q20">
+      <c r="U20">
         <v>18</v>
       </c>
-      <c r="R20">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T20">
+      <c r="V20">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X20">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="7"/>
+      <c r="Y20">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
         <v>346</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>344</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>345</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>347</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>345</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>345.4</v>
       </c>
-      <c r="G21" s="17">
+      <c r="H21" s="18">
         <f t="shared" si="1"/>
+        <v>345.4</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="2"/>
+        <v>345.4</v>
+      </c>
+      <c r="J21" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H21" s="8">
+      <c r="K21" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L21" s="8">
         <v>19</v>
       </c>
-      <c r="L21">
+      <c r="N21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21">
+        <f>350</f>
+        <v>350</v>
+      </c>
+      <c r="P21">
         <v>19</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="3"/>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="4"/>
+      <c r="S21">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P21">
+      <c r="T21">
         <v>348.6</v>
       </c>
-      <c r="Q21">
+      <c r="U21">
         <v>19</v>
       </c>
-      <c r="R21">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T21">
+      <c r="V21">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X21">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="7"/>
+      <c r="Y21">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
         <v>344</v>
-      </c>
-      <c r="B22" s="2">
-        <v>343</v>
       </c>
       <c r="C22" s="2">
         <v>343</v>
@@ -9072,648 +9427,812 @@
         <v>343</v>
       </c>
       <c r="E22" s="2">
+        <v>343</v>
+      </c>
+      <c r="F22" s="2">
         <v>345</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>343.6</v>
       </c>
-      <c r="G22" s="17">
+      <c r="H22" s="18">
         <f t="shared" si="1"/>
+        <v>343.6</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="2"/>
+        <v>343.6</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="K22" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="8">
         <v>20</v>
       </c>
-      <c r="L22">
+      <c r="N22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O22">
+        <f>O21+3*O20</f>
+        <v>361.60603018155012</v>
+      </c>
+      <c r="P22">
         <v>20</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="3"/>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="4"/>
+      <c r="S22">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>350.6</v>
       </c>
-      <c r="Q22">
+      <c r="U22">
         <v>20</v>
       </c>
-      <c r="R22">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T22">
+      <c r="V22">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X22">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="7"/>
+      <c r="Y22">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>345</v>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>345</v>
       </c>
       <c r="C23" s="2">
+        <v>345</v>
+      </c>
+      <c r="D23" s="2">
         <v>344</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>346</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>345</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="G23" s="17">
+      <c r="H23" s="18">
         <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="K23" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L23" s="8">
         <v>21</v>
       </c>
-      <c r="L23">
+      <c r="N23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23">
+        <f>O21-3*O20</f>
+        <v>338.39396981844988</v>
+      </c>
+      <c r="P23">
         <v>21</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="3"/>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
+      <c r="S23">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P23">
+      <c r="T23">
         <v>347.8</v>
       </c>
-      <c r="Q23">
+      <c r="U23">
         <v>21</v>
       </c>
-      <c r="R23">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T23">
+      <c r="V23">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U23">
-        <f t="shared" si="7"/>
+      <c r="Y23">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>346</v>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>346</v>
       </c>
       <c r="C24" s="2">
+        <v>346</v>
+      </c>
+      <c r="D24" s="2">
         <v>345</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>346</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>347</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="G24" s="17">
+      <c r="H24" s="18">
         <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="K24" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L24" s="8">
         <v>22</v>
       </c>
-      <c r="L24">
+      <c r="P24">
         <v>22</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="4"/>
+      <c r="S24">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P24">
+      <c r="T24">
         <v>348.4</v>
       </c>
-      <c r="Q24">
+      <c r="U24">
         <v>22</v>
       </c>
-      <c r="R24">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T24">
+      <c r="V24">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X24">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U24">
-        <f t="shared" si="7"/>
+      <c r="Y24">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
         <v>348</v>
       </c>
-      <c r="B25" s="2">
-        <v>350</v>
-      </c>
       <c r="C25" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D25" s="2">
         <v>346</v>
       </c>
       <c r="E25" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F25" s="2">
+        <v>350</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="G25" s="17">
+      <c r="H25" s="18">
         <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H25" s="8">
+      <c r="K25" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L25" s="8">
         <v>23</v>
       </c>
-      <c r="L25">
+      <c r="P25">
         <v>23</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="3"/>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="4"/>
+      <c r="S25">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P25">
+      <c r="T25">
         <v>347.4</v>
       </c>
-      <c r="Q25">
+      <c r="U25">
         <v>23</v>
       </c>
-      <c r="R25">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T25">
+      <c r="V25">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X25">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U25">
-        <f t="shared" si="7"/>
+      <c r="Y25">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
         <v>348</v>
       </c>
-      <c r="B26" s="2">
-        <v>350</v>
-      </c>
       <c r="C26" s="2">
+        <v>350</v>
+      </c>
+      <c r="D26" s="2">
         <v>346</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>347</v>
       </c>
-      <c r="E26" s="2">
-        <v>350</v>
-      </c>
       <c r="F26" s="2">
+        <v>350</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>348.2</v>
       </c>
-      <c r="G26" s="17">
+      <c r="H26" s="18">
         <f t="shared" si="1"/>
+        <v>348.2</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" si="2"/>
+        <v>348.2</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H26" s="8">
+      <c r="K26" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="8">
         <v>24</v>
       </c>
-      <c r="L26">
+      <c r="P26">
         <v>24</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="3"/>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="4"/>
+      <c r="S26">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P26">
+      <c r="T26">
         <v>346.8</v>
       </c>
-      <c r="Q26">
+      <c r="U26">
         <v>24</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T26">
+      <c r="V26">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X26">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="7"/>
+      <c r="Y26">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>348</v>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>348</v>
       </c>
       <c r="C27" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D27" s="2">
         <v>346</v>
       </c>
       <c r="E27" s="2">
+        <v>346</v>
+      </c>
+      <c r="F27" s="2">
         <v>349</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
         <v>347.4</v>
       </c>
-      <c r="G27" s="17">
+      <c r="H27" s="18">
         <f t="shared" si="1"/>
+        <v>347.4</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="2"/>
+        <v>347.4</v>
+      </c>
+      <c r="J27" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H27" s="8">
+      <c r="K27" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L27" s="8">
         <v>25</v>
       </c>
-      <c r="L27">
+      <c r="P27">
         <v>25</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="3"/>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="4"/>
+      <c r="S27">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P27">
+      <c r="T27">
         <v>347</v>
       </c>
-      <c r="Q27">
+      <c r="U27">
         <v>25</v>
       </c>
-      <c r="R27">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T27">
+      <c r="V27">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="7"/>
+      <c r="Y27">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>344</v>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>344</v>
       </c>
       <c r="C28" s="2">
+        <v>344</v>
+      </c>
+      <c r="D28" s="2">
         <v>345</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>343</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>346</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>344.4</v>
       </c>
-      <c r="G28" s="17">
+      <c r="H28" s="18">
         <f t="shared" si="1"/>
+        <v>344.4</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" si="2"/>
+        <v>344.4</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H28" s="8">
+      <c r="K28" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="8">
         <v>26</v>
       </c>
-      <c r="L28">
+      <c r="P28">
         <v>26</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="3"/>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="4"/>
+      <c r="S28">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P28">
+      <c r="T28">
         <v>348.8</v>
       </c>
-      <c r="Q28">
+      <c r="U28">
         <v>26</v>
       </c>
-      <c r="R28">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T28">
+      <c r="V28">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X28">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="7"/>
+      <c r="Y28">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>337</v>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>337</v>
       </c>
       <c r="C29" s="2">
+        <v>337</v>
+      </c>
+      <c r="D29" s="2">
         <v>338</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>336</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>339</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>337.4</v>
       </c>
-      <c r="G29" s="17">
+      <c r="H29" s="18">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H29" s="8">
+      <c r="K29" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="8">
         <v>27</v>
       </c>
-      <c r="L29">
+      <c r="P29">
         <v>27</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="3"/>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="4"/>
+      <c r="S29">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P29">
+      <c r="T29">
         <v>338.4</v>
       </c>
-      <c r="Q29">
+      <c r="U29">
         <v>27</v>
       </c>
-      <c r="R29">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T29">
+      <c r="V29">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X29">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="7"/>
+      <c r="Y29">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>344</v>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>344</v>
       </c>
       <c r="C30" s="2">
+        <v>344</v>
+      </c>
+      <c r="D30" s="2">
         <v>345</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>344</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>346</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
         <v>344.6</v>
       </c>
-      <c r="G30" s="17">
+      <c r="H30" s="18">
         <f t="shared" si="1"/>
+        <v>344.6</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" si="2"/>
+        <v>344.6</v>
+      </c>
+      <c r="J30" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H30" s="8">
+      <c r="K30" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="8">
         <v>28</v>
       </c>
-      <c r="L30">
+      <c r="P30">
         <v>28</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="3"/>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="4"/>
+      <c r="S30">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P30">
+      <c r="T30">
         <v>347.8</v>
       </c>
-      <c r="Q30">
+      <c r="U30">
         <v>28</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T30">
+      <c r="V30">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X30">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U30">
-        <f t="shared" si="7"/>
+      <c r="Y30">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>345</v>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>345</v>
       </c>
       <c r="C31" s="2">
+        <v>345</v>
+      </c>
+      <c r="D31" s="2">
         <v>346</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>345</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>348</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
         <v>345.8</v>
       </c>
-      <c r="G31" s="17">
+      <c r="H31" s="18">
         <f t="shared" si="1"/>
+        <v>345.8</v>
+      </c>
+      <c r="I31" s="18">
+        <f t="shared" si="2"/>
+        <v>345.8</v>
+      </c>
+      <c r="J31" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H31" s="8">
+      <c r="K31" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="8">
         <v>29</v>
       </c>
-      <c r="L31">
+      <c r="P31">
         <v>29</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="3"/>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
+      <c r="S31">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P31">
+      <c r="T31">
         <v>347.6</v>
       </c>
-      <c r="Q31">
+      <c r="U31">
         <v>29</v>
       </c>
-      <c r="R31">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T31">
+      <c r="V31">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X31">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="7"/>
+      <c r="Y31">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
         <v>344</v>
-      </c>
-      <c r="B32" s="2">
-        <v>345</v>
       </c>
       <c r="C32" s="2">
         <v>345</v>
@@ -9722,60 +10241,75 @@
         <v>345</v>
       </c>
       <c r="E32" s="2">
+        <v>345</v>
+      </c>
+      <c r="F32" s="2">
         <v>346</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="G32" s="17">
+      <c r="H32" s="18">
         <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="I32" s="18">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="K32" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="8">
         <v>30</v>
       </c>
-      <c r="L32">
+      <c r="P32">
         <v>30</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="3"/>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="4"/>
+      <c r="S32">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P32">
+      <c r="T32">
         <v>346</v>
       </c>
-      <c r="Q32">
+      <c r="U32">
         <v>30</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T32">
+      <c r="V32">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X32">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="7"/>
+      <c r="Y32">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>345</v>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>345</v>
@@ -9784,193 +10318,238 @@
         <v>345</v>
       </c>
       <c r="D33" s="2">
+        <v>345</v>
+      </c>
+      <c r="E33" s="2">
         <v>344</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>347</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
         <v>345.2</v>
       </c>
-      <c r="G33" s="17">
+      <c r="H33" s="18">
         <f t="shared" si="1"/>
+        <v>345.2</v>
+      </c>
+      <c r="I33" s="18">
+        <f t="shared" si="2"/>
+        <v>345.2</v>
+      </c>
+      <c r="J33" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H33" s="8">
+      <c r="K33" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L33" s="8">
         <v>31</v>
       </c>
-      <c r="L33">
+      <c r="P33">
         <v>31</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="3"/>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="4"/>
+      <c r="S33">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P33">
+      <c r="T33">
         <v>347.6</v>
       </c>
-      <c r="Q33">
+      <c r="U33">
         <v>31</v>
       </c>
-      <c r="R33">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T33">
+      <c r="V33">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X33">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="7"/>
+      <c r="Y33">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>349</v>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>349</v>
       </c>
       <c r="C34" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D34" s="2">
         <v>348</v>
       </c>
       <c r="E34" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F34" s="2">
+        <v>350</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="0"/>
         <v>348.8</v>
       </c>
-      <c r="G34" s="17">
+      <c r="H34" s="18">
         <f t="shared" si="1"/>
+        <v>348.8</v>
+      </c>
+      <c r="I34" s="18">
+        <f t="shared" si="2"/>
+        <v>348.8</v>
+      </c>
+      <c r="J34" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H34" s="8">
+      <c r="K34" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="8">
         <v>32</v>
       </c>
-      <c r="L34">
+      <c r="P34">
         <v>32</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="3"/>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="4"/>
+      <c r="S34">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P34">
+      <c r="T34">
         <v>346.6</v>
       </c>
-      <c r="Q34">
+      <c r="U34">
         <v>32</v>
       </c>
-      <c r="R34">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T34">
+      <c r="V34">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="7"/>
+      <c r="Y34">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
         <v>349</v>
       </c>
-      <c r="B35" s="2">
-        <v>350</v>
-      </c>
       <c r="C35" s="2">
+        <v>350</v>
+      </c>
+      <c r="D35" s="2">
         <v>348</v>
       </c>
-      <c r="D35" s="2">
-        <v>350</v>
-      </c>
       <c r="E35" s="2">
+        <v>350</v>
+      </c>
+      <c r="F35" s="2">
         <v>349</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="G35" s="17">
+      <c r="H35" s="18">
         <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="I35" s="18">
+        <f t="shared" si="2"/>
+        <v>349.2</v>
+      </c>
+      <c r="J35" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="K35" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L35" s="8">
         <v>33</v>
       </c>
-      <c r="L35">
+      <c r="P35">
         <v>33</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="3"/>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="4"/>
+      <c r="S35">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P35">
+      <c r="T35">
         <v>349</v>
       </c>
-      <c r="Q35">
+      <c r="U35">
         <v>33</v>
       </c>
-      <c r="R35">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T35">
+      <c r="V35">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X35">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="7"/>
+      <c r="Y35">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>348</v>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>348</v>
@@ -9979,388 +10558,478 @@
         <v>348</v>
       </c>
       <c r="D36" s="2">
+        <v>348</v>
+      </c>
+      <c r="E36" s="2">
         <v>345</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>349</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <f t="shared" si="0"/>
         <v>347.6</v>
       </c>
-      <c r="G36" s="17">
+      <c r="H36" s="18">
         <f t="shared" si="1"/>
+        <v>347.6</v>
+      </c>
+      <c r="I36" s="18">
+        <f t="shared" si="2"/>
+        <v>347.6</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H36" s="8">
+      <c r="K36" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L36" s="8">
         <v>34</v>
       </c>
-      <c r="L36">
+      <c r="P36">
         <v>34</v>
       </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="3"/>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="4"/>
+      <c r="S36">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P36">
+      <c r="T36">
         <v>349.8</v>
       </c>
-      <c r="Q36">
+      <c r="U36">
         <v>34</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T36">
+      <c r="V36">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="7"/>
+      <c r="Y36">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
         <v>348</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>349</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>348</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>345</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>348</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <f t="shared" si="0"/>
         <v>347.6</v>
       </c>
-      <c r="G37" s="17">
+      <c r="H37" s="18">
         <f t="shared" si="1"/>
+        <v>347.6</v>
+      </c>
+      <c r="I37" s="18">
+        <f t="shared" si="2"/>
+        <v>347.6</v>
+      </c>
+      <c r="J37" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H37" s="8">
+      <c r="K37" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L37" s="8">
         <v>35</v>
       </c>
-      <c r="L37">
+      <c r="P37">
         <v>35</v>
       </c>
-      <c r="M37">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="3"/>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="4"/>
+      <c r="S37">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P37">
+      <c r="T37">
         <v>349.6</v>
       </c>
-      <c r="Q37">
+      <c r="U37">
         <v>35</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T37">
+      <c r="V37">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X37">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="7"/>
+      <c r="Y37">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
         <v>354</v>
       </c>
-      <c r="B38" s="2">
-        <v>350</v>
-      </c>
       <c r="C38" s="2">
+        <v>350</v>
+      </c>
+      <c r="D38" s="2">
         <v>360</v>
       </c>
-      <c r="D38" s="2">
-        <v>350</v>
-      </c>
       <c r="E38" s="2">
+        <v>350</v>
+      </c>
+      <c r="F38" s="2">
         <v>359</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <f t="shared" si="0"/>
         <v>354.6</v>
       </c>
-      <c r="G38" s="17">
+      <c r="H38" s="18">
         <f t="shared" si="1"/>
+        <v>354.6</v>
+      </c>
+      <c r="I38" s="18">
+        <f t="shared" si="2"/>
+        <v>354.6</v>
+      </c>
+      <c r="J38" s="17">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H38" s="8">
+      <c r="K38" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
         <v>36</v>
       </c>
-      <c r="L38">
+      <c r="P38">
         <v>36</v>
       </c>
-      <c r="M38">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="3"/>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="4"/>
+      <c r="S38">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P38">
+      <c r="T38">
         <v>348</v>
       </c>
-      <c r="Q38">
+      <c r="U38">
         <v>36</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T38">
+      <c r="V38">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X38">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U38">
-        <f t="shared" si="7"/>
+      <c r="Y38">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
         <v>346</v>
-      </c>
-      <c r="B39" s="2">
-        <v>344</v>
       </c>
       <c r="C39" s="2">
         <v>344</v>
       </c>
       <c r="D39" s="2">
+        <v>344</v>
+      </c>
+      <c r="E39" s="2">
         <v>342</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>345</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <f t="shared" si="0"/>
         <v>344.2</v>
       </c>
-      <c r="G39" s="17">
+      <c r="H39" s="18">
         <f t="shared" si="1"/>
+        <v>344.2</v>
+      </c>
+      <c r="I39" s="18">
+        <f t="shared" si="2"/>
+        <v>344.2</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H39" s="8">
+      <c r="K39" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L39" s="8">
         <v>37</v>
       </c>
-      <c r="L39">
+      <c r="P39">
         <v>37</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="3"/>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="4"/>
+      <c r="S39">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P39">
+      <c r="T39">
         <v>349</v>
       </c>
-      <c r="Q39">
+      <c r="U39">
         <v>37</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T39">
+      <c r="V39">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X39">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="7"/>
+      <c r="Y39">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>350</v>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2">
         <v>351</v>
       </c>
       <c r="D40" s="2">
+        <v>351</v>
+      </c>
+      <c r="E40" s="2">
         <v>352</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <v>354</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <f t="shared" si="0"/>
         <v>351.6</v>
       </c>
-      <c r="G40" s="17">
+      <c r="H40" s="18">
         <f t="shared" si="1"/>
+        <v>351.6</v>
+      </c>
+      <c r="I40" s="18">
+        <f t="shared" si="2"/>
+        <v>351.6</v>
+      </c>
+      <c r="J40" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H40" s="8">
+      <c r="K40" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L40" s="8">
         <v>38</v>
       </c>
-      <c r="L40">
+      <c r="P40">
         <v>38</v>
       </c>
-      <c r="M40">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="3"/>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="4"/>
+      <c r="S40">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P40">
+      <c r="T40">
         <v>346.6</v>
       </c>
-      <c r="Q40">
+      <c r="U40">
         <v>38</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T40">
+      <c r="V40">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X40">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U40">
-        <f t="shared" si="7"/>
+      <c r="Y40">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>342</v>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>342</v>
       </c>
       <c r="C41" s="2">
+        <v>342</v>
+      </c>
+      <c r="D41" s="2">
         <v>343</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>340</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>344</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <f t="shared" si="0"/>
         <v>342.2</v>
       </c>
-      <c r="G41" s="17">
+      <c r="H41" s="18">
         <f t="shared" si="1"/>
+        <v>342.2</v>
+      </c>
+      <c r="I41" s="18">
+        <f t="shared" si="2"/>
+        <v>342.2</v>
+      </c>
+      <c r="J41" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H41" s="8">
+      <c r="K41" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L41" s="8">
         <v>39</v>
       </c>
-      <c r="L41">
+      <c r="P41">
         <v>39</v>
       </c>
-      <c r="M41">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="3"/>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="4"/>
+      <c r="S41">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P41">
+      <c r="T41">
         <v>350.4</v>
       </c>
-      <c r="Q41">
+      <c r="U41">
         <v>39</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T41">
+      <c r="V41">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X41">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U41">
-        <f t="shared" si="7"/>
+      <c r="Y41">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>349</v>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>349</v>
@@ -10369,147 +11038,207 @@
         <v>349</v>
       </c>
       <c r="D42" s="2">
+        <v>349</v>
+      </c>
+      <c r="E42" s="2">
         <v>347</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>351</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
-      <c r="G42" s="17">
+      <c r="H42" s="18">
         <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="I42" s="18">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="J42" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H42" s="8">
+      <c r="K42" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L42" s="8">
         <v>40</v>
       </c>
-      <c r="L42">
+      <c r="P42">
         <v>40</v>
       </c>
-      <c r="M42">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="3"/>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
         <v>362.54768359643975</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="4"/>
+      <c r="S42">
+        <f t="shared" si="7"/>
         <v>337.45231640356025</v>
       </c>
-      <c r="P42">
+      <c r="T42">
         <v>348.6</v>
       </c>
-      <c r="Q42">
+      <c r="U42">
         <v>40</v>
       </c>
-      <c r="R42">
-        <f t="shared" si="5"/>
-        <v>3.3176470588235296</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="6"/>
-        <v>7.9976599870538951</v>
-      </c>
-      <c r="T42">
+      <c r="V42">
+        <f t="shared" si="8"/>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="9"/>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="X42">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U42">
-        <f t="shared" si="7"/>
+      <c r="Y42">
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
         <v>349</v>
-      </c>
-      <c r="B43" s="2">
-        <v>348</v>
       </c>
       <c r="C43" s="2">
         <v>348</v>
       </c>
       <c r="D43" s="2">
+        <v>348</v>
+      </c>
+      <c r="E43" s="2">
         <v>347</v>
       </c>
-      <c r="E43" s="2">
-        <v>350</v>
-      </c>
       <c r="F43" s="2">
+        <v>350</v>
+      </c>
+      <c r="G43" s="2">
         <f t="shared" si="0"/>
         <v>348.4</v>
       </c>
-      <c r="G43" s="17">
+      <c r="H43" s="18">
         <f t="shared" si="1"/>
+        <v>348.4</v>
+      </c>
+      <c r="I43" s="18">
+        <f t="shared" si="2"/>
+        <v>348.4</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H43" s="8">
+      <c r="K43" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L43" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>349</v>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>349</v>
       </c>
       <c r="C44" s="2">
+        <v>349</v>
+      </c>
+      <c r="D44" s="2">
         <v>347</v>
       </c>
-      <c r="D44" s="2">
-        <v>350</v>
-      </c>
       <c r="E44" s="2">
+        <v>350</v>
+      </c>
+      <c r="F44" s="2">
         <v>349</v>
       </c>
-      <c r="F44" s="2">
+      <c r="G44" s="2">
         <f t="shared" si="0"/>
         <v>348.8</v>
       </c>
-      <c r="G44" s="17">
+      <c r="H44" s="18">
         <f t="shared" si="1"/>
+        <v>348.8</v>
+      </c>
+      <c r="I44" s="18">
+        <f t="shared" si="2"/>
+        <v>348.8</v>
+      </c>
+      <c r="J44" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H44" s="8">
+      <c r="K44" s="18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L44" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>348</v>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>348</v>
       </c>
       <c r="C45" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D45" s="2">
         <v>347</v>
       </c>
       <c r="E45" s="2">
+        <v>347</v>
+      </c>
+      <c r="F45" s="2">
         <v>349</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <f t="shared" si="0"/>
         <v>347.8</v>
       </c>
-      <c r="G45" s="17">
+      <c r="H45" s="18">
         <f t="shared" si="1"/>
+        <v>347.8</v>
+      </c>
+      <c r="I45" s="18">
+        <f t="shared" si="2"/>
+        <v>347.8</v>
+      </c>
+      <c r="J45" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H45" s="8">
+      <c r="K45" s="18">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L45" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>349</v>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>349</v>
@@ -10518,838 +11247,1096 @@
         <v>349</v>
       </c>
       <c r="D46" s="2">
+        <v>349</v>
+      </c>
+      <c r="E46" s="2">
         <v>346</v>
       </c>
-      <c r="E46" s="2">
-        <v>350</v>
-      </c>
       <c r="F46" s="2">
+        <v>350</v>
+      </c>
+      <c r="G46" s="2">
         <f t="shared" si="0"/>
         <v>348.6</v>
       </c>
-      <c r="G46" s="17">
+      <c r="H46" s="18">
         <f t="shared" si="1"/>
+        <v>348.6</v>
+      </c>
+      <c r="I46" s="18">
+        <f t="shared" si="2"/>
+        <v>348.6</v>
+      </c>
+      <c r="J46" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H46" s="8">
+      <c r="K46" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L46" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
         <v>339</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C47" s="2">
         <v>340</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>341</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>338</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <v>342</v>
       </c>
-      <c r="F47" s="2">
+      <c r="G47" s="2">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="G47" s="17">
+      <c r="H47" s="18">
         <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="I47" s="18">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="J47" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H47" s="8">
+      <c r="K47" s="18">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="L47" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>350</v>
-      </c>
-      <c r="B48" s="2">
-        <v>350</v>
-      </c>
-      <c r="C48" s="2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2">
+        <v>350</v>
+      </c>
+      <c r="C49" s="2">
+        <v>350</v>
+      </c>
+      <c r="D49" s="2">
         <v>348</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E49" s="2">
         <v>347</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F49" s="2">
         <v>351</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G49" s="2">
         <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="G48" s="17">
+      <c r="H49" s="18">
         <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="I49" s="18"/>
+      <c r="J49" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H48" s="8">
+      <c r="K49" s="18"/>
+      <c r="L49" s="8">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2">
         <v>349</v>
       </c>
-      <c r="B49" s="2">
-        <v>350</v>
-      </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
+        <v>350</v>
+      </c>
+      <c r="D50" s="2">
         <v>349</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E50" s="2">
         <v>349</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F50" s="2">
         <v>351</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G50" s="2">
         <f t="shared" si="0"/>
         <v>349.6</v>
       </c>
-      <c r="G49" s="17">
+      <c r="H50" s="18">
         <f t="shared" si="1"/>
+        <v>349.6</v>
+      </c>
+      <c r="I50" s="18"/>
+      <c r="J50" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H49" s="8">
+      <c r="K50" s="18"/>
+      <c r="L50" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2">
         <v>343</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C51" s="2">
         <v>343</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D51" s="2">
         <v>343</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E51" s="2">
         <v>342</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F51" s="2">
         <v>345</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G51" s="2">
         <f t="shared" si="0"/>
         <v>343.2</v>
       </c>
-      <c r="G50" s="17">
+      <c r="H51" s="18">
         <f t="shared" si="1"/>
+        <v>343.2</v>
+      </c>
+      <c r="I51" s="18"/>
+      <c r="J51" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H50" s="8">
+      <c r="K51" s="18"/>
+      <c r="L51" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2">
         <v>342</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C52" s="2">
         <v>344</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D52" s="2">
         <v>345</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E52" s="2">
         <v>342</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F52" s="2">
         <v>345</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G52" s="2">
         <f t="shared" si="0"/>
         <v>343.6</v>
       </c>
-      <c r="G51" s="17">
+      <c r="H52" s="18">
         <f t="shared" si="1"/>
+        <v>343.6</v>
+      </c>
+      <c r="I52" s="18"/>
+      <c r="J52" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H51" s="8">
+      <c r="K52" s="18"/>
+      <c r="L52" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>350</v>
-      </c>
-      <c r="B52" s="2">
-        <v>350</v>
-      </c>
-      <c r="C52" s="2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2">
+        <v>350</v>
+      </c>
+      <c r="C53" s="2">
+        <v>350</v>
+      </c>
+      <c r="D53" s="2">
         <v>349</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E53" s="2">
         <v>347</v>
       </c>
-      <c r="E52" s="2">
-        <v>350</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="F53" s="2">
+        <v>350</v>
+      </c>
+      <c r="G53" s="2">
         <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="G52" s="17">
+      <c r="H53" s="18">
         <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="I53" s="18"/>
+      <c r="J53" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H52" s="8">
+      <c r="K53" s="18"/>
+      <c r="L53" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>350</v>
-      </c>
-      <c r="B53" s="2">
-        <v>350</v>
-      </c>
-      <c r="C53" s="2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2">
+        <v>350</v>
+      </c>
+      <c r="C54" s="2">
+        <v>350</v>
+      </c>
+      <c r="D54" s="2">
         <v>349</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E54" s="2">
         <v>348</v>
       </c>
-      <c r="E53" s="2">
-        <v>350</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="F54" s="2">
+        <v>350</v>
+      </c>
+      <c r="G54" s="2">
         <f t="shared" si="0"/>
         <v>349.4</v>
       </c>
-      <c r="G53" s="17">
+      <c r="H54" s="18">
         <f t="shared" si="1"/>
+        <v>349.4</v>
+      </c>
+      <c r="I54" s="18"/>
+      <c r="J54" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H53" s="8">
+      <c r="K54" s="18"/>
+      <c r="L54" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2">
         <v>355</v>
       </c>
-      <c r="B54" s="2">
+      <c r="C55" s="2">
         <v>354</v>
       </c>
-      <c r="C54" s="2">
+      <c r="D55" s="2">
         <v>355</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E55" s="2">
         <v>353</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F55" s="2">
         <v>356</v>
       </c>
-      <c r="F54" s="2">
+      <c r="G55" s="2">
         <f t="shared" si="0"/>
         <v>354.6</v>
       </c>
-      <c r="G54" s="17">
+      <c r="H55" s="18">
         <f t="shared" si="1"/>
+        <v>354.6</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H54" s="8">
+      <c r="K55" s="18"/>
+      <c r="L55" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2">
         <v>349</v>
       </c>
-      <c r="B55" s="2">
+      <c r="C56" s="2">
         <v>349</v>
       </c>
-      <c r="C55" s="2">
-        <v>350</v>
-      </c>
-      <c r="D55" s="2">
+      <c r="D56" s="2">
+        <v>350</v>
+      </c>
+      <c r="E56" s="2">
         <v>347</v>
       </c>
-      <c r="E55" s="2">
-        <v>350</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="F56" s="2">
+        <v>350</v>
+      </c>
+      <c r="G56" s="2">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
-      <c r="G55" s="17">
+      <c r="H56" s="18">
         <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H55" s="8">
+      <c r="K56" s="18"/>
+      <c r="L56" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="2">
         <v>351</v>
       </c>
-      <c r="B56" s="2">
+      <c r="C57" s="2">
         <v>351</v>
       </c>
-      <c r="C56" s="2">
-        <v>350</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="D57" s="2">
+        <v>350</v>
+      </c>
+      <c r="E57" s="2">
         <v>348</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F57" s="2">
         <v>352</v>
       </c>
-      <c r="F56" s="2">
+      <c r="G57" s="2">
         <f t="shared" si="0"/>
         <v>350.4</v>
       </c>
-      <c r="G56" s="17">
+      <c r="H57" s="18">
         <f t="shared" si="1"/>
+        <v>350.4</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H56" s="8">
+      <c r="K57" s="18"/>
+      <c r="L57" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>350</v>
-      </c>
-      <c r="B57" s="2">
-        <v>350</v>
-      </c>
-      <c r="C57" s="2">
-        <v>350</v>
-      </c>
-      <c r="D57" s="2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="2">
+        <v>350</v>
+      </c>
+      <c r="C58" s="2">
+        <v>350</v>
+      </c>
+      <c r="D58" s="2">
+        <v>350</v>
+      </c>
+      <c r="E58" s="2">
         <v>348</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F58" s="2">
         <v>351</v>
       </c>
-      <c r="F57" s="2">
+      <c r="G58" s="2">
         <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="G57" s="17">
+      <c r="H58" s="18">
         <f t="shared" si="1"/>
+        <v>349.8</v>
+      </c>
+      <c r="I58" s="18"/>
+      <c r="J58" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H57" s="8">
+      <c r="K58" s="18"/>
+      <c r="L58" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="2">
         <v>345</v>
       </c>
-      <c r="B58" s="2">
+      <c r="C59" s="2">
         <v>346</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D59" s="2">
         <v>355</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E59" s="2">
         <v>345</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F59" s="2">
         <v>356</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G59" s="2">
         <f t="shared" si="0"/>
         <v>349.4</v>
       </c>
-      <c r="G58" s="17">
+      <c r="H59" s="18">
         <f t="shared" si="1"/>
+        <v>349.4</v>
+      </c>
+      <c r="I59" s="18"/>
+      <c r="J59" s="17">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="H58" s="8">
+      <c r="K59" s="18"/>
+      <c r="L59" s="8">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="2">
         <v>345</v>
       </c>
-      <c r="B59" s="2">
+      <c r="C60" s="2">
         <v>346</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D60" s="2">
         <v>354</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E60" s="2">
         <v>346</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F60" s="2">
         <v>355</v>
       </c>
-      <c r="F59" s="2">
+      <c r="G60" s="2">
         <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="G59" s="17">
+      <c r="H60" s="18">
         <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="I60" s="18"/>
+      <c r="J60" s="17">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="H59" s="8">
+      <c r="K60" s="18"/>
+      <c r="L60" s="8">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="2">
         <v>348</v>
       </c>
-      <c r="B60" s="2">
+      <c r="C61" s="2">
         <v>345</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D61" s="2">
         <v>348</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E61" s="2">
         <v>346</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F61" s="2">
         <v>348</v>
       </c>
-      <c r="F60" s="2">
+      <c r="G61" s="2">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
-      <c r="G60" s="17">
+      <c r="H61" s="18">
         <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="I61" s="18"/>
+      <c r="J61" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H60" s="8">
+      <c r="K61" s="18"/>
+      <c r="L61" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="2">
         <v>348</v>
       </c>
-      <c r="B61" s="2">
+      <c r="C62" s="2">
         <v>348</v>
       </c>
-      <c r="C61" s="2">
+      <c r="D62" s="2">
         <v>348</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E62" s="2">
         <v>346</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F62" s="2">
         <v>349</v>
       </c>
-      <c r="F61" s="2">
+      <c r="G62" s="2">
         <f t="shared" si="0"/>
         <v>347.8</v>
       </c>
-      <c r="G61" s="17">
+      <c r="H62" s="18">
         <f t="shared" si="1"/>
+        <v>347.8</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H61" s="8">
+      <c r="K62" s="18"/>
+      <c r="L62" s="8">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="2">
         <v>352</v>
       </c>
-      <c r="B62" s="2">
+      <c r="C63" s="2">
         <v>348</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D63" s="2">
         <v>349</v>
       </c>
-      <c r="D62" s="2">
-        <v>350</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="E63" s="2">
+        <v>350</v>
+      </c>
+      <c r="F63" s="2">
         <v>353</v>
       </c>
-      <c r="F62" s="2">
+      <c r="G63" s="2">
         <f t="shared" si="0"/>
         <v>350.4</v>
       </c>
-      <c r="G62" s="17">
+      <c r="H63" s="18">
         <f t="shared" si="1"/>
+        <v>350.4</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="17">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H62" s="8">
+      <c r="K63" s="18"/>
+      <c r="L63" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>350</v>
-      </c>
-      <c r="B63" s="2">
-        <v>350</v>
-      </c>
-      <c r="C63" s="2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="2">
+        <v>350</v>
+      </c>
+      <c r="C64" s="2">
+        <v>350</v>
+      </c>
+      <c r="D64" s="2">
         <v>348</v>
       </c>
-      <c r="D63" s="2">
-        <v>350</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="E64" s="2">
+        <v>350</v>
+      </c>
+      <c r="F64" s="2">
         <v>351</v>
       </c>
-      <c r="F63" s="2">
+      <c r="G64" s="2">
         <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="G63" s="17">
+      <c r="H64" s="18">
         <f t="shared" si="1"/>
+        <v>349.8</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="J64" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H63" s="8">
+      <c r="K64" s="18"/>
+      <c r="L64" s="8">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>350</v>
-      </c>
-      <c r="B64" s="2">
-        <v>350</v>
-      </c>
-      <c r="C64" s="2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="2">
+        <v>350</v>
+      </c>
+      <c r="C65" s="2">
+        <v>350</v>
+      </c>
+      <c r="D65" s="2">
         <v>348</v>
       </c>
-      <c r="D64" s="2">
-        <v>350</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="E65" s="2">
+        <v>350</v>
+      </c>
+      <c r="F65" s="2">
         <v>351</v>
       </c>
-      <c r="F64" s="2">
+      <c r="G65" s="2">
         <f t="shared" si="0"/>
         <v>349.8</v>
       </c>
-      <c r="G64" s="17">
+      <c r="H65" s="18">
         <f t="shared" si="1"/>
+        <v>349.8</v>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="J65" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H64" s="8">
+      <c r="K65" s="18"/>
+      <c r="L65" s="8">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="2">
         <v>348</v>
       </c>
-      <c r="B65" s="2">
+      <c r="C66" s="2">
         <v>347</v>
       </c>
-      <c r="C65" s="2">
+      <c r="D66" s="2">
         <v>346</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E66" s="2">
         <v>344</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F66" s="2">
         <v>348</v>
       </c>
-      <c r="F65" s="2">
+      <c r="G66" s="2">
         <f t="shared" si="0"/>
         <v>346.6</v>
       </c>
-      <c r="G65" s="17">
+      <c r="H66" s="18">
         <f t="shared" si="1"/>
+        <v>346.6</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="17">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H65" s="8">
+      <c r="K66" s="18"/>
+      <c r="L66" s="8">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2">
         <v>348</v>
       </c>
-      <c r="B66" s="2">
+      <c r="C67" s="2">
         <v>349</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D67" s="2">
         <v>348</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E67" s="2">
         <v>348</v>
       </c>
-      <c r="E66" s="2">
-        <v>350</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="F67" s="2">
+        <v>350</v>
+      </c>
+      <c r="G67" s="2">
         <f t="shared" si="0"/>
         <v>348.6</v>
       </c>
-      <c r="G66" s="17">
+      <c r="H67" s="18">
         <f t="shared" si="1"/>
+        <v>348.6</v>
+      </c>
+      <c r="I67" s="18"/>
+      <c r="J67" s="17">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H66" s="8">
+      <c r="K67" s="18"/>
+      <c r="L67" s="8">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="2">
         <v>351</v>
       </c>
-      <c r="B67" s="2">
+      <c r="C68" s="2">
         <v>351</v>
       </c>
-      <c r="C67" s="2">
-        <v>350</v>
-      </c>
-      <c r="D67" s="2">
+      <c r="D68" s="2">
+        <v>350</v>
+      </c>
+      <c r="E68" s="2">
         <v>349</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F68" s="2">
         <v>352</v>
       </c>
-      <c r="F67" s="2">
+      <c r="G68" s="2">
         <f t="shared" si="0"/>
         <v>350.6</v>
       </c>
-      <c r="G67" s="17">
+      <c r="H68" s="18">
         <f t="shared" si="1"/>
+        <v>350.6</v>
+      </c>
+      <c r="I68" s="18"/>
+      <c r="J68" s="17">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H67" s="8">
+      <c r="K68" s="18"/>
+      <c r="L68" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="2">
         <v>347</v>
-      </c>
-      <c r="B68" s="2">
-        <v>348</v>
-      </c>
-      <c r="C68" s="2">
-        <v>349</v>
-      </c>
-      <c r="D68" s="2">
-        <v>346</v>
-      </c>
-      <c r="E68" s="2">
-        <v>349</v>
-      </c>
-      <c r="F68" s="2">
-        <f t="shared" ref="F68:F87" si="8">AVERAGE(A68:E68)</f>
-        <v>347.8</v>
-      </c>
-      <c r="G68" s="17">
-        <f t="shared" ref="G68:G87" si="9">MAX(A68:E68)-MIN(A68:E68)</f>
-        <v>3</v>
-      </c>
-      <c r="H68" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>349</v>
-      </c>
-      <c r="B69" s="2">
-        <v>349</v>
       </c>
       <c r="C69" s="2">
         <v>348</v>
       </c>
       <c r="D69" s="2">
+        <v>349</v>
+      </c>
+      <c r="E69" s="2">
+        <v>346</v>
+      </c>
+      <c r="F69" s="2">
+        <v>349</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" ref="G69:G88" si="11">AVERAGE(B69:F69)</f>
+        <v>347.8</v>
+      </c>
+      <c r="H69" s="18">
+        <f t="shared" ref="H69:H88" si="12">IF(OR(G69&gt;=$O$6,G69&lt;=$O$7),0,G69)</f>
+        <v>347.8</v>
+      </c>
+      <c r="I69" s="18"/>
+      <c r="J69" s="17">
+        <f t="shared" ref="J69:J88" si="13">MAX(B69:F69)-MIN(B69:F69)</f>
+        <v>3</v>
+      </c>
+      <c r="K69" s="18"/>
+      <c r="L69" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2">
+        <v>349</v>
+      </c>
+      <c r="C70" s="2">
+        <v>349</v>
+      </c>
+      <c r="D70" s="2">
+        <v>348</v>
+      </c>
+      <c r="E70" s="2">
         <v>347</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F70" s="2">
         <v>349</v>
       </c>
-      <c r="F69" s="2">
-        <f t="shared" si="8"/>
+      <c r="G70" s="2">
+        <f t="shared" si="11"/>
         <v>348.4</v>
       </c>
-      <c r="G69" s="17">
-        <f t="shared" si="9"/>
+      <c r="H70" s="18">
+        <f t="shared" si="12"/>
+        <v>348.4</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="17">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H69" s="8">
+      <c r="K70" s="18"/>
+      <c r="L70" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>347</v>
-      </c>
-      <c r="B70" s="2">
-        <v>348</v>
-      </c>
-      <c r="C70" s="2">
-        <v>348</v>
-      </c>
-      <c r="D70" s="2">
-        <v>346</v>
-      </c>
-      <c r="E70" s="2">
-        <v>348</v>
-      </c>
-      <c r="F70" s="2">
-        <f t="shared" si="8"/>
-        <v>347.4</v>
-      </c>
-      <c r="G70" s="17">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H70" s="8">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>347</v>
       </c>
       <c r="B71" s="2">
         <v>347</v>
       </c>
       <c r="C71" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D71" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E71" s="2">
+        <v>346</v>
+      </c>
+      <c r="F71" s="2">
         <v>348</v>
       </c>
-      <c r="F71" s="2">
-        <f t="shared" si="8"/>
-        <v>346.8</v>
-      </c>
-      <c r="G71" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="H71" s="8">
+      <c r="G71" s="2">
+        <f t="shared" si="11"/>
+        <v>347.4</v>
+      </c>
+      <c r="H71" s="18">
+        <f t="shared" si="12"/>
+        <v>347.4</v>
+      </c>
+      <c r="I71" s="18"/>
+      <c r="J71" s="17">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K71" s="18"/>
+      <c r="L71" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>347</v>
       </c>
       <c r="B72" s="2">
         <v>347</v>
       </c>
       <c r="C72" s="2">
+        <v>347</v>
+      </c>
+      <c r="D72" s="2">
+        <v>347</v>
+      </c>
+      <c r="E72" s="2">
         <v>345</v>
       </c>
-      <c r="D72" s="2">
+      <c r="F72" s="2">
+        <v>348</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="11"/>
+        <v>346.8</v>
+      </c>
+      <c r="H72" s="18">
+        <f t="shared" si="12"/>
+        <v>346.8</v>
+      </c>
+      <c r="I72" s="18"/>
+      <c r="J72" s="17">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="K72" s="18"/>
+      <c r="L72" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2">
+        <v>347</v>
+      </c>
+      <c r="C73" s="2">
+        <v>347</v>
+      </c>
+      <c r="D73" s="2">
+        <v>345</v>
+      </c>
+      <c r="E73" s="2">
         <v>349</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F73" s="2">
         <v>347</v>
       </c>
-      <c r="F72" s="2">
-        <f t="shared" si="8"/>
+      <c r="G73" s="2">
+        <f t="shared" si="11"/>
         <v>347</v>
       </c>
-      <c r="G72" s="17">
-        <f t="shared" si="9"/>
+      <c r="H73" s="18">
+        <f t="shared" si="12"/>
+        <v>347</v>
+      </c>
+      <c r="I73" s="18"/>
+      <c r="J73" s="17">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="H72" s="8">
+      <c r="K73" s="18"/>
+      <c r="L73" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2">
         <v>349</v>
       </c>
-      <c r="B73" s="2">
+      <c r="C74" s="2">
         <v>349</v>
       </c>
-      <c r="C73" s="2">
+      <c r="D74" s="2">
         <v>349</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E74" s="2">
         <v>347</v>
       </c>
-      <c r="E73" s="2">
-        <v>350</v>
-      </c>
-      <c r="F73" s="2">
-        <f t="shared" si="8"/>
+      <c r="F74" s="2">
+        <v>350</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="11"/>
         <v>348.8</v>
       </c>
-      <c r="G73" s="17">
-        <f t="shared" si="9"/>
+      <c r="H74" s="18">
+        <f t="shared" si="12"/>
+        <v>348.8</v>
+      </c>
+      <c r="I74" s="18"/>
+      <c r="J74" s="17">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H73" s="8">
+      <c r="K74" s="18"/>
+      <c r="L74" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" s="2">
         <v>338</v>
       </c>
-      <c r="B74" s="2">
+      <c r="C75" s="2">
         <v>338</v>
       </c>
-      <c r="C74" s="2">
+      <c r="D75" s="2">
         <v>340</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E75" s="2">
         <v>336</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F75" s="2">
         <v>340</v>
       </c>
-      <c r="F74" s="2">
-        <f t="shared" si="8"/>
+      <c r="G75" s="2">
+        <f t="shared" si="11"/>
         <v>338.4</v>
       </c>
-      <c r="G74" s="17">
-        <f t="shared" si="9"/>
+      <c r="H75" s="18">
+        <f t="shared" si="12"/>
+        <v>338.4</v>
+      </c>
+      <c r="I75" s="18"/>
+      <c r="J75" s="17">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="H74" s="8">
+      <c r="K75" s="18"/>
+      <c r="L75" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>348</v>
-      </c>
-      <c r="B75" s="2">
-        <v>348</v>
-      </c>
-      <c r="C75" s="2">
-        <v>348</v>
-      </c>
-      <c r="D75" s="2">
-        <v>346</v>
-      </c>
-      <c r="E75" s="2">
-        <v>349</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="8"/>
-        <v>347.8</v>
-      </c>
-      <c r="G75" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="H75" s="8">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>348</v>
       </c>
       <c r="B76" s="2">
         <v>348</v>
@@ -11358,335 +12345,480 @@
         <v>348</v>
       </c>
       <c r="D76" s="2">
+        <v>348</v>
+      </c>
+      <c r="E76" s="2">
         <v>346</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
+        <v>349</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="11"/>
+        <v>347.8</v>
+      </c>
+      <c r="H76" s="18">
+        <f t="shared" si="12"/>
+        <v>347.8</v>
+      </c>
+      <c r="I76" s="18"/>
+      <c r="J76" s="17">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="K76" s="18"/>
+      <c r="L76" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" s="2">
         <v>348</v>
       </c>
-      <c r="F76" s="2">
-        <f t="shared" si="8"/>
+      <c r="C77" s="2">
+        <v>348</v>
+      </c>
+      <c r="D77" s="2">
+        <v>348</v>
+      </c>
+      <c r="E77" s="2">
+        <v>346</v>
+      </c>
+      <c r="F77" s="2">
+        <v>348</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="11"/>
         <v>347.6</v>
       </c>
-      <c r="G76" s="17">
-        <f t="shared" si="9"/>
+      <c r="H77" s="18">
+        <f t="shared" si="12"/>
+        <v>347.6</v>
+      </c>
+      <c r="I77" s="18"/>
+      <c r="J77" s="17">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H76" s="8">
+      <c r="K77" s="18"/>
+      <c r="L77" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" s="2">
         <v>346</v>
       </c>
-      <c r="B77" s="2">
+      <c r="C78" s="2">
         <v>346</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D78" s="2">
         <v>347</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E78" s="2">
         <v>344</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F78" s="2">
         <v>347</v>
       </c>
-      <c r="F77" s="2">
-        <f t="shared" si="8"/>
+      <c r="G78" s="2">
+        <f t="shared" si="11"/>
         <v>346</v>
       </c>
-      <c r="G77" s="17">
-        <f t="shared" si="9"/>
+      <c r="H78" s="18">
+        <f t="shared" si="12"/>
+        <v>346</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="17">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H77" s="8">
+      <c r="K78" s="18"/>
+      <c r="L78" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" s="2">
         <v>348</v>
       </c>
-      <c r="B78" s="2">
+      <c r="C79" s="2">
         <v>348</v>
       </c>
-      <c r="C78" s="2">
+      <c r="D79" s="2">
         <v>347</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E79" s="2">
         <v>346</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F79" s="2">
         <v>349</v>
       </c>
-      <c r="F78" s="2">
-        <f t="shared" si="8"/>
+      <c r="G79" s="2">
+        <f t="shared" si="11"/>
         <v>347.6</v>
       </c>
-      <c r="G78" s="17">
-        <f t="shared" si="9"/>
+      <c r="H79" s="18">
+        <f t="shared" si="12"/>
+        <v>347.6</v>
+      </c>
+      <c r="I79" s="18"/>
+      <c r="J79" s="17">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H78" s="8">
+      <c r="K79" s="18"/>
+      <c r="L79" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2">
         <v>346</v>
       </c>
-      <c r="B79" s="2">
+      <c r="C80" s="2">
         <v>347</v>
-      </c>
-      <c r="C79" s="2">
-        <v>347</v>
-      </c>
-      <c r="D79" s="2">
-        <v>345</v>
-      </c>
-      <c r="E79" s="2">
-        <v>348</v>
-      </c>
-      <c r="F79" s="2">
-        <f t="shared" si="8"/>
-        <v>346.6</v>
-      </c>
-      <c r="G79" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="H79" s="8">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>350</v>
-      </c>
-      <c r="B80" s="2">
-        <v>349</v>
-      </c>
-      <c r="C80" s="2">
-        <v>349</v>
       </c>
       <c r="D80" s="2">
         <v>347</v>
       </c>
       <c r="E80" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="8"/>
+        <v>348</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="11"/>
+        <v>346.6</v>
+      </c>
+      <c r="H80" s="18">
+        <f t="shared" si="12"/>
+        <v>346.6</v>
+      </c>
+      <c r="I80" s="18"/>
+      <c r="J80" s="17">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="K80" s="18"/>
+      <c r="L80" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" s="2">
+        <v>350</v>
+      </c>
+      <c r="C81" s="2">
         <v>349</v>
       </c>
-      <c r="G80" s="17">
-        <f t="shared" si="9"/>
+      <c r="D81" s="2">
+        <v>349</v>
+      </c>
+      <c r="E81" s="2">
+        <v>347</v>
+      </c>
+      <c r="F81" s="2">
+        <v>350</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="11"/>
+        <v>349</v>
+      </c>
+      <c r="H81" s="18">
+        <f t="shared" si="12"/>
+        <v>349</v>
+      </c>
+      <c r="I81" s="18"/>
+      <c r="J81" s="17">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H80" s="8">
+      <c r="K81" s="18"/>
+      <c r="L81" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>350</v>
-      </c>
-      <c r="B81" s="2">
-        <v>350</v>
-      </c>
-      <c r="C81" s="2">
-        <v>350</v>
-      </c>
-      <c r="D81" s="2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" s="2">
+        <v>350</v>
+      </c>
+      <c r="C82" s="2">
+        <v>350</v>
+      </c>
+      <c r="D82" s="2">
+        <v>350</v>
+      </c>
+      <c r="E82" s="2">
         <v>348</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F82" s="2">
         <v>351</v>
       </c>
-      <c r="F81" s="2">
-        <f t="shared" si="8"/>
+      <c r="G82" s="2">
+        <f t="shared" si="11"/>
         <v>349.8</v>
       </c>
-      <c r="G81" s="17">
-        <f t="shared" si="9"/>
+      <c r="H82" s="18">
+        <f t="shared" si="12"/>
+        <v>349.8</v>
+      </c>
+      <c r="I82" s="18"/>
+      <c r="J82" s="17">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H81" s="8">
+      <c r="K82" s="18"/>
+      <c r="L82" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>350</v>
-      </c>
-      <c r="B82" s="2">
-        <v>350</v>
-      </c>
-      <c r="C82" s="2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" s="2">
+        <v>350</v>
+      </c>
+      <c r="C83" s="2">
+        <v>350</v>
+      </c>
+      <c r="D83" s="2">
         <v>349</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E83" s="2">
         <v>348</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F83" s="2">
         <v>351</v>
       </c>
-      <c r="F82" s="2">
-        <f t="shared" si="8"/>
+      <c r="G83" s="2">
+        <f t="shared" si="11"/>
         <v>349.6</v>
       </c>
-      <c r="G82" s="17">
-        <f t="shared" si="9"/>
+      <c r="H83" s="18">
+        <f t="shared" si="12"/>
+        <v>349.6</v>
+      </c>
+      <c r="I83" s="18"/>
+      <c r="J83" s="17">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H82" s="8">
+      <c r="K83" s="18"/>
+      <c r="L83" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" s="2">
         <v>348</v>
       </c>
-      <c r="B83" s="2">
+      <c r="C84" s="2">
         <v>348</v>
       </c>
-      <c r="C83" s="2">
+      <c r="D84" s="2">
         <v>348</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E84" s="2">
         <v>346</v>
       </c>
-      <c r="E83" s="2">
-        <v>350</v>
-      </c>
-      <c r="F83" s="2">
-        <f t="shared" si="8"/>
+      <c r="F84" s="2">
+        <v>350</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="11"/>
         <v>348</v>
       </c>
-      <c r="G83" s="17">
-        <f t="shared" si="9"/>
+      <c r="H84" s="18">
+        <f t="shared" si="12"/>
+        <v>348</v>
+      </c>
+      <c r="I84" s="18"/>
+      <c r="J84" s="17">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="H83" s="8">
+      <c r="K84" s="18"/>
+      <c r="L84" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>350</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" s="2">
+        <v>350</v>
+      </c>
+      <c r="C85" s="2">
         <v>349</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D85" s="2">
         <v>349</v>
-      </c>
-      <c r="D84" s="2">
-        <v>347</v>
-      </c>
-      <c r="E84" s="2">
-        <v>350</v>
-      </c>
-      <c r="F84" s="2">
-        <f t="shared" si="8"/>
-        <v>349</v>
-      </c>
-      <c r="G84" s="17">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="H84" s="8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>345</v>
-      </c>
-      <c r="B85" s="2">
-        <v>347</v>
-      </c>
-      <c r="C85" s="2">
-        <v>346</v>
-      </c>
-      <c r="D85" s="2">
-        <v>348</v>
       </c>
       <c r="E85" s="2">
         <v>347</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="11"/>
+        <v>349</v>
+      </c>
+      <c r="H85" s="18">
+        <f t="shared" si="12"/>
+        <v>349</v>
+      </c>
+      <c r="I85" s="18"/>
+      <c r="J85" s="17">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="K85" s="18"/>
+      <c r="L85" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2">
+        <v>345</v>
+      </c>
+      <c r="C86" s="2">
+        <v>347</v>
+      </c>
+      <c r="D86" s="2">
+        <v>346</v>
+      </c>
+      <c r="E86" s="2">
+        <v>348</v>
+      </c>
+      <c r="F86" s="2">
+        <v>347</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="11"/>
         <v>346.6</v>
       </c>
-      <c r="G85" s="17">
-        <f t="shared" si="9"/>
+      <c r="H86" s="18">
+        <f t="shared" si="12"/>
+        <v>346.6</v>
+      </c>
+      <c r="I86" s="18"/>
+      <c r="J86" s="17">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="H85" s="8">
+      <c r="K86" s="18"/>
+      <c r="L86" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" s="2">
         <v>351</v>
       </c>
-      <c r="B86" s="2">
+      <c r="C87" s="2">
         <v>351</v>
       </c>
-      <c r="C86" s="2">
-        <v>350</v>
-      </c>
-      <c r="D86" s="2">
+      <c r="D87" s="2">
+        <v>350</v>
+      </c>
+      <c r="E87" s="2">
         <v>348</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F87" s="2">
         <v>352</v>
       </c>
-      <c r="F86" s="2">
-        <f t="shared" si="8"/>
+      <c r="G87" s="2">
+        <f t="shared" si="11"/>
         <v>350.4</v>
       </c>
-      <c r="G86" s="17">
-        <f t="shared" si="9"/>
+      <c r="H87" s="18">
+        <f t="shared" si="12"/>
+        <v>350.4</v>
+      </c>
+      <c r="I87" s="18"/>
+      <c r="J87" s="17">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="H86" s="8">
+      <c r="K87" s="18"/>
+      <c r="L87" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" s="2">
         <v>349</v>
       </c>
-      <c r="B87" s="2">
+      <c r="C88" s="2">
         <v>348</v>
       </c>
-      <c r="C87" s="2">
+      <c r="D88" s="2">
         <v>349</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E88" s="2">
         <v>346</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F88" s="2">
         <v>351</v>
       </c>
-      <c r="F87" s="2">
-        <f t="shared" si="8"/>
+      <c r="G88" s="2">
+        <f t="shared" si="11"/>
         <v>348.6</v>
       </c>
-      <c r="G87" s="17">
-        <f t="shared" si="9"/>
+      <c r="H88" s="18">
+        <f t="shared" si="12"/>
+        <v>348.6</v>
+      </c>
+      <c r="I88" s="18"/>
+      <c r="J88" s="17">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="H87" s="8">
+      <c r="K88" s="18"/>
+      <c r="L88" s="8">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDE9F00-5A25-4AA2-81B2-E16ABF0FDDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB782C9-3C53-4EB5-8664-A8F1120D8D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題a-d" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
   <si>
     <r>
       <t xml:space="preserve">                 </t>
@@ -495,6 +495,10 @@
     <t>new R1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>new R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -682,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,6 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -781,6 +786,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>x_bar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>control</a:t>
             </a:r>
             <a:r>
@@ -831,7 +844,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$Q$2</c:f>
+              <c:f>第1題g!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -854,7 +867,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$Q$3:$Q$42</c:f>
+              <c:f>第1題g!$R$3:$R$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -993,173 +1006,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$R$2</c:f>
+              <c:f>第1題g!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>UCL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>第1題g!$R$3:$R$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>362.54768359643975</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C093-411E-A593-4321BD4968A0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>第1題g!$S$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LCL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1183,124 +1034,286 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>337.45231640356025</c:v>
+                  <c:v>361.42043979813059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C093-411E-A593-4321BD4968A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>第1題g!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>第1題g!$T$3:$T$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>338.57956020186941</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>338.57956020186941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1330,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$T$2</c:f>
+              <c:f>第1題g!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1352,7 +1365,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$T$3:$T$42</c:f>
+              <c:f>第1題g!$U$3:$U$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1765,7 +1778,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$V$2</c:f>
+              <c:f>第1題g!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1788,7 +1801,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$U$5:$U$44</c:f>
+              <c:f>第1題g!$V$5:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -1911,123 +1924,123 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$V$5:$V$44</c:f>
+              <c:f>第1題g!$W$5:$W$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1555555555555554</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2044,7 +2057,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$W$2</c:f>
+              <c:f>第1題g!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2067,7 +2080,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$U$5:$U$44</c:f>
+              <c:f>第1題g!$V$5:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2190,123 +2203,123 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$W$5:$W$44</c:f>
+              <c:f>第1題g!$X$5:$X$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.147593084983809</c:v>
+                  <c:v>5.5354627641855494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,7 +2336,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$X$2</c:f>
+              <c:f>第1題g!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2346,7 +2359,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$U$5:$U$44</c:f>
+              <c:f>第1題g!$V$5:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2469,7 +2482,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$X$5:$X$44</c:f>
+              <c:f>第1題g!$Y$5:$Y$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2602,7 +2615,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>第1題g!$Y$2</c:f>
+              <c:f>第1題g!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2637,7 +2650,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>第1題g!$U$5:$U$44</c:f>
+              <c:f>第1題g!$V$5:$V$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2760,7 +2773,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>第1題g!$Y$5:$Y$44</c:f>
+              <c:f>第1題g!$Z$5:$Z$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4191,16 +4204,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>441325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4227,16 +4240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4581,18 +4594,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
@@ -4600,11 +4613,11 @@
       <c r="K1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -6415,16 +6428,16 @@
       <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -7674,10 +7687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A7079-D14C-4D77-87E0-ECB4CEC88EC2}">
-  <dimension ref="A1:Y88"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7685,34 +7698,35 @@
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="11" max="12" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="2"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
       <c r="J1" s="17"/>
       <c r="K1" s="18"/>
-      <c r="N1" t="s">
+      <c r="L1" s="19"/>
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7744,42 +7758,45 @@
         <v>73</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f>AVERAGE(G3:G47)</f>
         <v>348.50666666666672</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>47</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>53</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7803,11 +7820,11 @@
         <v>352.4</v>
       </c>
       <c r="H3" s="18">
-        <f>IF(OR(G3&gt;=$O$6,G3&lt;=$O$7),0,G3)</f>
+        <f>IF(OR(G3&gt;=$P$6,G3&lt;=$P$7),0,G3)</f>
         <v>352.4</v>
       </c>
       <c r="I3" s="18">
-        <f>IF(OR(G3&gt;=$O$22,G3&lt;=$O$23),0,G3)</f>
+        <f>IF(OR(G3&gt;=$P$22,G3&lt;=$P$23),0,G3)</f>
         <v>352.4</v>
       </c>
       <c r="J3" s="17">
@@ -7815,58 +7832,62 @@
         <v>3</v>
       </c>
       <c r="K3" s="18">
-        <f>IF(OR(J3&gt;=$O$13,J3&lt;=$O$14),0,J3)</f>
+        <f>IF(OR(J3&gt;=$P$13,J3&lt;=$P$14),0,J3)</f>
         <v>3</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="19">
+        <f>IF(OR(K3&gt;=$P$29,K3&lt;=$P$30),0,K3)</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>10</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <f>_xlfn.VAR.S(G3:G47)</f>
         <v>17.493818181818209</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <f>$O$5</f>
-        <v>350</v>
-      </c>
       <c r="R3">
-        <f>$O$6</f>
-        <v>362.54768359643975</v>
+        <f>$P$5</f>
+        <v>350</v>
       </c>
       <c r="S3">
-        <f>$O$7</f>
-        <v>337.45231640356025</v>
+        <f>$P$22</f>
+        <v>361.42043979813059</v>
       </c>
       <c r="T3">
+        <f>$P$23</f>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U3">
         <v>349.2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="V3">
-        <f>$O$12</f>
-        <v>3.1555555555555554</v>
-      </c>
       <c r="W3">
-        <f>$O$13</f>
-        <v>7.147593084983809</v>
+        <f>$P$28</f>
+        <v>3</v>
       </c>
       <c r="X3">
+        <f>$P$29</f>
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y3">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <f>J49</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7890,70 +7911,74 @@
         <v>353.4</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H68" si="1">IF(OR(G4&gt;=$O$6,G4&lt;=$O$7),0,G4)</f>
+        <f>IF(OR(G4&gt;=$P$6,G4&lt;=$P$7),0,G4)</f>
         <v>353.4</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I47" si="2">IF(OR(G4&gt;=$O$22,G4&lt;=$O$23),0,G4)</f>
+        <f t="shared" ref="I4:I47" si="1">IF(OR(G4&gt;=$P$22,G4&lt;=$P$23),0,G4)</f>
         <v>353.4</v>
       </c>
       <c r="J4" s="17">
-        <f t="shared" ref="J4:J68" si="3">MAX(B4:F4)-MIN(B4:F4)</f>
+        <f>MAX(B4:F4)-MIN(B4:F4)</f>
         <v>2</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K47" si="4">IF(OR(J4&gt;=$O$13,J4&lt;=$O$14),0,J4)</f>
+        <f t="shared" ref="K4:K47" si="2">IF(OR(J4&gt;=$P$13,J4&lt;=$P$14),0,J4)</f>
         <v>2</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="19">
+        <f t="shared" ref="L4:L47" si="3">IF(OR(K4&gt;=$P$29,K4&lt;=$P$30),0,K4)</f>
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
         <v>11</v>
       </c>
-      <c r="O4">
-        <f>O3^0.5</f>
+      <c r="P4">
+        <f>P3^0.5</f>
         <v>4.1825611988132589</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q42" si="5">$O$5</f>
-        <v>350</v>
-      </c>
       <c r="R4">
-        <f t="shared" ref="R4:R42" si="6">$O$6</f>
-        <v>362.54768359643975</v>
+        <f t="shared" ref="R4:R42" si="4">$P$5</f>
+        <v>350</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S42" si="7">$O$7</f>
-        <v>337.45231640356025</v>
+        <f t="shared" ref="S4:S42" si="5">$P$22</f>
+        <v>361.42043979813059</v>
       </c>
       <c r="T4">
+        <f t="shared" ref="T4:T42" si="6">$P$23</f>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U4">
         <v>349.6</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2</v>
       </c>
-      <c r="V4">
-        <f t="shared" ref="V4:V42" si="8">$O$12</f>
-        <v>3.1555555555555554</v>
-      </c>
       <c r="W4">
-        <f t="shared" ref="W4:W42" si="9">$O$13</f>
-        <v>7.147593084983809</v>
+        <f t="shared" ref="W4:W42" si="7">$P$28</f>
+        <v>3</v>
       </c>
       <c r="X4">
+        <f t="shared" ref="X4:X42" si="8">$P$29</f>
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ref="Y4:Y42" si="10">J50</f>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z42" si="9">J50</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7977,69 +8002,73 @@
         <v>351.6</v>
       </c>
       <c r="H5" s="18">
+        <f>IF(OR(G5&gt;=$P$6,G5&lt;=$P$7),0,G5)</f>
+        <v>351.6</v>
+      </c>
+      <c r="I5" s="18">
         <f t="shared" si="1"/>
         <v>351.6</v>
       </c>
-      <c r="I5" s="18">
+      <c r="J5" s="17">
+        <f>MAX(B5:F5)-MIN(B5:F5)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
-        <v>351.6</v>
-      </c>
-      <c r="J5" s="17">
+        <v>4</v>
+      </c>
+      <c r="L5" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K5" s="18">
+      <c r="M5" s="8">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5">
+        <v>350</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L5" s="8">
+        <v>350</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U5">
+        <v>343.2</v>
+      </c>
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5">
-        <v>350</v>
-      </c>
-      <c r="P5">
+      <c r="W5">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="Q5">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T5">
-        <v>343.2</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
+      <c r="X5">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X5">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y5">
-        <f t="shared" si="10"/>
+      <c r="Z5">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8063,70 +8092,74 @@
         <v>355.2</v>
       </c>
       <c r="H6" s="18">
+        <f>IF(OR(G6&gt;=$P$6,G6&lt;=$P$7),0,G6)</f>
+        <v>355.2</v>
+      </c>
+      <c r="I6" s="18">
         <f t="shared" si="1"/>
         <v>355.2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="J6" s="17">
+        <f>MAX(B6:F6)-MIN(B6:F6)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="18">
         <f t="shared" si="2"/>
-        <v>355.2</v>
-      </c>
-      <c r="J6" s="17">
+        <v>2</v>
+      </c>
+      <c r="L6" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K6" s="18">
+      <c r="M6" s="8">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6">
+        <f>P5+3*P4</f>
+        <v>362.54768359643975</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L6" s="8">
+        <v>350</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U6">
+        <v>343.6</v>
+      </c>
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6">
-        <f>O5+3*O4</f>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S6">
+      <c r="W6">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T6">
-        <v>343.6</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X6">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y6">
-        <f t="shared" si="10"/>
+      <c r="Z6">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8150,70 +8183,74 @@
         <v>351.4</v>
       </c>
       <c r="H7" s="18">
+        <f>IF(OR(G7&gt;=$P$6,G7&lt;=$P$7),0,G7)</f>
+        <v>351.4</v>
+      </c>
+      <c r="I7" s="18">
         <f t="shared" si="1"/>
         <v>351.4</v>
       </c>
-      <c r="I7" s="18">
+      <c r="J7" s="17">
+        <f>MAX(B7:F7)-MIN(B7:F7)</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="18">
         <f t="shared" si="2"/>
-        <v>351.4</v>
-      </c>
-      <c r="J7" s="17">
+        <v>3</v>
+      </c>
+      <c r="L7" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K7" s="18">
+      <c r="M7" s="8">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7">
+        <f>P5-3*P4</f>
+        <v>337.45231640356025</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U7">
+        <v>349.2</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L7" s="8">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7">
-        <f>O5-3*O4</f>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T7">
-        <v>349.2</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
+      <c r="X7">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X7">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y7">
-        <f t="shared" si="10"/>
+      <c r="Z7">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8237,63 +8274,67 @@
         <v>350.4</v>
       </c>
       <c r="H8" s="18">
+        <f>IF(OR(G8&gt;=$P$6,G8&lt;=$P$7),0,G8)</f>
+        <v>350.4</v>
+      </c>
+      <c r="I8" s="18">
         <f t="shared" si="1"/>
         <v>350.4</v>
       </c>
-      <c r="I8" s="18">
+      <c r="J8" s="17">
+        <f>MAX(B8:F8)-MIN(B8:F8)</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="18">
         <f t="shared" si="2"/>
-        <v>350.4</v>
-      </c>
-      <c r="J8" s="17">
+        <v>4</v>
+      </c>
+      <c r="L8" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K8" s="18">
+      <c r="M8" s="8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L8" s="8">
+        <v>350</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U8">
+        <v>349.4</v>
+      </c>
+      <c r="V8">
         <v>6</v>
       </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S8">
+      <c r="W8">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T8">
-        <v>349.4</v>
-      </c>
-      <c r="U8">
-        <v>6</v>
-      </c>
-      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X8">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y8">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y8">
-        <f t="shared" si="10"/>
+      <c r="Z8">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8317,70 +8358,74 @@
         <v>353.6</v>
       </c>
       <c r="H9" s="18">
+        <f>IF(OR(G9&gt;=$P$6,G9&lt;=$P$7),0,G9)</f>
+        <v>353.6</v>
+      </c>
+      <c r="I9" s="18">
         <f t="shared" si="1"/>
         <v>353.6</v>
       </c>
-      <c r="I9" s="18">
+      <c r="J9" s="17">
+        <f>MAX(B9:F9)-MIN(B9:F9)</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="18">
         <f t="shared" si="2"/>
-        <v>353.6</v>
-      </c>
-      <c r="J9" s="17">
+        <v>4</v>
+      </c>
+      <c r="L9" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K9" s="18">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>7</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>66</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f>AVERAGE(J3:J47)</f>
         <v>3.1555555555555554</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>7</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R9">
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S9">
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U9">
+        <v>354.6</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T9">
-        <v>354.6</v>
-      </c>
-      <c r="U9">
-        <v>7</v>
-      </c>
-      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X9">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y9">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y9">
-        <f t="shared" si="10"/>
+      <c r="Z9">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8404,70 +8449,74 @@
         <v>351.8</v>
       </c>
       <c r="H10" s="18">
+        <f>IF(OR(G10&gt;=$P$6,G10&lt;=$P$7),0,G10)</f>
+        <v>351.8</v>
+      </c>
+      <c r="I10" s="18">
         <f t="shared" si="1"/>
         <v>351.8</v>
       </c>
-      <c r="I10" s="18">
+      <c r="J10" s="17">
+        <f>MAX(B10:F10)-MIN(B10:F10)</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="18">
         <f t="shared" si="2"/>
-        <v>351.8</v>
-      </c>
-      <c r="J10" s="17">
+        <v>3</v>
+      </c>
+      <c r="L10" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K10" s="18">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>8</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>10</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f>_xlfn.VAR.S(J3:J47)</f>
         <v>1.7707070707070705</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>8</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R10">
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S10">
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U10">
+        <v>349</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T10">
-        <v>349</v>
-      </c>
-      <c r="U10">
-        <v>8</v>
-      </c>
-      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X10">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y10">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y10">
-        <f t="shared" si="10"/>
+      <c r="Z10">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8491,70 +8540,74 @@
         <v>353.4</v>
       </c>
       <c r="H11" s="18">
+        <f>IF(OR(G11&gt;=$P$6,G11&lt;=$P$7),0,G11)</f>
+        <v>353.4</v>
+      </c>
+      <c r="I11" s="18">
         <f t="shared" si="1"/>
         <v>353.4</v>
       </c>
-      <c r="I11" s="18">
+      <c r="J11" s="17">
+        <f>MAX(B11:F11)-MIN(B11:F11)</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="18">
         <f t="shared" si="2"/>
-        <v>353.4</v>
-      </c>
-      <c r="J11" s="17">
+        <v>2</v>
+      </c>
+      <c r="L11" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K11" s="18">
+      <c r="M11" s="8">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <f>P10^0.5</f>
+        <v>1.3306791764760846</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L11" s="8">
+        <v>350</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U11">
+        <v>350.4</v>
+      </c>
+      <c r="V11">
         <v>9</v>
       </c>
-      <c r="N11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11">
-        <f>O10^0.5</f>
-        <v>1.3306791764760846</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S11">
+      <c r="W11">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T11">
-        <v>350.4</v>
-      </c>
-      <c r="U11">
-        <v>9</v>
-      </c>
-      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X11">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y11">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="10"/>
+      <c r="Z11">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8578,70 +8631,74 @@
         <v>352.6</v>
       </c>
       <c r="H12" s="18">
+        <f>IF(OR(G12&gt;=$P$6,G12&lt;=$P$7),0,G12)</f>
+        <v>352.6</v>
+      </c>
+      <c r="I12" s="18">
         <f t="shared" si="1"/>
         <v>352.6</v>
       </c>
-      <c r="I12" s="18">
+      <c r="J12" s="17">
+        <f>MAX(B12:F12)-MIN(B12:F12)</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="18">
         <f t="shared" si="2"/>
-        <v>352.6</v>
-      </c>
-      <c r="J12" s="17">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K12" s="18">
+      <c r="M12" s="8">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12">
+        <f>P9</f>
+        <v>3.1555555555555554</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U12">
+        <v>349.8</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L12" s="8">
-        <v>10</v>
-      </c>
-      <c r="N12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12">
-        <f>O9</f>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T12">
-        <v>349.8</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
+      <c r="X12">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X12">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y12">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y12">
-        <f t="shared" si="10"/>
+      <c r="Z12">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8665,70 +8722,74 @@
         <v>352.4</v>
       </c>
       <c r="H13" s="18">
+        <f>IF(OR(G13&gt;=$P$6,G13&lt;=$P$7),0,G13)</f>
+        <v>352.4</v>
+      </c>
+      <c r="I13" s="18">
         <f t="shared" si="1"/>
         <v>352.4</v>
       </c>
-      <c r="I13" s="18">
+      <c r="J13" s="17">
+        <f>MAX(B13:F13)-MIN(B13:F13)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="18">
         <f t="shared" si="2"/>
-        <v>352.4</v>
-      </c>
-      <c r="J13" s="17">
+        <v>2</v>
+      </c>
+      <c r="L13" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K13" s="18">
+      <c r="M13" s="8">
+        <v>11</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13">
+        <f>P12+3*P11</f>
+        <v>7.147593084983809</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L13" s="8">
+        <v>350</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U13">
+        <v>349.4</v>
+      </c>
+      <c r="V13">
         <v>11</v>
       </c>
-      <c r="N13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13">
-        <f>O12+3*O11</f>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S13">
+      <c r="W13">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T13">
-        <v>349.4</v>
-      </c>
-      <c r="U13">
-        <v>11</v>
-      </c>
-      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X13">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y13">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y13">
-        <f t="shared" si="10"/>
+      <c r="Z13">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8752,70 +8813,74 @@
         <v>351.8</v>
       </c>
       <c r="H14" s="18">
+        <f>IF(OR(G14&gt;=$P$6,G14&lt;=$P$7),0,G14)</f>
+        <v>351.8</v>
+      </c>
+      <c r="I14" s="18">
         <f t="shared" si="1"/>
         <v>351.8</v>
       </c>
-      <c r="I14" s="18">
+      <c r="J14" s="17">
+        <f>MAX(B14:F14)-MIN(B14:F14)</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="18">
         <f t="shared" si="2"/>
-        <v>351.8</v>
-      </c>
-      <c r="J14" s="17">
+        <v>2</v>
+      </c>
+      <c r="L14" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K14" s="18">
+      <c r="M14" s="8">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14">
+        <f>P12-3*P11</f>
+        <v>-0.83648197387269851</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L14" s="8">
+        <v>350</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U14">
+        <v>349.2</v>
+      </c>
+      <c r="V14">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14">
-        <f>O12-3*O11</f>
-        <v>-0.83648197387269851</v>
-      </c>
-      <c r="P14">
-        <v>12</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S14">
+      <c r="W14">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T14">
-        <v>349.2</v>
-      </c>
-      <c r="U14">
-        <v>12</v>
-      </c>
-      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X14">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y14">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y14">
-        <f t="shared" si="10"/>
+      <c r="Z14">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8839,63 +8904,67 @@
         <v>350.8</v>
       </c>
       <c r="H15" s="18">
+        <f>IF(OR(G15&gt;=$P$6,G15&lt;=$P$7),0,G15)</f>
+        <v>350.8</v>
+      </c>
+      <c r="I15" s="18">
         <f t="shared" si="1"/>
         <v>350.8</v>
       </c>
-      <c r="I15" s="18">
+      <c r="J15" s="17">
+        <f>MAX(B15:F15)-MIN(B15:F15)</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="18">
         <f t="shared" si="2"/>
-        <v>350.8</v>
-      </c>
-      <c r="J15" s="17">
+        <v>4</v>
+      </c>
+      <c r="L15" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K15" s="18">
+      <c r="M15" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L15" s="8">
+        <v>350</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U15">
+        <v>347</v>
+      </c>
+      <c r="V15">
         <v>13</v>
       </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S15">
+      <c r="W15">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T15">
-        <v>347</v>
-      </c>
-      <c r="U15">
-        <v>13</v>
-      </c>
-      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X15">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y15">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="10"/>
+      <c r="Z15">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8919,66 +8988,70 @@
         <v>351.8</v>
       </c>
       <c r="H16" s="18">
+        <f>IF(OR(G16&gt;=$P$6,G16&lt;=$P$7),0,G16)</f>
+        <v>351.8</v>
+      </c>
+      <c r="I16" s="18">
         <f t="shared" si="1"/>
         <v>351.8</v>
       </c>
-      <c r="I16" s="18">
+      <c r="J16" s="17">
+        <f>MAX(B16:F16)-MIN(B16:F16)</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="18">
         <f t="shared" si="2"/>
-        <v>351.8</v>
-      </c>
-      <c r="J16" s="17">
+        <v>3</v>
+      </c>
+      <c r="L16" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K16" s="18">
+      <c r="M16" s="8">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U16">
+        <v>347.8</v>
+      </c>
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L16" s="8">
-        <v>14</v>
-      </c>
-      <c r="N16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16">
-        <v>14</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T16">
-        <v>347.8</v>
-      </c>
-      <c r="U16">
-        <v>14</v>
-      </c>
-      <c r="V16">
+      <c r="X16">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X16">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y16">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y16">
-        <f t="shared" si="10"/>
+      <c r="Z16">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9002,70 +9075,74 @@
         <v>352.6</v>
       </c>
       <c r="H17" s="18">
+        <f>IF(OR(G17&gt;=$P$6,G17&lt;=$P$7),0,G17)</f>
+        <v>352.6</v>
+      </c>
+      <c r="I17" s="18">
         <f t="shared" si="1"/>
         <v>352.6</v>
       </c>
-      <c r="I17" s="18">
+      <c r="J17" s="17">
+        <f>MAX(B17:F17)-MIN(B17:F17)</f>
+        <v>3</v>
+      </c>
+      <c r="K17" s="18">
         <f t="shared" si="2"/>
-        <v>352.6</v>
-      </c>
-      <c r="J17" s="17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K17" s="18">
+      <c r="M17" s="8">
+        <v>15</v>
+      </c>
+      <c r="O17" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <f>45-COUNTIF(H3:H47,"=0")-COUNTIF(K3:K47,"=0")</f>
+        <v>43</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U17">
+        <v>350.4</v>
+      </c>
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L17" s="8">
-        <v>15</v>
-      </c>
-      <c r="N17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17">
-        <f>COUNTIF(H3:H47,"&lt;&gt;0")</f>
-        <v>44</v>
-      </c>
-      <c r="P17">
-        <v>15</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T17">
-        <v>350.4</v>
-      </c>
-      <c r="U17">
-        <v>15</v>
-      </c>
-      <c r="V17">
+      <c r="X17">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X17">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y17">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y17">
-        <f t="shared" si="10"/>
+      <c r="Z17">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9089,70 +9166,74 @@
         <v>351</v>
       </c>
       <c r="H18" s="18">
+        <f>IF(OR(G18&gt;=$P$6,G18&lt;=$P$7),0,G18)</f>
+        <v>351</v>
+      </c>
+      <c r="I18" s="18">
         <f t="shared" si="1"/>
         <v>351</v>
       </c>
-      <c r="I18" s="18">
+      <c r="J18" s="17">
+        <f>MAX(B18:F18)-MIN(B18:F18)</f>
+        <v>2</v>
+      </c>
+      <c r="K18" s="18">
         <f t="shared" si="2"/>
-        <v>351</v>
-      </c>
-      <c r="J18" s="17">
+        <v>2</v>
+      </c>
+      <c r="L18" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K18" s="18">
+      <c r="M18" s="8">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18">
+        <f>SUM(H3:H37,H39:H47)/P17</f>
+        <v>348.62325581395351</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="8">
+        <v>350</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U18">
+        <v>349.8</v>
+      </c>
+      <c r="V18">
         <v>16</v>
       </c>
-      <c r="N18" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18">
-        <f>SUM(H3:H47)/O17</f>
-        <v>348.75909090909096</v>
-      </c>
-      <c r="P18">
-        <v>16</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S18">
+      <c r="W18">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T18">
-        <v>349.8</v>
-      </c>
-      <c r="U18">
-        <v>16</v>
-      </c>
-      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="X18">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X18">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y18">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y18">
-        <f t="shared" si="10"/>
+      <c r="Z18">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9176,70 +9257,74 @@
         <v>352.8</v>
       </c>
       <c r="H19" s="18">
+        <f>IF(OR(G19&gt;=$P$6,G19&lt;=$P$7),0,G19)</f>
+        <v>352.8</v>
+      </c>
+      <c r="I19" s="18">
         <f t="shared" si="1"/>
         <v>352.8</v>
       </c>
-      <c r="I19" s="18">
+      <c r="J19" s="17">
+        <f>MAX(B19:F19)-MIN(B19:F19)</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="18">
         <f t="shared" si="2"/>
-        <v>352.8</v>
-      </c>
-      <c r="J19" s="17">
+        <v>2</v>
+      </c>
+      <c r="L19" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K19" s="18">
+      <c r="M19" s="8">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <f>_xlfn.VAR.S(H3:H28,H30:H37,H39:H47)</f>
+        <v>14.491827242524934</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L19" s="8">
+        <v>350</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U19">
+        <v>349.8</v>
+      </c>
+      <c r="V19">
         <v>17</v>
       </c>
-      <c r="N19" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19">
-        <f>_xlfn.VAR.S(H3:H28,H30:H47)</f>
-        <v>14.966659619450336</v>
-      </c>
-      <c r="P19">
-        <v>17</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S19">
+      <c r="W19">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T19">
-        <v>349.8</v>
-      </c>
-      <c r="U19">
-        <v>17</v>
-      </c>
-      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="X19">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X19">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y19">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y19">
-        <f t="shared" si="10"/>
+      <c r="Z19">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9263,70 +9348,74 @@
         <v>339.4</v>
       </c>
       <c r="H20" s="18">
+        <f>IF(OR(G20&gt;=$P$6,G20&lt;=$P$7),0,G20)</f>
+        <v>339.4</v>
+      </c>
+      <c r="I20" s="18">
         <f t="shared" si="1"/>
         <v>339.4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="J20" s="17">
+        <f>MAX(B20:F20)-MIN(B20:F20)</f>
+        <v>4</v>
+      </c>
+      <c r="K20" s="18">
         <f t="shared" si="2"/>
-        <v>339.4</v>
-      </c>
-      <c r="J20" s="17">
+        <v>4</v>
+      </c>
+      <c r="L20" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K20" s="18">
+      <c r="M20" s="8">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <f>P19^0.5</f>
+        <v>3.8068132660435201</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L20" s="8">
+        <v>350</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U20">
+        <v>346.6</v>
+      </c>
+      <c r="V20">
         <v>18</v>
       </c>
-      <c r="N20" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20">
-        <f>O19^0.5</f>
-        <v>3.8686767271833835</v>
-      </c>
-      <c r="P20">
-        <v>18</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S20">
+      <c r="W20">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T20">
-        <v>346.6</v>
-      </c>
-      <c r="U20">
-        <v>18</v>
-      </c>
-      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="X20">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X20">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y20">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y20">
-        <f t="shared" si="10"/>
+      <c r="Z20">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9350,70 +9439,74 @@
         <v>345.4</v>
       </c>
       <c r="H21" s="18">
+        <f>IF(OR(G21&gt;=$P$6,G21&lt;=$P$7),0,G21)</f>
+        <v>345.4</v>
+      </c>
+      <c r="I21" s="18">
         <f t="shared" si="1"/>
         <v>345.4</v>
       </c>
-      <c r="I21" s="18">
+      <c r="J21" s="17">
+        <f>MAX(B21:F21)-MIN(B21:F21)</f>
+        <v>3</v>
+      </c>
+      <c r="K21" s="18">
         <f t="shared" si="2"/>
-        <v>345.4</v>
-      </c>
-      <c r="J21" s="17">
+        <v>3</v>
+      </c>
+      <c r="L21" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K21" s="18">
+      <c r="M21" s="8">
+        <v>19</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21">
+        <f>350</f>
+        <v>350</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U21">
+        <v>348.6</v>
+      </c>
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L21" s="8">
-        <v>19</v>
-      </c>
-      <c r="N21" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21">
-        <f>350</f>
-        <v>350</v>
-      </c>
-      <c r="P21">
-        <v>19</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T21">
-        <v>348.6</v>
-      </c>
-      <c r="U21">
-        <v>19</v>
-      </c>
-      <c r="V21">
+      <c r="X21">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X21">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y21">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y21">
-        <f t="shared" si="10"/>
+      <c r="Z21">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9437,70 +9530,74 @@
         <v>343.6</v>
       </c>
       <c r="H22" s="18">
+        <f>IF(OR(G22&gt;=$P$6,G22&lt;=$P$7),0,G22)</f>
+        <v>343.6</v>
+      </c>
+      <c r="I22" s="18">
         <f t="shared" si="1"/>
         <v>343.6</v>
       </c>
-      <c r="I22" s="18">
+      <c r="J22" s="17">
+        <f>MAX(B22:F22)-MIN(B22:F22)</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="18">
         <f t="shared" si="2"/>
-        <v>343.6</v>
-      </c>
-      <c r="J22" s="17">
+        <v>2</v>
+      </c>
+      <c r="L22" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K22" s="18">
+      <c r="M22" s="8">
+        <v>20</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22">
+        <f>P21+3*P20</f>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="8">
+        <v>350</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U22">
+        <v>350.6</v>
+      </c>
+      <c r="V22">
         <v>20</v>
       </c>
-      <c r="N22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O22">
-        <f>O21+3*O20</f>
-        <v>361.60603018155012</v>
-      </c>
-      <c r="P22">
-        <v>20</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S22">
+      <c r="W22">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T22">
-        <v>350.6</v>
-      </c>
-      <c r="U22">
-        <v>20</v>
-      </c>
-      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="X22">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X22">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y22">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y22">
-        <f t="shared" si="10"/>
+      <c r="Z22">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9524,70 +9621,74 @@
         <v>345</v>
       </c>
       <c r="H23" s="18">
+        <f>IF(OR(G23&gt;=$P$6,G23&lt;=$P$7),0,G23)</f>
+        <v>345</v>
+      </c>
+      <c r="I23" s="18">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="I23" s="18">
+      <c r="J23" s="17">
+        <f>MAX(B23:F23)-MIN(B23:F23)</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="18">
         <f t="shared" si="2"/>
-        <v>345</v>
-      </c>
-      <c r="J23" s="17">
+        <v>2</v>
+      </c>
+      <c r="L23" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K23" s="18">
+      <c r="M23" s="8">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23">
+        <f>P21-3*P20</f>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L23" s="8">
+        <v>350</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U23">
+        <v>347.8</v>
+      </c>
+      <c r="V23">
         <v>21</v>
       </c>
-      <c r="N23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23">
-        <f>O21-3*O20</f>
-        <v>338.39396981844988</v>
-      </c>
-      <c r="P23">
-        <v>21</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S23">
+      <c r="W23">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T23">
-        <v>347.8</v>
-      </c>
-      <c r="U23">
-        <v>21</v>
-      </c>
-      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="X23">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X23">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y23">
-        <f t="shared" si="10"/>
+      <c r="Z23">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9611,63 +9712,67 @@
         <v>346</v>
       </c>
       <c r="H24" s="18">
+        <f>IF(OR(G24&gt;=$P$6,G24&lt;=$P$7),0,G24)</f>
+        <v>346</v>
+      </c>
+      <c r="I24" s="18">
         <f t="shared" si="1"/>
         <v>346</v>
       </c>
-      <c r="I24" s="18">
+      <c r="J24" s="17">
+        <f>MAX(B24:F24)-MIN(B24:F24)</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="18">
         <f t="shared" si="2"/>
-        <v>346</v>
-      </c>
-      <c r="J24" s="17">
+        <v>2</v>
+      </c>
+      <c r="L24" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K24" s="18">
+      <c r="M24" s="8">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L24" s="8">
+        <v>350</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U24">
+        <v>348.4</v>
+      </c>
+      <c r="V24">
         <v>22</v>
       </c>
-      <c r="P24">
-        <v>22</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S24">
+      <c r="W24">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T24">
-        <v>348.4</v>
-      </c>
-      <c r="U24">
-        <v>22</v>
-      </c>
-      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="X24">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X24">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y24">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y24">
-        <f t="shared" si="10"/>
+      <c r="Z24">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9691,63 +9796,74 @@
         <v>348</v>
       </c>
       <c r="H25" s="18">
+        <f>IF(OR(G25&gt;=$P$6,G25&lt;=$P$7),0,G25)</f>
+        <v>348</v>
+      </c>
+      <c r="I25" s="18">
         <f t="shared" si="1"/>
         <v>348</v>
       </c>
-      <c r="I25" s="18">
+      <c r="J25" s="17">
+        <f>MAX(B25:F25)-MIN(B25:F25)</f>
+        <v>4</v>
+      </c>
+      <c r="K25" s="18">
         <f t="shared" si="2"/>
-        <v>348</v>
-      </c>
-      <c r="J25" s="17">
+        <v>4</v>
+      </c>
+      <c r="L25" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K25" s="18">
+      <c r="M25" s="8">
+        <v>23</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGE(K3:K28,K30:K37,K39:K47)</f>
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L25" s="8">
+        <v>350</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U25">
+        <v>347.4</v>
+      </c>
+      <c r="V25">
         <v>23</v>
       </c>
-      <c r="P25">
-        <v>23</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S25">
+      <c r="W25">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T25">
-        <v>347.4</v>
-      </c>
-      <c r="U25">
-        <v>23</v>
-      </c>
-      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="X25">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X25">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y25">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y25">
-        <f t="shared" si="10"/>
+      <c r="Z25">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9771,63 +9887,74 @@
         <v>348.2</v>
       </c>
       <c r="H26" s="18">
+        <f>IF(OR(G26&gt;=$P$6,G26&lt;=$P$7),0,G26)</f>
+        <v>348.2</v>
+      </c>
+      <c r="I26" s="18">
         <f t="shared" si="1"/>
         <v>348.2</v>
       </c>
-      <c r="I26" s="18">
+      <c r="J26" s="17">
+        <f>MAX(B26:F26)-MIN(B26:F26)</f>
+        <v>4</v>
+      </c>
+      <c r="K26" s="18">
         <f t="shared" si="2"/>
-        <v>348.2</v>
-      </c>
-      <c r="J26" s="17">
+        <v>4</v>
+      </c>
+      <c r="L26" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K26" s="18">
+      <c r="M26" s="8">
+        <v>24</v>
+      </c>
+      <c r="O26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26">
+        <f>_xlfn.VAR.S(K3:K28,K30:K37,K39:K47)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L26" s="8">
+        <v>350</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U26">
+        <v>346.8</v>
+      </c>
+      <c r="V26">
         <v>24</v>
       </c>
-      <c r="P26">
-        <v>24</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S26">
+      <c r="W26">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T26">
-        <v>346.8</v>
-      </c>
-      <c r="U26">
-        <v>24</v>
-      </c>
-      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="X26">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X26">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y26">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y26">
-        <f t="shared" si="10"/>
+      <c r="Z26">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9851,63 +9978,74 @@
         <v>347.4</v>
       </c>
       <c r="H27" s="18">
+        <f>IF(OR(G27&gt;=$P$6,G27&lt;=$P$7),0,G27)</f>
+        <v>347.4</v>
+      </c>
+      <c r="I27" s="18">
         <f t="shared" si="1"/>
         <v>347.4</v>
       </c>
-      <c r="I27" s="18">
+      <c r="J27" s="17">
+        <f>MAX(B27:F27)-MIN(B27:F27)</f>
+        <v>3</v>
+      </c>
+      <c r="K27" s="18">
         <f t="shared" si="2"/>
-        <v>347.4</v>
-      </c>
-      <c r="J27" s="17">
+        <v>3</v>
+      </c>
+      <c r="L27" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K27" s="18">
+      <c r="M27" s="8">
+        <v>25</v>
+      </c>
+      <c r="O27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <f>P26^0.5</f>
+        <v>0.84515425472851657</v>
+      </c>
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U27">
+        <v>347</v>
+      </c>
+      <c r="V27">
+        <v>25</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L27" s="8">
-        <v>25</v>
-      </c>
-      <c r="P27">
-        <v>25</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T27">
-        <v>347</v>
-      </c>
-      <c r="U27">
-        <v>25</v>
-      </c>
-      <c r="V27">
+      <c r="X27">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X27">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y27">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y27">
-        <f t="shared" si="10"/>
+      <c r="Z27">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9931,63 +10069,74 @@
         <v>344.4</v>
       </c>
       <c r="H28" s="18">
+        <f>IF(OR(G28&gt;=$P$6,G28&lt;=$P$7),0,G28)</f>
+        <v>344.4</v>
+      </c>
+      <c r="I28" s="18">
         <f t="shared" si="1"/>
         <v>344.4</v>
       </c>
-      <c r="I28" s="18">
+      <c r="J28" s="17">
+        <f>MAX(B28:F28)-MIN(B28:F28)</f>
+        <v>3</v>
+      </c>
+      <c r="K28" s="18">
         <f t="shared" si="2"/>
-        <v>344.4</v>
-      </c>
-      <c r="J28" s="17">
+        <v>3</v>
+      </c>
+      <c r="L28" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K28" s="18">
+      <c r="M28" s="8">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28">
+        <f>P25</f>
+        <v>3</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U28">
+        <v>348.8</v>
+      </c>
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L28" s="8">
-        <v>26</v>
-      </c>
-      <c r="P28">
-        <v>26</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T28">
-        <v>348.8</v>
-      </c>
-      <c r="U28">
-        <v>26</v>
-      </c>
-      <c r="V28">
+      <c r="X28">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X28">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y28">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y28">
-        <f t="shared" si="10"/>
+      <c r="Z28">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10011,63 +10160,74 @@
         <v>337.4</v>
       </c>
       <c r="H29" s="18">
+        <f>IF(OR(G29&gt;=$P$6,G29&lt;=$P$7),0,G29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="18">
+      <c r="J29" s="17">
+        <f>MAX(B29:F29)-MIN(B29:F29)</f>
+        <v>3</v>
+      </c>
+      <c r="K29" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
+        <v>3</v>
+      </c>
+      <c r="L29" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K29" s="18">
+      <c r="M29" s="8">
+        <v>27</v>
+      </c>
+      <c r="O29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29">
+        <f>P28+3*P27</f>
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U29">
+        <v>338.4</v>
+      </c>
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L29" s="8">
-        <v>27</v>
-      </c>
-      <c r="P29">
-        <v>27</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T29">
-        <v>338.4</v>
-      </c>
-      <c r="U29">
-        <v>27</v>
-      </c>
-      <c r="V29">
+      <c r="X29">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X29">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y29">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y29">
-        <f t="shared" si="10"/>
+      <c r="Z29">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10091,63 +10251,74 @@
         <v>344.6</v>
       </c>
       <c r="H30" s="18">
+        <f>IF(OR(G30&gt;=$P$6,G30&lt;=$P$7),0,G30)</f>
+        <v>344.6</v>
+      </c>
+      <c r="I30" s="18">
         <f t="shared" si="1"/>
         <v>344.6</v>
       </c>
-      <c r="I30" s="18">
+      <c r="J30" s="17">
+        <f>MAX(B30:F30)-MIN(B30:F30)</f>
+        <v>2</v>
+      </c>
+      <c r="K30" s="18">
         <f t="shared" si="2"/>
-        <v>344.6</v>
-      </c>
-      <c r="J30" s="17">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K30" s="18">
+      <c r="M30" s="8">
+        <v>28</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30">
+        <f>P28-3*P27</f>
+        <v>0.46453723581445017</v>
+      </c>
+      <c r="Q30">
+        <v>28</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L30" s="8">
+        <v>350</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U30">
+        <v>347.8</v>
+      </c>
+      <c r="V30">
         <v>28</v>
       </c>
-      <c r="P30">
-        <v>28</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S30">
+      <c r="W30">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T30">
-        <v>347.8</v>
-      </c>
-      <c r="U30">
-        <v>28</v>
-      </c>
-      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X30">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y30">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y30">
-        <f t="shared" si="10"/>
+      <c r="Z30">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10171,63 +10342,67 @@
         <v>345.8</v>
       </c>
       <c r="H31" s="18">
+        <f>IF(OR(G31&gt;=$P$6,G31&lt;=$P$7),0,G31)</f>
+        <v>345.8</v>
+      </c>
+      <c r="I31" s="18">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
-      <c r="I31" s="18">
+      <c r="J31" s="17">
+        <f>MAX(B31:F31)-MIN(B31:F31)</f>
+        <v>3</v>
+      </c>
+      <c r="K31" s="18">
         <f t="shared" si="2"/>
-        <v>345.8</v>
-      </c>
-      <c r="J31" s="17">
+        <v>3</v>
+      </c>
+      <c r="L31" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K31" s="18">
+      <c r="M31" s="8">
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <v>29</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U31">
+        <v>347.6</v>
+      </c>
+      <c r="V31">
+        <v>29</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L31" s="8">
-        <v>29</v>
-      </c>
-      <c r="P31">
-        <v>29</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T31">
-        <v>347.6</v>
-      </c>
-      <c r="U31">
-        <v>29</v>
-      </c>
-      <c r="V31">
+      <c r="X31">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X31">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y31">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y31">
-        <f t="shared" si="10"/>
+      <c r="Z31">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10251,63 +10426,67 @@
         <v>345</v>
       </c>
       <c r="H32" s="18">
+        <f>IF(OR(G32&gt;=$P$6,G32&lt;=$P$7),0,G32)</f>
+        <v>345</v>
+      </c>
+      <c r="I32" s="18">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="I32" s="18">
+      <c r="J32" s="17">
+        <f>MAX(B32:F32)-MIN(B32:F32)</f>
+        <v>2</v>
+      </c>
+      <c r="K32" s="18">
         <f t="shared" si="2"/>
-        <v>345</v>
-      </c>
-      <c r="J32" s="17">
+        <v>2</v>
+      </c>
+      <c r="L32" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K32" s="18">
+      <c r="M32" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q32">
+        <v>30</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L32" s="8">
+        <v>350</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U32">
+        <v>346</v>
+      </c>
+      <c r="V32">
         <v>30</v>
       </c>
-      <c r="P32">
-        <v>30</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S32">
+      <c r="W32">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T32">
-        <v>346</v>
-      </c>
-      <c r="U32">
-        <v>30</v>
-      </c>
-      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="X32">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X32">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y32">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y32">
-        <f t="shared" si="10"/>
+      <c r="Z32">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10331,63 +10510,67 @@
         <v>345.2</v>
       </c>
       <c r="H33" s="18">
+        <f>IF(OR(G33&gt;=$P$6,G33&lt;=$P$7),0,G33)</f>
+        <v>345.2</v>
+      </c>
+      <c r="I33" s="18">
         <f t="shared" si="1"/>
         <v>345.2</v>
       </c>
-      <c r="I33" s="18">
+      <c r="J33" s="17">
+        <f>MAX(B33:F33)-MIN(B33:F33)</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="18">
         <f t="shared" si="2"/>
-        <v>345.2</v>
-      </c>
-      <c r="J33" s="17">
+        <v>3</v>
+      </c>
+      <c r="L33" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K33" s="18">
+      <c r="M33" s="8">
+        <v>31</v>
+      </c>
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U33">
+        <v>347.6</v>
+      </c>
+      <c r="V33">
+        <v>31</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="L33" s="8">
-        <v>31</v>
-      </c>
-      <c r="P33">
-        <v>31</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T33">
-        <v>347.6</v>
-      </c>
-      <c r="U33">
-        <v>31</v>
-      </c>
-      <c r="V33">
+      <c r="X33">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W33">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X33">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y33">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y33">
-        <f t="shared" si="10"/>
+      <c r="Z33">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10411,63 +10594,67 @@
         <v>348.8</v>
       </c>
       <c r="H34" s="18">
+        <f>IF(OR(G34&gt;=$P$6,G34&lt;=$P$7),0,G34)</f>
+        <v>348.8</v>
+      </c>
+      <c r="I34" s="18">
         <f t="shared" si="1"/>
         <v>348.8</v>
       </c>
-      <c r="I34" s="18">
+      <c r="J34" s="17">
+        <f>MAX(B34:F34)-MIN(B34:F34)</f>
+        <v>2</v>
+      </c>
+      <c r="K34" s="18">
         <f t="shared" si="2"/>
-        <v>348.8</v>
-      </c>
-      <c r="J34" s="17">
+        <v>2</v>
+      </c>
+      <c r="L34" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K34" s="18">
+      <c r="M34" s="8">
+        <v>32</v>
+      </c>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L34" s="8">
+        <v>350</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U34">
+        <v>346.6</v>
+      </c>
+      <c r="V34">
         <v>32</v>
       </c>
-      <c r="P34">
-        <v>32</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S34">
+      <c r="W34">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T34">
-        <v>346.6</v>
-      </c>
-      <c r="U34">
-        <v>32</v>
-      </c>
-      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="X34">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W34">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X34">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y34">
-        <f t="shared" si="10"/>
+      <c r="Z34">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10491,63 +10678,67 @@
         <v>349.2</v>
       </c>
       <c r="H35" s="18">
+        <f>IF(OR(G35&gt;=$P$6,G35&lt;=$P$7),0,G35)</f>
+        <v>349.2</v>
+      </c>
+      <c r="I35" s="18">
         <f t="shared" si="1"/>
         <v>349.2</v>
       </c>
-      <c r="I35" s="18">
+      <c r="J35" s="17">
+        <f>MAX(B35:F35)-MIN(B35:F35)</f>
+        <v>2</v>
+      </c>
+      <c r="K35" s="18">
         <f t="shared" si="2"/>
-        <v>349.2</v>
-      </c>
-      <c r="J35" s="17">
+        <v>2</v>
+      </c>
+      <c r="L35" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K35" s="18">
+      <c r="M35" s="8">
+        <v>33</v>
+      </c>
+      <c r="Q35">
+        <v>33</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L35" s="8">
+        <v>350</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U35">
+        <v>349</v>
+      </c>
+      <c r="V35">
         <v>33</v>
       </c>
-      <c r="P35">
-        <v>33</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S35">
+      <c r="W35">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T35">
-        <v>349</v>
-      </c>
-      <c r="U35">
-        <v>33</v>
-      </c>
-      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="X35">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W35">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X35">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y35">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y35">
-        <f t="shared" si="10"/>
+      <c r="Z35">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10571,63 +10762,67 @@
         <v>347.6</v>
       </c>
       <c r="H36" s="18">
+        <f>IF(OR(G36&gt;=$P$6,G36&lt;=$P$7),0,G36)</f>
+        <v>347.6</v>
+      </c>
+      <c r="I36" s="18">
         <f t="shared" si="1"/>
         <v>347.6</v>
       </c>
-      <c r="I36" s="18">
+      <c r="J36" s="17">
+        <f>MAX(B36:F36)-MIN(B36:F36)</f>
+        <v>4</v>
+      </c>
+      <c r="K36" s="18">
         <f t="shared" si="2"/>
-        <v>347.6</v>
-      </c>
-      <c r="J36" s="17">
+        <v>4</v>
+      </c>
+      <c r="L36" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K36" s="18">
+      <c r="M36" s="8">
+        <v>34</v>
+      </c>
+      <c r="Q36">
+        <v>34</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L36" s="8">
+        <v>350</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U36">
+        <v>349.8</v>
+      </c>
+      <c r="V36">
         <v>34</v>
       </c>
-      <c r="P36">
-        <v>34</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S36">
+      <c r="W36">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T36">
-        <v>349.8</v>
-      </c>
-      <c r="U36">
-        <v>34</v>
-      </c>
-      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="X36">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W36">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X36">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y36">
-        <f t="shared" si="10"/>
+      <c r="Z36">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10651,63 +10846,67 @@
         <v>347.6</v>
       </c>
       <c r="H37" s="18">
+        <f>IF(OR(G37&gt;=$P$6,G37&lt;=$P$7),0,G37)</f>
+        <v>347.6</v>
+      </c>
+      <c r="I37" s="18">
         <f t="shared" si="1"/>
         <v>347.6</v>
       </c>
-      <c r="I37" s="18">
+      <c r="J37" s="17">
+        <f>MAX(B37:F37)-MIN(B37:F37)</f>
+        <v>4</v>
+      </c>
+      <c r="K37" s="18">
         <f t="shared" si="2"/>
-        <v>347.6</v>
-      </c>
-      <c r="J37" s="17">
+        <v>4</v>
+      </c>
+      <c r="L37" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K37" s="18">
+      <c r="M37" s="8">
+        <v>35</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L37" s="8">
+        <v>350</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U37">
+        <v>349.6</v>
+      </c>
+      <c r="V37">
         <v>35</v>
       </c>
-      <c r="P37">
-        <v>35</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S37">
+      <c r="W37">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T37">
-        <v>349.6</v>
-      </c>
-      <c r="U37">
-        <v>35</v>
-      </c>
-      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="X37">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X37">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y37">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y37">
-        <f t="shared" si="10"/>
+      <c r="Z37">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10731,63 +10930,67 @@
         <v>354.6</v>
       </c>
       <c r="H38" s="18">
+        <f>IF(OR(G38&gt;=$P$6,G38&lt;=$P$7),0,G38)</f>
+        <v>354.6</v>
+      </c>
+      <c r="I38" s="18">
         <f t="shared" si="1"/>
         <v>354.6</v>
       </c>
-      <c r="I38" s="18">
+      <c r="J38" s="17">
+        <f>MAX(B38:F38)-MIN(B38:F38)</f>
+        <v>10</v>
+      </c>
+      <c r="K38" s="18">
         <f t="shared" si="2"/>
-        <v>354.6</v>
-      </c>
-      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="19">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>36</v>
+      </c>
+      <c r="Q38">
+        <v>36</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
+        <v>350</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U38">
+        <v>348</v>
+      </c>
+      <c r="V38">
         <v>36</v>
       </c>
-      <c r="P38">
-        <v>36</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S38">
+      <c r="W38">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T38">
-        <v>348</v>
-      </c>
-      <c r="U38">
-        <v>36</v>
-      </c>
-      <c r="V38">
+        <v>3</v>
+      </c>
+      <c r="X38">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X38">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y38">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y38">
-        <f t="shared" si="10"/>
+      <c r="Z38">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10811,63 +11014,67 @@
         <v>344.2</v>
       </c>
       <c r="H39" s="18">
+        <f>IF(OR(G39&gt;=$P$6,G39&lt;=$P$7),0,G39)</f>
+        <v>344.2</v>
+      </c>
+      <c r="I39" s="18">
         <f t="shared" si="1"/>
         <v>344.2</v>
       </c>
-      <c r="I39" s="18">
+      <c r="J39" s="17">
+        <f>MAX(B39:F39)-MIN(B39:F39)</f>
+        <v>4</v>
+      </c>
+      <c r="K39" s="18">
         <f t="shared" si="2"/>
-        <v>344.2</v>
-      </c>
-      <c r="J39" s="17">
+        <v>4</v>
+      </c>
+      <c r="L39" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K39" s="18">
+      <c r="M39" s="8">
+        <v>37</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L39" s="8">
+        <v>350</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U39">
+        <v>349</v>
+      </c>
+      <c r="V39">
         <v>37</v>
       </c>
-      <c r="P39">
-        <v>37</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S39">
+      <c r="W39">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T39">
-        <v>349</v>
-      </c>
-      <c r="U39">
-        <v>37</v>
-      </c>
-      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X39">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y39">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y39">
-        <f t="shared" si="10"/>
+      <c r="Z39">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10891,63 +11098,67 @@
         <v>351.6</v>
       </c>
       <c r="H40" s="18">
+        <f>IF(OR(G40&gt;=$P$6,G40&lt;=$P$7),0,G40)</f>
+        <v>351.6</v>
+      </c>
+      <c r="I40" s="18">
         <f t="shared" si="1"/>
         <v>351.6</v>
       </c>
-      <c r="I40" s="18">
+      <c r="J40" s="17">
+        <f>MAX(B40:F40)-MIN(B40:F40)</f>
+        <v>4</v>
+      </c>
+      <c r="K40" s="18">
         <f t="shared" si="2"/>
-        <v>351.6</v>
-      </c>
-      <c r="J40" s="17">
+        <v>4</v>
+      </c>
+      <c r="L40" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K40" s="18">
+      <c r="M40" s="8">
+        <v>38</v>
+      </c>
+      <c r="Q40">
+        <v>38</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L40" s="8">
+        <v>350</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U40">
+        <v>346.6</v>
+      </c>
+      <c r="V40">
         <v>38</v>
       </c>
-      <c r="P40">
-        <v>38</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S40">
+      <c r="W40">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T40">
-        <v>346.6</v>
-      </c>
-      <c r="U40">
-        <v>38</v>
-      </c>
-      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="X40">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X40">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y40">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y40">
-        <f t="shared" si="10"/>
+      <c r="Z40">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -10971,63 +11182,67 @@
         <v>342.2</v>
       </c>
       <c r="H41" s="18">
+        <f>IF(OR(G41&gt;=$P$6,G41&lt;=$P$7),0,G41)</f>
+        <v>342.2</v>
+      </c>
+      <c r="I41" s="18">
         <f t="shared" si="1"/>
         <v>342.2</v>
       </c>
-      <c r="I41" s="18">
+      <c r="J41" s="17">
+        <f>MAX(B41:F41)-MIN(B41:F41)</f>
+        <v>4</v>
+      </c>
+      <c r="K41" s="18">
         <f t="shared" si="2"/>
-        <v>342.2</v>
-      </c>
-      <c r="J41" s="17">
+        <v>4</v>
+      </c>
+      <c r="L41" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K41" s="18">
+      <c r="M41" s="8">
+        <v>39</v>
+      </c>
+      <c r="Q41">
+        <v>39</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L41" s="8">
+        <v>350</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U41">
+        <v>350.4</v>
+      </c>
+      <c r="V41">
         <v>39</v>
       </c>
-      <c r="P41">
-        <v>39</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S41">
+      <c r="W41">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T41">
-        <v>350.4</v>
-      </c>
-      <c r="U41">
-        <v>39</v>
-      </c>
-      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="X41">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X41">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y41">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y41">
-        <f t="shared" si="10"/>
+      <c r="Z41">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11051,63 +11266,67 @@
         <v>349</v>
       </c>
       <c r="H42" s="18">
+        <f>IF(OR(G42&gt;=$P$6,G42&lt;=$P$7),0,G42)</f>
+        <v>349</v>
+      </c>
+      <c r="I42" s="18">
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="I42" s="18">
+      <c r="J42" s="17">
+        <f>MAX(B42:F42)-MIN(B42:F42)</f>
+        <v>4</v>
+      </c>
+      <c r="K42" s="18">
         <f t="shared" si="2"/>
-        <v>349</v>
-      </c>
-      <c r="J42" s="17">
+        <v>4</v>
+      </c>
+      <c r="L42" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K42" s="18">
+      <c r="M42" s="8">
+        <v>40</v>
+      </c>
+      <c r="Q42">
+        <v>40</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L42" s="8">
+        <v>350</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="5"/>
+        <v>361.42043979813059</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="6"/>
+        <v>338.57956020186941</v>
+      </c>
+      <c r="U42">
+        <v>348.6</v>
+      </c>
+      <c r="V42">
         <v>40</v>
       </c>
-      <c r="P42">
-        <v>40</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="6"/>
-        <v>362.54768359643975</v>
-      </c>
-      <c r="S42">
+      <c r="W42">
         <f t="shared" si="7"/>
-        <v>337.45231640356025</v>
-      </c>
-      <c r="T42">
-        <v>348.6</v>
-      </c>
-      <c r="U42">
-        <v>40</v>
-      </c>
-      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="X42">
         <f t="shared" si="8"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="9"/>
-        <v>7.147593084983809</v>
-      </c>
-      <c r="X42">
+        <v>5.5354627641855494</v>
+      </c>
+      <c r="Y42">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="Y42">
-        <f t="shared" si="10"/>
+      <c r="Z42">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11131,26 +11350,30 @@
         <v>348.4</v>
       </c>
       <c r="H43" s="18">
+        <f>IF(OR(G43&gt;=$P$6,G43&lt;=$P$7),0,G43)</f>
+        <v>348.4</v>
+      </c>
+      <c r="I43" s="18">
         <f t="shared" si="1"/>
         <v>348.4</v>
       </c>
-      <c r="I43" s="18">
+      <c r="J43" s="17">
+        <f>MAX(B43:F43)-MIN(B43:F43)</f>
+        <v>3</v>
+      </c>
+      <c r="K43" s="18">
         <f t="shared" si="2"/>
-        <v>348.4</v>
-      </c>
-      <c r="J43" s="17">
+        <v>3</v>
+      </c>
+      <c r="L43" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K43" s="18">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L43" s="8">
+      <c r="M43" s="8">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11174,26 +11397,30 @@
         <v>348.8</v>
       </c>
       <c r="H44" s="18">
+        <f>IF(OR(G44&gt;=$P$6,G44&lt;=$P$7),0,G44)</f>
+        <v>348.8</v>
+      </c>
+      <c r="I44" s="18">
         <f t="shared" si="1"/>
         <v>348.8</v>
       </c>
-      <c r="I44" s="18">
+      <c r="J44" s="17">
+        <f>MAX(B44:F44)-MIN(B44:F44)</f>
+        <v>3</v>
+      </c>
+      <c r="K44" s="18">
         <f t="shared" si="2"/>
-        <v>348.8</v>
-      </c>
-      <c r="J44" s="17">
+        <v>3</v>
+      </c>
+      <c r="L44" s="19">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K44" s="18">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L44" s="8">
+      <c r="M44" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11217,26 +11444,30 @@
         <v>347.8</v>
       </c>
       <c r="H45" s="18">
+        <f>IF(OR(G45&gt;=$P$6,G45&lt;=$P$7),0,G45)</f>
+        <v>347.8</v>
+      </c>
+      <c r="I45" s="18">
         <f t="shared" si="1"/>
         <v>347.8</v>
       </c>
-      <c r="I45" s="18">
+      <c r="J45" s="17">
+        <f>MAX(B45:F45)-MIN(B45:F45)</f>
+        <v>2</v>
+      </c>
+      <c r="K45" s="18">
         <f t="shared" si="2"/>
-        <v>347.8</v>
-      </c>
-      <c r="J45" s="17">
+        <v>2</v>
+      </c>
+      <c r="L45" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K45" s="18">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="L45" s="8">
+      <c r="M45" s="8">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11260,26 +11491,30 @@
         <v>348.6</v>
       </c>
       <c r="H46" s="18">
+        <f>IF(OR(G46&gt;=$P$6,G46&lt;=$P$7),0,G46)</f>
+        <v>348.6</v>
+      </c>
+      <c r="I46" s="18">
         <f t="shared" si="1"/>
         <v>348.6</v>
       </c>
-      <c r="I46" s="18">
+      <c r="J46" s="17">
+        <f>MAX(B46:F46)-MIN(B46:F46)</f>
+        <v>4</v>
+      </c>
+      <c r="K46" s="18">
         <f t="shared" si="2"/>
-        <v>348.6</v>
-      </c>
-      <c r="J46" s="17">
+        <v>4</v>
+      </c>
+      <c r="L46" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K46" s="18">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L46" s="8">
+      <c r="M46" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11303,26 +11538,30 @@
         <v>340</v>
       </c>
       <c r="H47" s="18">
+        <f>IF(OR(G47&gt;=$P$6,G47&lt;=$P$7),0,G47)</f>
+        <v>340</v>
+      </c>
+      <c r="I47" s="18">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="I47" s="18">
+      <c r="J47" s="17">
+        <f>MAX(B47:F47)-MIN(B47:F47)</f>
+        <v>4</v>
+      </c>
+      <c r="K47" s="18">
         <f t="shared" si="2"/>
-        <v>340</v>
-      </c>
-      <c r="J47" s="17">
+        <v>4</v>
+      </c>
+      <c r="L47" s="19">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K47" s="18">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="L47" s="8">
+      <c r="M47" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -11333,9 +11572,10 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="19"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -11359,20 +11599,21 @@
         <v>349.2</v>
       </c>
       <c r="H49" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G49&gt;=$P$6,G49&lt;=$P$7),0,G49)</f>
         <v>349.2</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B49:F49)-MIN(B49:F49)</f>
         <v>4</v>
       </c>
       <c r="K49" s="18"/>
-      <c r="L49" s="8">
+      <c r="L49" s="19"/>
+      <c r="M49" s="8">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -11396,20 +11637,21 @@
         <v>349.6</v>
       </c>
       <c r="H50" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G50&gt;=$P$6,G50&lt;=$P$7),0,G50)</f>
         <v>349.6</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B50:F50)-MIN(B50:F50)</f>
         <v>2</v>
       </c>
       <c r="K50" s="18"/>
-      <c r="L50" s="8">
+      <c r="L50" s="19"/>
+      <c r="M50" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -11433,20 +11675,21 @@
         <v>343.2</v>
       </c>
       <c r="H51" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G51&gt;=$P$6,G51&lt;=$P$7),0,G51)</f>
         <v>343.2</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B51:F51)-MIN(B51:F51)</f>
         <v>3</v>
       </c>
       <c r="K51" s="18"/>
-      <c r="L51" s="8">
+      <c r="L51" s="19"/>
+      <c r="M51" s="8">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -11470,20 +11713,21 @@
         <v>343.6</v>
       </c>
       <c r="H52" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G52&gt;=$P$6,G52&lt;=$P$7),0,G52)</f>
         <v>343.6</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B52:F52)-MIN(B52:F52)</f>
         <v>3</v>
       </c>
       <c r="K52" s="18"/>
-      <c r="L52" s="8">
+      <c r="L52" s="19"/>
+      <c r="M52" s="8">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -11507,20 +11751,21 @@
         <v>349.2</v>
       </c>
       <c r="H53" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G53&gt;=$P$6,G53&lt;=$P$7),0,G53)</f>
         <v>349.2</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B53:F53)-MIN(B53:F53)</f>
         <v>3</v>
       </c>
       <c r="K53" s="18"/>
-      <c r="L53" s="8">
+      <c r="L53" s="19"/>
+      <c r="M53" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -11544,20 +11789,21 @@
         <v>349.4</v>
       </c>
       <c r="H54" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G54&gt;=$P$6,G54&lt;=$P$7),0,G54)</f>
         <v>349.4</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B54:F54)-MIN(B54:F54)</f>
         <v>2</v>
       </c>
       <c r="K54" s="18"/>
-      <c r="L54" s="8">
+      <c r="L54" s="19"/>
+      <c r="M54" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -11581,20 +11827,21 @@
         <v>354.6</v>
       </c>
       <c r="H55" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G55&gt;=$P$6,G55&lt;=$P$7),0,G55)</f>
         <v>354.6</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B55:F55)-MIN(B55:F55)</f>
         <v>3</v>
       </c>
       <c r="K55" s="18"/>
-      <c r="L55" s="8">
+      <c r="L55" s="19"/>
+      <c r="M55" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -11618,20 +11865,21 @@
         <v>349</v>
       </c>
       <c r="H56" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G56&gt;=$P$6,G56&lt;=$P$7),0,G56)</f>
         <v>349</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B56:F56)-MIN(B56:F56)</f>
         <v>3</v>
       </c>
       <c r="K56" s="18"/>
-      <c r="L56" s="8">
+      <c r="L56" s="19"/>
+      <c r="M56" s="8">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -11655,20 +11903,21 @@
         <v>350.4</v>
       </c>
       <c r="H57" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G57&gt;=$P$6,G57&lt;=$P$7),0,G57)</f>
         <v>350.4</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B57:F57)-MIN(B57:F57)</f>
         <v>4</v>
       </c>
       <c r="K57" s="18"/>
-      <c r="L57" s="8">
+      <c r="L57" s="19"/>
+      <c r="M57" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -11692,20 +11941,21 @@
         <v>349.8</v>
       </c>
       <c r="H58" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G58&gt;=$P$6,G58&lt;=$P$7),0,G58)</f>
         <v>349.8</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B58:F58)-MIN(B58:F58)</f>
         <v>3</v>
       </c>
       <c r="K58" s="18"/>
-      <c r="L58" s="8">
+      <c r="L58" s="19"/>
+      <c r="M58" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -11729,20 +11979,21 @@
         <v>349.4</v>
       </c>
       <c r="H59" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G59&gt;=$P$6,G59&lt;=$P$7),0,G59)</f>
         <v>349.4</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B59:F59)-MIN(B59:F59)</f>
         <v>11</v>
       </c>
       <c r="K59" s="18"/>
-      <c r="L59" s="8">
+      <c r="L59" s="19"/>
+      <c r="M59" s="8">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -11766,20 +12017,21 @@
         <v>349.2</v>
       </c>
       <c r="H60" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G60&gt;=$P$6,G60&lt;=$P$7),0,G60)</f>
         <v>349.2</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B60:F60)-MIN(B60:F60)</f>
         <v>10</v>
       </c>
       <c r="K60" s="18"/>
-      <c r="L60" s="8">
+      <c r="L60" s="19"/>
+      <c r="M60" s="8">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -11803,20 +12055,21 @@
         <v>347</v>
       </c>
       <c r="H61" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G61&gt;=$P$6,G61&lt;=$P$7),0,G61)</f>
         <v>347</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B61:F61)-MIN(B61:F61)</f>
         <v>3</v>
       </c>
       <c r="K61" s="18"/>
-      <c r="L61" s="8">
+      <c r="L61" s="19"/>
+      <c r="M61" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -11840,20 +12093,21 @@
         <v>347.8</v>
       </c>
       <c r="H62" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G62&gt;=$P$6,G62&lt;=$P$7),0,G62)</f>
         <v>347.8</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B62:F62)-MIN(B62:F62)</f>
         <v>3</v>
       </c>
       <c r="K62" s="18"/>
-      <c r="L62" s="8">
+      <c r="L62" s="19"/>
+      <c r="M62" s="8">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -11877,20 +12131,21 @@
         <v>350.4</v>
       </c>
       <c r="H63" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G63&gt;=$P$6,G63&lt;=$P$7),0,G63)</f>
         <v>350.4</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B63:F63)-MIN(B63:F63)</f>
         <v>5</v>
       </c>
       <c r="K63" s="18"/>
-      <c r="L63" s="8">
+      <c r="L63" s="19"/>
+      <c r="M63" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -11914,20 +12169,21 @@
         <v>349.8</v>
       </c>
       <c r="H64" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G64&gt;=$P$6,G64&lt;=$P$7),0,G64)</f>
         <v>349.8</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B64:F64)-MIN(B64:F64)</f>
         <v>3</v>
       </c>
       <c r="K64" s="18"/>
-      <c r="L64" s="8">
+      <c r="L64" s="19"/>
+      <c r="M64" s="8">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -11951,20 +12207,21 @@
         <v>349.8</v>
       </c>
       <c r="H65" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G65&gt;=$P$6,G65&lt;=$P$7),0,G65)</f>
         <v>349.8</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B65:F65)-MIN(B65:F65)</f>
         <v>3</v>
       </c>
       <c r="K65" s="18"/>
-      <c r="L65" s="8">
+      <c r="L65" s="19"/>
+      <c r="M65" s="8">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -11988,20 +12245,21 @@
         <v>346.6</v>
       </c>
       <c r="H66" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G66&gt;=$P$6,G66&lt;=$P$7),0,G66)</f>
         <v>346.6</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B66:F66)-MIN(B66:F66)</f>
         <v>4</v>
       </c>
       <c r="K66" s="18"/>
-      <c r="L66" s="8">
+      <c r="L66" s="19"/>
+      <c r="M66" s="8">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -12025,20 +12283,21 @@
         <v>348.6</v>
       </c>
       <c r="H67" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G67&gt;=$P$6,G67&lt;=$P$7),0,G67)</f>
         <v>348.6</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B67:F67)-MIN(B67:F67)</f>
         <v>2</v>
       </c>
       <c r="K67" s="18"/>
-      <c r="L67" s="8">
+      <c r="L67" s="19"/>
+      <c r="M67" s="8">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -12062,20 +12321,21 @@
         <v>350.6</v>
       </c>
       <c r="H68" s="18">
-        <f t="shared" si="1"/>
+        <f>IF(OR(G68&gt;=$P$6,G68&lt;=$P$7),0,G68)</f>
         <v>350.6</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="17">
-        <f t="shared" si="3"/>
+        <f>MAX(B68:F68)-MIN(B68:F68)</f>
         <v>3</v>
       </c>
       <c r="K68" s="18"/>
-      <c r="L68" s="8">
+      <c r="L68" s="19"/>
+      <c r="M68" s="8">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -12095,24 +12355,25 @@
         <v>349</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G88" si="11">AVERAGE(B69:F69)</f>
+        <f t="shared" ref="G69:G88" si="10">AVERAGE(B69:F69)</f>
         <v>347.8</v>
       </c>
       <c r="H69" s="18">
-        <f t="shared" ref="H69:H88" si="12">IF(OR(G69&gt;=$O$6,G69&lt;=$O$7),0,G69)</f>
+        <f t="shared" ref="H69:H88" si="11">IF(OR(G69&gt;=$P$6,G69&lt;=$P$7),0,G69)</f>
         <v>347.8</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="17">
-        <f t="shared" ref="J69:J88" si="13">MAX(B69:F69)-MIN(B69:F69)</f>
+        <f t="shared" ref="J69:J88" si="12">MAX(B69:F69)-MIN(B69:F69)</f>
         <v>3</v>
       </c>
       <c r="K69" s="18"/>
-      <c r="L69" s="8">
+      <c r="L69" s="19"/>
+      <c r="M69" s="8">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -12132,24 +12393,25 @@
         <v>349</v>
       </c>
       <c r="G70" s="2">
+        <f t="shared" si="10"/>
+        <v>348.4</v>
+      </c>
+      <c r="H70" s="18">
         <f t="shared" si="11"/>
         <v>348.4</v>
       </c>
-      <c r="H70" s="18">
-        <f t="shared" si="12"/>
-        <v>348.4</v>
-      </c>
       <c r="I70" s="18"/>
       <c r="J70" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="K70" s="18"/>
-      <c r="L70" s="8">
+      <c r="L70" s="19"/>
+      <c r="M70" s="8">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -12169,24 +12431,25 @@
         <v>348</v>
       </c>
       <c r="G71" s="2">
+        <f t="shared" si="10"/>
+        <v>347.4</v>
+      </c>
+      <c r="H71" s="18">
         <f t="shared" si="11"/>
         <v>347.4</v>
       </c>
-      <c r="H71" s="18">
-        <f t="shared" si="12"/>
-        <v>347.4</v>
-      </c>
       <c r="I71" s="18"/>
       <c r="J71" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="K71" s="18"/>
-      <c r="L71" s="8">
+      <c r="L71" s="19"/>
+      <c r="M71" s="8">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -12206,24 +12469,25 @@
         <v>348</v>
       </c>
       <c r="G72" s="2">
+        <f t="shared" si="10"/>
+        <v>346.8</v>
+      </c>
+      <c r="H72" s="18">
         <f t="shared" si="11"/>
         <v>346.8</v>
       </c>
-      <c r="H72" s="18">
-        <f t="shared" si="12"/>
-        <v>346.8</v>
-      </c>
       <c r="I72" s="18"/>
       <c r="J72" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K72" s="18"/>
-      <c r="L72" s="8">
+      <c r="L72" s="19"/>
+      <c r="M72" s="8">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -12243,24 +12507,25 @@
         <v>347</v>
       </c>
       <c r="G73" s="2">
+        <f t="shared" si="10"/>
+        <v>347</v>
+      </c>
+      <c r="H73" s="18">
         <f t="shared" si="11"/>
         <v>347</v>
       </c>
-      <c r="H73" s="18">
-        <f t="shared" si="12"/>
-        <v>347</v>
-      </c>
       <c r="I73" s="18"/>
       <c r="J73" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K73" s="18"/>
-      <c r="L73" s="8">
+      <c r="L73" s="19"/>
+      <c r="M73" s="8">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -12280,24 +12545,25 @@
         <v>350</v>
       </c>
       <c r="G74" s="2">
+        <f t="shared" si="10"/>
+        <v>348.8</v>
+      </c>
+      <c r="H74" s="18">
         <f t="shared" si="11"/>
         <v>348.8</v>
       </c>
-      <c r="H74" s="18">
-        <f t="shared" si="12"/>
-        <v>348.8</v>
-      </c>
       <c r="I74" s="18"/>
       <c r="J74" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K74" s="18"/>
-      <c r="L74" s="8">
+      <c r="L74" s="19"/>
+      <c r="M74" s="8">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -12317,24 +12583,25 @@
         <v>340</v>
       </c>
       <c r="G75" s="2">
+        <f t="shared" si="10"/>
+        <v>338.4</v>
+      </c>
+      <c r="H75" s="18">
         <f t="shared" si="11"/>
         <v>338.4</v>
       </c>
-      <c r="H75" s="18">
-        <f t="shared" si="12"/>
-        <v>338.4</v>
-      </c>
       <c r="I75" s="18"/>
       <c r="J75" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K75" s="18"/>
-      <c r="L75" s="8">
+      <c r="L75" s="19"/>
+      <c r="M75" s="8">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -12354,24 +12621,25 @@
         <v>349</v>
       </c>
       <c r="G76" s="2">
+        <f t="shared" si="10"/>
+        <v>347.8</v>
+      </c>
+      <c r="H76" s="18">
         <f t="shared" si="11"/>
         <v>347.8</v>
       </c>
-      <c r="H76" s="18">
-        <f t="shared" si="12"/>
-        <v>347.8</v>
-      </c>
       <c r="I76" s="18"/>
       <c r="J76" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K76" s="18"/>
-      <c r="L76" s="8">
+      <c r="L76" s="19"/>
+      <c r="M76" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -12391,24 +12659,25 @@
         <v>348</v>
       </c>
       <c r="G77" s="2">
+        <f t="shared" si="10"/>
+        <v>347.6</v>
+      </c>
+      <c r="H77" s="18">
         <f t="shared" si="11"/>
         <v>347.6</v>
       </c>
-      <c r="H77" s="18">
-        <f t="shared" si="12"/>
-        <v>347.6</v>
-      </c>
       <c r="I77" s="18"/>
       <c r="J77" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="K77" s="18"/>
-      <c r="L77" s="8">
+      <c r="L77" s="19"/>
+      <c r="M77" s="8">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -12428,24 +12697,25 @@
         <v>347</v>
       </c>
       <c r="G78" s="2">
+        <f t="shared" si="10"/>
+        <v>346</v>
+      </c>
+      <c r="H78" s="18">
         <f t="shared" si="11"/>
         <v>346</v>
       </c>
-      <c r="H78" s="18">
-        <f t="shared" si="12"/>
-        <v>346</v>
-      </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K78" s="18"/>
-      <c r="L78" s="8">
+      <c r="L78" s="19"/>
+      <c r="M78" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -12465,24 +12735,25 @@
         <v>349</v>
       </c>
       <c r="G79" s="2">
+        <f t="shared" si="10"/>
+        <v>347.6</v>
+      </c>
+      <c r="H79" s="18">
         <f t="shared" si="11"/>
         <v>347.6</v>
       </c>
-      <c r="H79" s="18">
-        <f t="shared" si="12"/>
-        <v>347.6</v>
-      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K79" s="18"/>
-      <c r="L79" s="8">
+      <c r="L79" s="19"/>
+      <c r="M79" s="8">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -12502,24 +12773,25 @@
         <v>348</v>
       </c>
       <c r="G80" s="2">
+        <f t="shared" si="10"/>
+        <v>346.6</v>
+      </c>
+      <c r="H80" s="18">
         <f t="shared" si="11"/>
         <v>346.6</v>
       </c>
-      <c r="H80" s="18">
-        <f t="shared" si="12"/>
-        <v>346.6</v>
-      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K80" s="18"/>
-      <c r="L80" s="8">
+      <c r="L80" s="19"/>
+      <c r="M80" s="8">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -12539,24 +12811,25 @@
         <v>350</v>
       </c>
       <c r="G81" s="2">
+        <f t="shared" si="10"/>
+        <v>349</v>
+      </c>
+      <c r="H81" s="18">
         <f t="shared" si="11"/>
         <v>349</v>
       </c>
-      <c r="H81" s="18">
-        <f t="shared" si="12"/>
-        <v>349</v>
-      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K81" s="18"/>
-      <c r="L81" s="8">
+      <c r="L81" s="19"/>
+      <c r="M81" s="8">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -12576,24 +12849,25 @@
         <v>351</v>
       </c>
       <c r="G82" s="2">
+        <f t="shared" si="10"/>
+        <v>349.8</v>
+      </c>
+      <c r="H82" s="18">
         <f t="shared" si="11"/>
         <v>349.8</v>
       </c>
-      <c r="H82" s="18">
-        <f t="shared" si="12"/>
-        <v>349.8</v>
-      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K82" s="18"/>
-      <c r="L82" s="8">
+      <c r="L82" s="19"/>
+      <c r="M82" s="8">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -12613,24 +12887,25 @@
         <v>351</v>
       </c>
       <c r="G83" s="2">
+        <f t="shared" si="10"/>
+        <v>349.6</v>
+      </c>
+      <c r="H83" s="18">
         <f t="shared" si="11"/>
         <v>349.6</v>
       </c>
-      <c r="H83" s="18">
-        <f t="shared" si="12"/>
-        <v>349.6</v>
-      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K83" s="18"/>
-      <c r="L83" s="8">
+      <c r="L83" s="19"/>
+      <c r="M83" s="8">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -12650,24 +12925,25 @@
         <v>350</v>
       </c>
       <c r="G84" s="2">
+        <f t="shared" si="10"/>
+        <v>348</v>
+      </c>
+      <c r="H84" s="18">
         <f t="shared" si="11"/>
         <v>348</v>
       </c>
-      <c r="H84" s="18">
-        <f t="shared" si="12"/>
-        <v>348</v>
-      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K84" s="18"/>
-      <c r="L84" s="8">
+      <c r="L84" s="19"/>
+      <c r="M84" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -12687,24 +12963,25 @@
         <v>350</v>
       </c>
       <c r="G85" s="2">
+        <f t="shared" si="10"/>
+        <v>349</v>
+      </c>
+      <c r="H85" s="18">
         <f t="shared" si="11"/>
         <v>349</v>
       </c>
-      <c r="H85" s="18">
-        <f t="shared" si="12"/>
-        <v>349</v>
-      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K85" s="18"/>
-      <c r="L85" s="8">
+      <c r="L85" s="19"/>
+      <c r="M85" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -12724,24 +13001,25 @@
         <v>347</v>
       </c>
       <c r="G86" s="2">
+        <f t="shared" si="10"/>
+        <v>346.6</v>
+      </c>
+      <c r="H86" s="18">
         <f t="shared" si="11"/>
         <v>346.6</v>
       </c>
-      <c r="H86" s="18">
-        <f t="shared" si="12"/>
-        <v>346.6</v>
-      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K86" s="18"/>
-      <c r="L86" s="8">
+      <c r="L86" s="19"/>
+      <c r="M86" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -12761,24 +13039,25 @@
         <v>352</v>
       </c>
       <c r="G87" s="2">
+        <f t="shared" si="10"/>
+        <v>350.4</v>
+      </c>
+      <c r="H87" s="18">
         <f t="shared" si="11"/>
         <v>350.4</v>
       </c>
-      <c r="H87" s="18">
-        <f t="shared" si="12"/>
-        <v>350.4</v>
-      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K87" s="18"/>
-      <c r="L87" s="8">
+      <c r="L87" s="19"/>
+      <c r="M87" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -12798,27 +13077,28 @@
         <v>351</v>
       </c>
       <c r="G88" s="2">
+        <f t="shared" si="10"/>
+        <v>348.6</v>
+      </c>
+      <c r="H88" s="18">
         <f t="shared" si="11"/>
         <v>348.6</v>
       </c>
-      <c r="H88" s="18">
-        <f t="shared" si="12"/>
-        <v>348.6</v>
-      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K88" s="18"/>
-      <c r="L88" s="8">
+      <c r="L88" s="19"/>
+      <c r="M88" s="8">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB782C9-3C53-4EB5-8664-A8F1120D8D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C69D86-E2FE-47C3-927A-5738823ADFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題a-d" sheetId="1" r:id="rId1"/>
@@ -6408,8 +6408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE61DF3A-4BAF-4756-A3DC-7C530FC9C6E3}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7689,7 +7689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426A7079-D14C-4D77-87E0-ECB4CEC88EC2}">
   <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
@@ -7820,7 +7820,7 @@
         <v>352.4</v>
       </c>
       <c r="H3" s="18">
-        <f>IF(OR(G3&gt;=$P$6,G3&lt;=$P$7),0,G3)</f>
+        <f t="shared" ref="H3:H47" si="0">IF(OR(G3&gt;=$P$6,G3&lt;=$P$7),0,G3)</f>
         <v>352.4</v>
       </c>
       <c r="I3" s="18">
@@ -7828,7 +7828,7 @@
         <v>352.4</v>
       </c>
       <c r="J3" s="17">
-        <f>MAX(B3:F3)-MIN(B3:F3)</f>
+        <f t="shared" ref="J3:J47" si="1">MAX(B3:F3)-MIN(B3:F3)</f>
         <v>3</v>
       </c>
       <c r="K3" s="18">
@@ -7907,27 +7907,27 @@
         <v>354</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G68" si="0">AVERAGE(B4:F4)</f>
+        <f t="shared" ref="G4:G68" si="2">AVERAGE(B4:F4)</f>
         <v>353.4</v>
       </c>
       <c r="H4" s="18">
-        <f>IF(OR(G4&gt;=$P$6,G4&lt;=$P$7),0,G4)</f>
+        <f t="shared" si="0"/>
         <v>353.4</v>
       </c>
       <c r="I4" s="18">
-        <f t="shared" ref="I4:I47" si="1">IF(OR(G4&gt;=$P$22,G4&lt;=$P$23),0,G4)</f>
+        <f t="shared" ref="I4:I47" si="3">IF(OR(G4&gt;=$P$22,G4&lt;=$P$23),0,G4)</f>
         <v>353.4</v>
       </c>
       <c r="J4" s="17">
-        <f>MAX(B4:F4)-MIN(B4:F4)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K47" si="2">IF(OR(J4&gt;=$P$13,J4&lt;=$P$14),0,J4)</f>
+        <f t="shared" ref="K4:K47" si="4">IF(OR(J4&gt;=$P$13,J4&lt;=$P$14),0,J4)</f>
         <v>2</v>
       </c>
       <c r="L4" s="19">
-        <f t="shared" ref="L4:L47" si="3">IF(OR(K4&gt;=$P$29,K4&lt;=$P$30),0,K4)</f>
+        <f t="shared" ref="L4:L47" si="5">IF(OR(K4&gt;=$P$29,K4&lt;=$P$30),0,K4)</f>
         <v>2</v>
       </c>
       <c r="M4" s="8">
@@ -7944,15 +7944,15 @@
         <v>2</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R42" si="4">$P$5</f>
+        <f t="shared" ref="R4:R42" si="6">$P$5</f>
         <v>350</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S42" si="5">$P$22</f>
+        <f t="shared" ref="S4:S42" si="7">$P$22</f>
         <v>361.42043979813059</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T42" si="6">$P$23</f>
+        <f t="shared" ref="T4:T42" si="8">$P$23</f>
         <v>338.57956020186941</v>
       </c>
       <c r="U4">
@@ -7962,11 +7962,11 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W42" si="7">$P$28</f>
+        <f t="shared" ref="W4:W42" si="9">$P$28</f>
         <v>3</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X42" si="8">$P$29</f>
+        <f t="shared" ref="X4:X42" si="10">$P$29</f>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y4">
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z42" si="9">J50</f>
+        <f t="shared" ref="Z4:Z42" si="11">J50</f>
         <v>2</v>
       </c>
     </row>
@@ -7998,27 +7998,27 @@
         <v>353</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>351.6</v>
+      </c>
+      <c r="H5" s="18">
         <f t="shared" si="0"/>
         <v>351.6</v>
       </c>
-      <c r="H5" s="18">
-        <f>IF(OR(G5&gt;=$P$6,G5&lt;=$P$7),0,G5)</f>
+      <c r="I5" s="18">
+        <f t="shared" si="3"/>
         <v>351.6</v>
       </c>
-      <c r="I5" s="18">
+      <c r="J5" s="17">
         <f t="shared" si="1"/>
-        <v>351.6</v>
-      </c>
-      <c r="J5" s="17">
-        <f>MAX(B5:F5)-MIN(B5:F5)</f>
         <v>4</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M5" s="8">
@@ -8034,15 +8034,15 @@
         <v>3</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U5">
@@ -8052,11 +8052,11 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y5">
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -8088,27 +8088,27 @@
         <v>356</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>355.2</v>
+      </c>
+      <c r="H6" s="18">
         <f t="shared" si="0"/>
         <v>355.2</v>
       </c>
-      <c r="H6" s="18">
-        <f>IF(OR(G6&gt;=$P$6,G6&lt;=$P$7),0,G6)</f>
+      <c r="I6" s="18">
+        <f t="shared" si="3"/>
         <v>355.2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="J6" s="17">
         <f t="shared" si="1"/>
-        <v>355.2</v>
-      </c>
-      <c r="J6" s="17">
-        <f>MAX(B6:F6)-MIN(B6:F6)</f>
         <v>2</v>
       </c>
       <c r="K6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L6" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M6" s="8">
@@ -8125,15 +8125,15 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U6">
@@ -8143,11 +8143,11 @@
         <v>4</v>
       </c>
       <c r="W6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y6">
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -8179,27 +8179,27 @@
         <v>353</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>351.4</v>
+      </c>
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>351.4</v>
       </c>
-      <c r="H7" s="18">
-        <f>IF(OR(G7&gt;=$P$6,G7&lt;=$P$7),0,G7)</f>
+      <c r="I7" s="18">
+        <f t="shared" si="3"/>
         <v>351.4</v>
       </c>
-      <c r="I7" s="18">
+      <c r="J7" s="17">
         <f t="shared" si="1"/>
-        <v>351.4</v>
-      </c>
-      <c r="J7" s="17">
-        <f>MAX(B7:F7)-MIN(B7:F7)</f>
         <v>3</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L7" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M7" s="8">
@@ -8216,15 +8216,15 @@
         <v>5</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U7">
@@ -8234,11 +8234,11 @@
         <v>5</v>
       </c>
       <c r="W7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y7">
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -8270,27 +8270,27 @@
         <v>352</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>350.4</v>
+      </c>
+      <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>350.4</v>
       </c>
-      <c r="H8" s="18">
-        <f>IF(OR(G8&gt;=$P$6,G8&lt;=$P$7),0,G8)</f>
+      <c r="I8" s="18">
+        <f t="shared" si="3"/>
         <v>350.4</v>
       </c>
-      <c r="I8" s="18">
+      <c r="J8" s="17">
         <f t="shared" si="1"/>
-        <v>350.4</v>
-      </c>
-      <c r="J8" s="17">
-        <f>MAX(B8:F8)-MIN(B8:F8)</f>
         <v>4</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L8" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M8" s="8">
@@ -8300,15 +8300,15 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U8">
@@ -8318,11 +8318,11 @@
         <v>6</v>
       </c>
       <c r="W8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y8">
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -8354,27 +8354,27 @@
         <v>355</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>353.6</v>
+      </c>
+      <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>353.6</v>
       </c>
-      <c r="H9" s="18">
-        <f>IF(OR(G9&gt;=$P$6,G9&lt;=$P$7),0,G9)</f>
+      <c r="I9" s="18">
+        <f t="shared" si="3"/>
         <v>353.6</v>
       </c>
-      <c r="I9" s="18">
+      <c r="J9" s="17">
         <f t="shared" si="1"/>
-        <v>353.6</v>
-      </c>
-      <c r="J9" s="17">
-        <f>MAX(B9:F9)-MIN(B9:F9)</f>
         <v>4</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M9" s="8">
@@ -8391,15 +8391,15 @@
         <v>7</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U9">
@@ -8409,11 +8409,11 @@
         <v>7</v>
       </c>
       <c r="W9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y9">
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -8445,27 +8445,27 @@
         <v>353</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+      <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
-      <c r="H10" s="18">
-        <f>IF(OR(G10&gt;=$P$6,G10&lt;=$P$7),0,G10)</f>
+      <c r="I10" s="18">
+        <f t="shared" si="3"/>
         <v>351.8</v>
       </c>
-      <c r="I10" s="18">
+      <c r="J10" s="17">
         <f t="shared" si="1"/>
-        <v>351.8</v>
-      </c>
-      <c r="J10" s="17">
-        <f>MAX(B10:F10)-MIN(B10:F10)</f>
         <v>3</v>
       </c>
       <c r="K10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L10" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M10" s="8">
@@ -8482,15 +8482,15 @@
         <v>8</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U10">
@@ -8500,11 +8500,11 @@
         <v>8</v>
       </c>
       <c r="W10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y10">
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -8536,27 +8536,27 @@
         <v>354</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>353.4</v>
+      </c>
+      <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>353.4</v>
       </c>
-      <c r="H11" s="18">
-        <f>IF(OR(G11&gt;=$P$6,G11&lt;=$P$7),0,G11)</f>
+      <c r="I11" s="18">
+        <f t="shared" si="3"/>
         <v>353.4</v>
       </c>
-      <c r="I11" s="18">
+      <c r="J11" s="17">
         <f t="shared" si="1"/>
-        <v>353.4</v>
-      </c>
-      <c r="J11" s="17">
-        <f>MAX(B11:F11)-MIN(B11:F11)</f>
         <v>2</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M11" s="8">
@@ -8573,15 +8573,15 @@
         <v>9</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U11">
@@ -8591,11 +8591,11 @@
         <v>9</v>
       </c>
       <c r="W11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y11">
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -8627,27 +8627,27 @@
         <v>354</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>352.6</v>
+      </c>
+      <c r="H12" s="18">
         <f t="shared" si="0"/>
         <v>352.6</v>
       </c>
-      <c r="H12" s="18">
-        <f>IF(OR(G12&gt;=$P$6,G12&lt;=$P$7),0,G12)</f>
+      <c r="I12" s="18">
+        <f t="shared" si="3"/>
         <v>352.6</v>
       </c>
-      <c r="I12" s="18">
+      <c r="J12" s="17">
         <f t="shared" si="1"/>
-        <v>352.6</v>
-      </c>
-      <c r="J12" s="17">
-        <f>MAX(B12:F12)-MIN(B12:F12)</f>
         <v>3</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L12" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M12" s="8">
@@ -8664,15 +8664,15 @@
         <v>10</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U12">
@@ -8682,11 +8682,11 @@
         <v>10</v>
       </c>
       <c r="W12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y12">
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -8718,27 +8718,27 @@
         <v>353</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>352.4</v>
+      </c>
+      <c r="H13" s="18">
         <f t="shared" si="0"/>
         <v>352.4</v>
       </c>
-      <c r="H13" s="18">
-        <f>IF(OR(G13&gt;=$P$6,G13&lt;=$P$7),0,G13)</f>
+      <c r="I13" s="18">
+        <f t="shared" si="3"/>
         <v>352.4</v>
       </c>
-      <c r="I13" s="18">
+      <c r="J13" s="17">
         <f t="shared" si="1"/>
-        <v>352.4</v>
-      </c>
-      <c r="J13" s="17">
-        <f>MAX(B13:F13)-MIN(B13:F13)</f>
         <v>2</v>
       </c>
       <c r="K13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M13" s="8">
@@ -8755,15 +8755,15 @@
         <v>11</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U13">
@@ -8773,11 +8773,11 @@
         <v>11</v>
       </c>
       <c r="W13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y13">
@@ -8785,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
@@ -8809,27 +8809,27 @@
         <v>353</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
-      <c r="H14" s="18">
-        <f>IF(OR(G14&gt;=$P$6,G14&lt;=$P$7),0,G14)</f>
+      <c r="I14" s="18">
+        <f t="shared" si="3"/>
         <v>351.8</v>
       </c>
-      <c r="I14" s="18">
+      <c r="J14" s="17">
         <f t="shared" si="1"/>
-        <v>351.8</v>
-      </c>
-      <c r="J14" s="17">
-        <f>MAX(B14:F14)-MIN(B14:F14)</f>
         <v>2</v>
       </c>
       <c r="K14" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L14" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M14" s="8">
@@ -8846,15 +8846,15 @@
         <v>12</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U14">
@@ -8864,11 +8864,11 @@
         <v>12</v>
       </c>
       <c r="W14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y14">
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
@@ -8900,27 +8900,27 @@
         <v>351</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>350.8</v>
+      </c>
+      <c r="H15" s="18">
         <f t="shared" si="0"/>
         <v>350.8</v>
       </c>
-      <c r="H15" s="18">
-        <f>IF(OR(G15&gt;=$P$6,G15&lt;=$P$7),0,G15)</f>
+      <c r="I15" s="18">
+        <f t="shared" si="3"/>
         <v>350.8</v>
       </c>
-      <c r="I15" s="18">
+      <c r="J15" s="17">
         <f t="shared" si="1"/>
-        <v>350.8</v>
-      </c>
-      <c r="J15" s="17">
-        <f>MAX(B15:F15)-MIN(B15:F15)</f>
         <v>4</v>
       </c>
       <c r="K15" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L15" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M15" s="8">
@@ -8930,15 +8930,15 @@
         <v>13</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U15">
@@ -8948,11 +8948,11 @@
         <v>13</v>
       </c>
       <c r="W15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y15">
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -8984,27 +8984,27 @@
         <v>352</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+      <c r="H16" s="18">
         <f t="shared" si="0"/>
         <v>351.8</v>
       </c>
-      <c r="H16" s="18">
-        <f>IF(OR(G16&gt;=$P$6,G16&lt;=$P$7),0,G16)</f>
+      <c r="I16" s="18">
+        <f t="shared" si="3"/>
         <v>351.8</v>
       </c>
-      <c r="I16" s="18">
+      <c r="J16" s="17">
         <f t="shared" si="1"/>
-        <v>351.8</v>
-      </c>
-      <c r="J16" s="17">
-        <f>MAX(B16:F16)-MIN(B16:F16)</f>
         <v>3</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L16" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M16" s="8">
@@ -9017,15 +9017,15 @@
         <v>14</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U16">
@@ -9035,11 +9035,11 @@
         <v>14</v>
       </c>
       <c r="W16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y16">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -9071,27 +9071,27 @@
         <v>354</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>352.6</v>
+      </c>
+      <c r="H17" s="18">
         <f t="shared" si="0"/>
         <v>352.6</v>
       </c>
-      <c r="H17" s="18">
-        <f>IF(OR(G17&gt;=$P$6,G17&lt;=$P$7),0,G17)</f>
+      <c r="I17" s="18">
+        <f t="shared" si="3"/>
         <v>352.6</v>
       </c>
-      <c r="I17" s="18">
+      <c r="J17" s="17">
         <f t="shared" si="1"/>
-        <v>352.6</v>
-      </c>
-      <c r="J17" s="17">
-        <f>MAX(B17:F17)-MIN(B17:F17)</f>
         <v>3</v>
       </c>
       <c r="K17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L17" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M17" s="8">
@@ -9108,15 +9108,15 @@
         <v>15</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U17">
@@ -9126,11 +9126,11 @@
         <v>15</v>
       </c>
       <c r="W17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y17">
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -9162,27 +9162,27 @@
         <v>351</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+      <c r="H18" s="18">
         <f t="shared" si="0"/>
         <v>351</v>
       </c>
-      <c r="H18" s="18">
-        <f>IF(OR(G18&gt;=$P$6,G18&lt;=$P$7),0,G18)</f>
+      <c r="I18" s="18">
+        <f t="shared" si="3"/>
         <v>351</v>
       </c>
-      <c r="I18" s="18">
+      <c r="J18" s="17">
         <f t="shared" si="1"/>
-        <v>351</v>
-      </c>
-      <c r="J18" s="17">
-        <f>MAX(B18:F18)-MIN(B18:F18)</f>
         <v>2</v>
       </c>
       <c r="K18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L18" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M18" s="8">
@@ -9199,15 +9199,15 @@
         <v>16</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U18">
@@ -9217,11 +9217,11 @@
         <v>16</v>
       </c>
       <c r="W18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y18">
@@ -9229,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -9253,27 +9253,27 @@
         <v>354</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>352.8</v>
+      </c>
+      <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>352.8</v>
       </c>
-      <c r="H19" s="18">
-        <f>IF(OR(G19&gt;=$P$6,G19&lt;=$P$7),0,G19)</f>
+      <c r="I19" s="18">
+        <f t="shared" si="3"/>
         <v>352.8</v>
       </c>
-      <c r="I19" s="18">
+      <c r="J19" s="17">
         <f t="shared" si="1"/>
-        <v>352.8</v>
-      </c>
-      <c r="J19" s="17">
-        <f>MAX(B19:F19)-MIN(B19:F19)</f>
         <v>2</v>
       </c>
       <c r="K19" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L19" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M19" s="8">
@@ -9290,15 +9290,15 @@
         <v>17</v>
       </c>
       <c r="R19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U19">
@@ -9308,11 +9308,11 @@
         <v>17</v>
       </c>
       <c r="W19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y19">
@@ -9320,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -9344,27 +9344,27 @@
         <v>340</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>339.4</v>
+      </c>
+      <c r="H20" s="18">
         <f t="shared" si="0"/>
         <v>339.4</v>
       </c>
-      <c r="H20" s="18">
-        <f>IF(OR(G20&gt;=$P$6,G20&lt;=$P$7),0,G20)</f>
+      <c r="I20" s="18">
+        <f t="shared" si="3"/>
         <v>339.4</v>
       </c>
-      <c r="I20" s="18">
+      <c r="J20" s="17">
         <f t="shared" si="1"/>
-        <v>339.4</v>
-      </c>
-      <c r="J20" s="17">
-        <f>MAX(B20:F20)-MIN(B20:F20)</f>
         <v>4</v>
       </c>
       <c r="K20" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L20" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M20" s="8">
@@ -9381,15 +9381,15 @@
         <v>18</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U20">
@@ -9399,11 +9399,11 @@
         <v>18</v>
       </c>
       <c r="W20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y20">
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -9435,27 +9435,27 @@
         <v>345</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>345.4</v>
+      </c>
+      <c r="H21" s="18">
         <f t="shared" si="0"/>
         <v>345.4</v>
       </c>
-      <c r="H21" s="18">
-        <f>IF(OR(G21&gt;=$P$6,G21&lt;=$P$7),0,G21)</f>
+      <c r="I21" s="18">
+        <f t="shared" si="3"/>
         <v>345.4</v>
       </c>
-      <c r="I21" s="18">
+      <c r="J21" s="17">
         <f t="shared" si="1"/>
-        <v>345.4</v>
-      </c>
-      <c r="J21" s="17">
-        <f>MAX(B21:F21)-MIN(B21:F21)</f>
         <v>3</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L21" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M21" s="8">
@@ -9472,15 +9472,15 @@
         <v>19</v>
       </c>
       <c r="R21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U21">
@@ -9490,11 +9490,11 @@
         <v>19</v>
       </c>
       <c r="W21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y21">
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -9526,27 +9526,27 @@
         <v>345</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>343.6</v>
+      </c>
+      <c r="H22" s="18">
         <f t="shared" si="0"/>
         <v>343.6</v>
       </c>
-      <c r="H22" s="18">
-        <f>IF(OR(G22&gt;=$P$6,G22&lt;=$P$7),0,G22)</f>
+      <c r="I22" s="18">
+        <f t="shared" si="3"/>
         <v>343.6</v>
       </c>
-      <c r="I22" s="18">
+      <c r="J22" s="17">
         <f t="shared" si="1"/>
-        <v>343.6</v>
-      </c>
-      <c r="J22" s="17">
-        <f>MAX(B22:F22)-MIN(B22:F22)</f>
         <v>2</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M22" s="8">
@@ -9563,15 +9563,15 @@
         <v>20</v>
       </c>
       <c r="R22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U22">
@@ -9581,11 +9581,11 @@
         <v>20</v>
       </c>
       <c r="W22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y22">
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -9617,27 +9617,27 @@
         <v>345</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="H23" s="18">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="H23" s="18">
-        <f>IF(OR(G23&gt;=$P$6,G23&lt;=$P$7),0,G23)</f>
+      <c r="I23" s="18">
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="I23" s="18">
+      <c r="J23" s="17">
         <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="J23" s="17">
-        <f>MAX(B23:F23)-MIN(B23:F23)</f>
         <v>2</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L23" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M23" s="8">
@@ -9654,15 +9654,15 @@
         <v>21</v>
       </c>
       <c r="R23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U23">
@@ -9672,11 +9672,11 @@
         <v>21</v>
       </c>
       <c r="W23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y23">
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -9708,27 +9708,27 @@
         <v>347</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="H24" s="18">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="H24" s="18">
-        <f>IF(OR(G24&gt;=$P$6,G24&lt;=$P$7),0,G24)</f>
+      <c r="I24" s="18">
+        <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="I24" s="18">
+      <c r="J24" s="17">
         <f t="shared" si="1"/>
-        <v>346</v>
-      </c>
-      <c r="J24" s="17">
-        <f>MAX(B24:F24)-MIN(B24:F24)</f>
         <v>2</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L24" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M24" s="8">
@@ -9738,15 +9738,15 @@
         <v>22</v>
       </c>
       <c r="R24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U24">
@@ -9756,11 +9756,11 @@
         <v>22</v>
       </c>
       <c r="W24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y24">
@@ -9768,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -9792,27 +9792,27 @@
         <v>350</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="H25" s="18">
-        <f>IF(OR(G25&gt;=$P$6,G25&lt;=$P$7),0,G25)</f>
+      <c r="I25" s="18">
+        <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="I25" s="18">
+      <c r="J25" s="17">
         <f t="shared" si="1"/>
-        <v>348</v>
-      </c>
-      <c r="J25" s="17">
-        <f>MAX(B25:F25)-MIN(B25:F25)</f>
         <v>4</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L25" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M25" s="8">
@@ -9829,15 +9829,15 @@
         <v>23</v>
       </c>
       <c r="R25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U25">
@@ -9847,11 +9847,11 @@
         <v>23</v>
       </c>
       <c r="W25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y25">
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -9883,27 +9883,27 @@
         <v>350</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>348.2</v>
+      </c>
+      <c r="H26" s="18">
         <f t="shared" si="0"/>
         <v>348.2</v>
       </c>
-      <c r="H26" s="18">
-        <f>IF(OR(G26&gt;=$P$6,G26&lt;=$P$7),0,G26)</f>
+      <c r="I26" s="18">
+        <f t="shared" si="3"/>
         <v>348.2</v>
       </c>
-      <c r="I26" s="18">
+      <c r="J26" s="17">
         <f t="shared" si="1"/>
-        <v>348.2</v>
-      </c>
-      <c r="J26" s="17">
-        <f>MAX(B26:F26)-MIN(B26:F26)</f>
         <v>4</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L26" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M26" s="8">
@@ -9920,15 +9920,15 @@
         <v>24</v>
       </c>
       <c r="R26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U26">
@@ -9938,11 +9938,11 @@
         <v>24</v>
       </c>
       <c r="W26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y26">
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -9974,27 +9974,27 @@
         <v>349</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>347.4</v>
+      </c>
+      <c r="H27" s="18">
         <f t="shared" si="0"/>
         <v>347.4</v>
       </c>
-      <c r="H27" s="18">
-        <f>IF(OR(G27&gt;=$P$6,G27&lt;=$P$7),0,G27)</f>
+      <c r="I27" s="18">
+        <f t="shared" si="3"/>
         <v>347.4</v>
       </c>
-      <c r="I27" s="18">
+      <c r="J27" s="17">
         <f t="shared" si="1"/>
-        <v>347.4</v>
-      </c>
-      <c r="J27" s="17">
-        <f>MAX(B27:F27)-MIN(B27:F27)</f>
         <v>3</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L27" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M27" s="8">
@@ -10011,15 +10011,15 @@
         <v>25</v>
       </c>
       <c r="R27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U27">
@@ -10029,11 +10029,11 @@
         <v>25</v>
       </c>
       <c r="W27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y27">
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -10065,27 +10065,27 @@
         <v>346</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>344.4</v>
+      </c>
+      <c r="H28" s="18">
         <f t="shared" si="0"/>
         <v>344.4</v>
       </c>
-      <c r="H28" s="18">
-        <f>IF(OR(G28&gt;=$P$6,G28&lt;=$P$7),0,G28)</f>
+      <c r="I28" s="18">
+        <f t="shared" si="3"/>
         <v>344.4</v>
       </c>
-      <c r="I28" s="18">
+      <c r="J28" s="17">
         <f t="shared" si="1"/>
-        <v>344.4</v>
-      </c>
-      <c r="J28" s="17">
-        <f>MAX(B28:F28)-MIN(B28:F28)</f>
         <v>3</v>
       </c>
       <c r="K28" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L28" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M28" s="8">
@@ -10102,15 +10102,15 @@
         <v>26</v>
       </c>
       <c r="R28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U28">
@@ -10120,11 +10120,11 @@
         <v>26</v>
       </c>
       <c r="W28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y28">
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10156,27 +10156,27 @@
         <v>339</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>337.4</v>
+      </c>
+      <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>337.4</v>
-      </c>
-      <c r="H29" s="18">
-        <f>IF(OR(G29&gt;=$P$6,G29&lt;=$P$7),0,G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
-        <f>MAX(B29:F29)-MIN(B29:F29)</f>
         <v>3</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L29" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M29" s="8">
@@ -10193,15 +10193,15 @@
         <v>27</v>
       </c>
       <c r="R29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U29">
@@ -10211,11 +10211,11 @@
         <v>27</v>
       </c>
       <c r="W29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y29">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -10247,27 +10247,27 @@
         <v>346</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>344.6</v>
+      </c>
+      <c r="H30" s="18">
         <f t="shared" si="0"/>
         <v>344.6</v>
       </c>
-      <c r="H30" s="18">
-        <f>IF(OR(G30&gt;=$P$6,G30&lt;=$P$7),0,G30)</f>
+      <c r="I30" s="18">
+        <f t="shared" si="3"/>
         <v>344.6</v>
       </c>
-      <c r="I30" s="18">
+      <c r="J30" s="17">
         <f t="shared" si="1"/>
-        <v>344.6</v>
-      </c>
-      <c r="J30" s="17">
-        <f>MAX(B30:F30)-MIN(B30:F30)</f>
         <v>2</v>
       </c>
       <c r="K30" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M30" s="8">
@@ -10284,15 +10284,15 @@
         <v>28</v>
       </c>
       <c r="R30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U30">
@@ -10302,11 +10302,11 @@
         <v>28</v>
       </c>
       <c r="W30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y30">
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10338,27 +10338,27 @@
         <v>348</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>345.8</v>
+      </c>
+      <c r="H31" s="18">
         <f t="shared" si="0"/>
         <v>345.8</v>
       </c>
-      <c r="H31" s="18">
-        <f>IF(OR(G31&gt;=$P$6,G31&lt;=$P$7),0,G31)</f>
+      <c r="I31" s="18">
+        <f t="shared" si="3"/>
         <v>345.8</v>
       </c>
-      <c r="I31" s="18">
+      <c r="J31" s="17">
         <f t="shared" si="1"/>
-        <v>345.8</v>
-      </c>
-      <c r="J31" s="17">
-        <f>MAX(B31:F31)-MIN(B31:F31)</f>
         <v>3</v>
       </c>
       <c r="K31" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L31" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M31" s="8">
@@ -10368,15 +10368,15 @@
         <v>29</v>
       </c>
       <c r="R31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U31">
@@ -10386,11 +10386,11 @@
         <v>29</v>
       </c>
       <c r="W31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y31">
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -10422,27 +10422,27 @@
         <v>346</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="H32" s="18">
         <f t="shared" si="0"/>
         <v>345</v>
       </c>
-      <c r="H32" s="18">
-        <f>IF(OR(G32&gt;=$P$6,G32&lt;=$P$7),0,G32)</f>
+      <c r="I32" s="18">
+        <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="I32" s="18">
+      <c r="J32" s="17">
         <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="J32" s="17">
-        <f>MAX(B32:F32)-MIN(B32:F32)</f>
         <v>2</v>
       </c>
       <c r="K32" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M32" s="8">
@@ -10452,15 +10452,15 @@
         <v>30</v>
       </c>
       <c r="R32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U32">
@@ -10470,11 +10470,11 @@
         <v>30</v>
       </c>
       <c r="W32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y32">
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10506,27 +10506,27 @@
         <v>347</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>345.2</v>
+      </c>
+      <c r="H33" s="18">
         <f t="shared" si="0"/>
         <v>345.2</v>
       </c>
-      <c r="H33" s="18">
-        <f>IF(OR(G33&gt;=$P$6,G33&lt;=$P$7),0,G33)</f>
+      <c r="I33" s="18">
+        <f t="shared" si="3"/>
         <v>345.2</v>
       </c>
-      <c r="I33" s="18">
+      <c r="J33" s="17">
         <f t="shared" si="1"/>
-        <v>345.2</v>
-      </c>
-      <c r="J33" s="17">
-        <f>MAX(B33:F33)-MIN(B33:F33)</f>
         <v>3</v>
       </c>
       <c r="K33" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L33" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M33" s="8">
@@ -10536,15 +10536,15 @@
         <v>31</v>
       </c>
       <c r="R33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U33">
@@ -10554,11 +10554,11 @@
         <v>31</v>
       </c>
       <c r="W33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y33">
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10590,27 +10590,27 @@
         <v>350</v>
       </c>
       <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>348.8</v>
+      </c>
+      <c r="H34" s="18">
         <f t="shared" si="0"/>
         <v>348.8</v>
       </c>
-      <c r="H34" s="18">
-        <f>IF(OR(G34&gt;=$P$6,G34&lt;=$P$7),0,G34)</f>
+      <c r="I34" s="18">
+        <f t="shared" si="3"/>
         <v>348.8</v>
       </c>
-      <c r="I34" s="18">
+      <c r="J34" s="17">
         <f t="shared" si="1"/>
-        <v>348.8</v>
-      </c>
-      <c r="J34" s="17">
-        <f>MAX(B34:F34)-MIN(B34:F34)</f>
         <v>2</v>
       </c>
       <c r="K34" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L34" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M34" s="8">
@@ -10620,15 +10620,15 @@
         <v>32</v>
       </c>
       <c r="R34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U34">
@@ -10638,11 +10638,11 @@
         <v>32</v>
       </c>
       <c r="W34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y34">
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10674,27 +10674,27 @@
         <v>349</v>
       </c>
       <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>349.2</v>
+      </c>
+      <c r="H35" s="18">
         <f t="shared" si="0"/>
         <v>349.2</v>
       </c>
-      <c r="H35" s="18">
-        <f>IF(OR(G35&gt;=$P$6,G35&lt;=$P$7),0,G35)</f>
+      <c r="I35" s="18">
+        <f t="shared" si="3"/>
         <v>349.2</v>
       </c>
-      <c r="I35" s="18">
+      <c r="J35" s="17">
         <f t="shared" si="1"/>
-        <v>349.2</v>
-      </c>
-      <c r="J35" s="17">
-        <f>MAX(B35:F35)-MIN(B35:F35)</f>
         <v>2</v>
       </c>
       <c r="K35" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M35" s="8">
@@ -10704,15 +10704,15 @@
         <v>33</v>
       </c>
       <c r="R35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U35">
@@ -10722,11 +10722,11 @@
         <v>33</v>
       </c>
       <c r="W35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y35">
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10758,27 +10758,27 @@
         <v>349</v>
       </c>
       <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>347.6</v>
+      </c>
+      <c r="H36" s="18">
         <f t="shared" si="0"/>
         <v>347.6</v>
       </c>
-      <c r="H36" s="18">
-        <f>IF(OR(G36&gt;=$P$6,G36&lt;=$P$7),0,G36)</f>
+      <c r="I36" s="18">
+        <f t="shared" si="3"/>
         <v>347.6</v>
       </c>
-      <c r="I36" s="18">
+      <c r="J36" s="17">
         <f t="shared" si="1"/>
-        <v>347.6</v>
-      </c>
-      <c r="J36" s="17">
-        <f>MAX(B36:F36)-MIN(B36:F36)</f>
         <v>4</v>
       </c>
       <c r="K36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L36" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M36" s="8">
@@ -10788,15 +10788,15 @@
         <v>34</v>
       </c>
       <c r="R36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U36">
@@ -10806,11 +10806,11 @@
         <v>34</v>
       </c>
       <c r="W36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y36">
@@ -10818,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10842,27 +10842,27 @@
         <v>348</v>
       </c>
       <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>347.6</v>
+      </c>
+      <c r="H37" s="18">
         <f t="shared" si="0"/>
         <v>347.6</v>
       </c>
-      <c r="H37" s="18">
-        <f>IF(OR(G37&gt;=$P$6,G37&lt;=$P$7),0,G37)</f>
+      <c r="I37" s="18">
+        <f t="shared" si="3"/>
         <v>347.6</v>
       </c>
-      <c r="I37" s="18">
+      <c r="J37" s="17">
         <f t="shared" si="1"/>
-        <v>347.6</v>
-      </c>
-      <c r="J37" s="17">
-        <f>MAX(B37:F37)-MIN(B37:F37)</f>
         <v>4</v>
       </c>
       <c r="K37" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L37" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M37" s="8">
@@ -10872,15 +10872,15 @@
         <v>35</v>
       </c>
       <c r="R37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U37">
@@ -10890,11 +10890,11 @@
         <v>35</v>
       </c>
       <c r="W37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y37">
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -10926,27 +10926,27 @@
         <v>359</v>
       </c>
       <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>354.6</v>
+      </c>
+      <c r="H38" s="18">
         <f t="shared" si="0"/>
         <v>354.6</v>
       </c>
-      <c r="H38" s="18">
-        <f>IF(OR(G38&gt;=$P$6,G38&lt;=$P$7),0,G38)</f>
+      <c r="I38" s="18">
+        <f t="shared" si="3"/>
         <v>354.6</v>
       </c>
-      <c r="I38" s="18">
+      <c r="J38" s="17">
         <f t="shared" si="1"/>
-        <v>354.6</v>
-      </c>
-      <c r="J38" s="17">
-        <f>MAX(B38:F38)-MIN(B38:F38)</f>
         <v>10</v>
       </c>
       <c r="K38" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L38" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M38" s="8">
@@ -10956,15 +10956,15 @@
         <v>36</v>
       </c>
       <c r="R38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U38">
@@ -10974,11 +10974,11 @@
         <v>36</v>
       </c>
       <c r="W38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y38">
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -11010,27 +11010,27 @@
         <v>345</v>
       </c>
       <c r="G39" s="2">
+        <f t="shared" si="2"/>
+        <v>344.2</v>
+      </c>
+      <c r="H39" s="18">
         <f t="shared" si="0"/>
         <v>344.2</v>
       </c>
-      <c r="H39" s="18">
-        <f>IF(OR(G39&gt;=$P$6,G39&lt;=$P$7),0,G39)</f>
+      <c r="I39" s="18">
+        <f t="shared" si="3"/>
         <v>344.2</v>
       </c>
-      <c r="I39" s="18">
+      <c r="J39" s="17">
         <f t="shared" si="1"/>
-        <v>344.2</v>
-      </c>
-      <c r="J39" s="17">
-        <f>MAX(B39:F39)-MIN(B39:F39)</f>
         <v>4</v>
       </c>
       <c r="K39" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L39" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M39" s="8">
@@ -11040,15 +11040,15 @@
         <v>37</v>
       </c>
       <c r="R39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U39">
@@ -11058,11 +11058,11 @@
         <v>37</v>
       </c>
       <c r="W39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y39">
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -11094,27 +11094,27 @@
         <v>354</v>
       </c>
       <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>351.6</v>
+      </c>
+      <c r="H40" s="18">
         <f t="shared" si="0"/>
         <v>351.6</v>
       </c>
-      <c r="H40" s="18">
-        <f>IF(OR(G40&gt;=$P$6,G40&lt;=$P$7),0,G40)</f>
+      <c r="I40" s="18">
+        <f t="shared" si="3"/>
         <v>351.6</v>
       </c>
-      <c r="I40" s="18">
+      <c r="J40" s="17">
         <f t="shared" si="1"/>
-        <v>351.6</v>
-      </c>
-      <c r="J40" s="17">
-        <f>MAX(B40:F40)-MIN(B40:F40)</f>
         <v>4</v>
       </c>
       <c r="K40" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L40" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M40" s="8">
@@ -11124,15 +11124,15 @@
         <v>38</v>
       </c>
       <c r="R40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U40">
@@ -11142,11 +11142,11 @@
         <v>38</v>
       </c>
       <c r="W40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y40">
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -11178,27 +11178,27 @@
         <v>344</v>
       </c>
       <c r="G41" s="2">
+        <f t="shared" si="2"/>
+        <v>342.2</v>
+      </c>
+      <c r="H41" s="18">
         <f t="shared" si="0"/>
         <v>342.2</v>
       </c>
-      <c r="H41" s="18">
-        <f>IF(OR(G41&gt;=$P$6,G41&lt;=$P$7),0,G41)</f>
+      <c r="I41" s="18">
+        <f t="shared" si="3"/>
         <v>342.2</v>
       </c>
-      <c r="I41" s="18">
+      <c r="J41" s="17">
         <f t="shared" si="1"/>
-        <v>342.2</v>
-      </c>
-      <c r="J41" s="17">
-        <f>MAX(B41:F41)-MIN(B41:F41)</f>
         <v>4</v>
       </c>
       <c r="K41" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L41" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M41" s="8">
@@ -11208,15 +11208,15 @@
         <v>39</v>
       </c>
       <c r="R41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U41">
@@ -11226,11 +11226,11 @@
         <v>39</v>
       </c>
       <c r="W41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y41">
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -11262,27 +11262,27 @@
         <v>351</v>
       </c>
       <c r="G42" s="2">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="H42" s="18">
         <f t="shared" si="0"/>
         <v>349</v>
       </c>
-      <c r="H42" s="18">
-        <f>IF(OR(G42&gt;=$P$6,G42&lt;=$P$7),0,G42)</f>
+      <c r="I42" s="18">
+        <f t="shared" si="3"/>
         <v>349</v>
       </c>
-      <c r="I42" s="18">
+      <c r="J42" s="17">
         <f t="shared" si="1"/>
-        <v>349</v>
-      </c>
-      <c r="J42" s="17">
-        <f>MAX(B42:F42)-MIN(B42:F42)</f>
         <v>4</v>
       </c>
       <c r="K42" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L42" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M42" s="8">
@@ -11292,15 +11292,15 @@
         <v>40</v>
       </c>
       <c r="R42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="S42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>361.42043979813059</v>
       </c>
       <c r="T42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>338.57956020186941</v>
       </c>
       <c r="U42">
@@ -11310,11 +11310,11 @@
         <v>40</v>
       </c>
       <c r="W42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5354627641855494</v>
       </c>
       <c r="Y42">
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -11346,27 +11346,27 @@
         <v>350</v>
       </c>
       <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>348.4</v>
+      </c>
+      <c r="H43" s="18">
         <f t="shared" si="0"/>
         <v>348.4</v>
       </c>
-      <c r="H43" s="18">
-        <f>IF(OR(G43&gt;=$P$6,G43&lt;=$P$7),0,G43)</f>
+      <c r="I43" s="18">
+        <f t="shared" si="3"/>
         <v>348.4</v>
       </c>
-      <c r="I43" s="18">
+      <c r="J43" s="17">
         <f t="shared" si="1"/>
-        <v>348.4</v>
-      </c>
-      <c r="J43" s="17">
-        <f>MAX(B43:F43)-MIN(B43:F43)</f>
         <v>3</v>
       </c>
       <c r="K43" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L43" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M43" s="8">
@@ -11393,27 +11393,27 @@
         <v>349</v>
       </c>
       <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>348.8</v>
+      </c>
+      <c r="H44" s="18">
         <f t="shared" si="0"/>
         <v>348.8</v>
       </c>
-      <c r="H44" s="18">
-        <f>IF(OR(G44&gt;=$P$6,G44&lt;=$P$7),0,G44)</f>
+      <c r="I44" s="18">
+        <f t="shared" si="3"/>
         <v>348.8</v>
       </c>
-      <c r="I44" s="18">
+      <c r="J44" s="17">
         <f t="shared" si="1"/>
-        <v>348.8</v>
-      </c>
-      <c r="J44" s="17">
-        <f>MAX(B44:F44)-MIN(B44:F44)</f>
         <v>3</v>
       </c>
       <c r="K44" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="L44" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="M44" s="8">
@@ -11440,27 +11440,27 @@
         <v>349</v>
       </c>
       <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>347.8</v>
+      </c>
+      <c r="H45" s="18">
         <f t="shared" si="0"/>
         <v>347.8</v>
       </c>
-      <c r="H45" s="18">
-        <f>IF(OR(G45&gt;=$P$6,G45&lt;=$P$7),0,G45)</f>
+      <c r="I45" s="18">
+        <f t="shared" si="3"/>
         <v>347.8</v>
       </c>
-      <c r="I45" s="18">
+      <c r="J45" s="17">
         <f t="shared" si="1"/>
-        <v>347.8</v>
-      </c>
-      <c r="J45" s="17">
-        <f>MAX(B45:F45)-MIN(B45:F45)</f>
         <v>2</v>
       </c>
       <c r="K45" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L45" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M45" s="8">
@@ -11487,27 +11487,27 @@
         <v>350</v>
       </c>
       <c r="G46" s="2">
+        <f t="shared" si="2"/>
+        <v>348.6</v>
+      </c>
+      <c r="H46" s="18">
         <f t="shared" si="0"/>
         <v>348.6</v>
       </c>
-      <c r="H46" s="18">
-        <f>IF(OR(G46&gt;=$P$6,G46&lt;=$P$7),0,G46)</f>
+      <c r="I46" s="18">
+        <f t="shared" si="3"/>
         <v>348.6</v>
       </c>
-      <c r="I46" s="18">
+      <c r="J46" s="17">
         <f t="shared" si="1"/>
-        <v>348.6</v>
-      </c>
-      <c r="J46" s="17">
-        <f>MAX(B46:F46)-MIN(B46:F46)</f>
         <v>4</v>
       </c>
       <c r="K46" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L46" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M46" s="8">
@@ -11534,27 +11534,27 @@
         <v>342</v>
       </c>
       <c r="G47" s="2">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="H47" s="18">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="H47" s="18">
-        <f>IF(OR(G47&gt;=$P$6,G47&lt;=$P$7),0,G47)</f>
+      <c r="I47" s="18">
+        <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="I47" s="18">
+      <c r="J47" s="17">
         <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="J47" s="17">
-        <f>MAX(B47:F47)-MIN(B47:F47)</f>
         <v>4</v>
       </c>
       <c r="K47" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L47" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M47" s="8">
@@ -11595,16 +11595,16 @@
         <v>351</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.2</v>
       </c>
       <c r="H49" s="18">
-        <f>IF(OR(G49&gt;=$P$6,G49&lt;=$P$7),0,G49)</f>
+        <f t="shared" ref="H49:H68" si="12">IF(OR(G49&gt;=$P$6,G49&lt;=$P$7),0,G49)</f>
         <v>349.2</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="17">
-        <f>MAX(B49:F49)-MIN(B49:F49)</f>
+        <f t="shared" ref="J49:J68" si="13">MAX(B49:F49)-MIN(B49:F49)</f>
         <v>4</v>
       </c>
       <c r="K49" s="18"/>
@@ -11633,16 +11633,16 @@
         <v>351</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.6</v>
       </c>
       <c r="H50" s="18">
-        <f>IF(OR(G50&gt;=$P$6,G50&lt;=$P$7),0,G50)</f>
+        <f t="shared" si="12"/>
         <v>349.6</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="17">
-        <f>MAX(B50:F50)-MIN(B50:F50)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K50" s="18"/>
@@ -11671,16 +11671,16 @@
         <v>345</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>343.2</v>
       </c>
       <c r="H51" s="18">
-        <f>IF(OR(G51&gt;=$P$6,G51&lt;=$P$7),0,G51)</f>
+        <f t="shared" si="12"/>
         <v>343.2</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="17">
-        <f>MAX(B51:F51)-MIN(B51:F51)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K51" s="18"/>
@@ -11709,16 +11709,16 @@
         <v>345</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>343.6</v>
       </c>
       <c r="H52" s="18">
-        <f>IF(OR(G52&gt;=$P$6,G52&lt;=$P$7),0,G52)</f>
+        <f t="shared" si="12"/>
         <v>343.6</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="17">
-        <f>MAX(B52:F52)-MIN(B52:F52)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K52" s="18"/>
@@ -11747,16 +11747,16 @@
         <v>350</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.2</v>
       </c>
       <c r="H53" s="18">
-        <f>IF(OR(G53&gt;=$P$6,G53&lt;=$P$7),0,G53)</f>
+        <f t="shared" si="12"/>
         <v>349.2</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="17">
-        <f>MAX(B53:F53)-MIN(B53:F53)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K53" s="18"/>
@@ -11785,16 +11785,16 @@
         <v>350</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.4</v>
       </c>
       <c r="H54" s="18">
-        <f>IF(OR(G54&gt;=$P$6,G54&lt;=$P$7),0,G54)</f>
+        <f t="shared" si="12"/>
         <v>349.4</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="17">
-        <f>MAX(B54:F54)-MIN(B54:F54)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K54" s="18"/>
@@ -11823,16 +11823,16 @@
         <v>356</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>354.6</v>
       </c>
       <c r="H55" s="18">
-        <f>IF(OR(G55&gt;=$P$6,G55&lt;=$P$7),0,G55)</f>
+        <f t="shared" si="12"/>
         <v>354.6</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="17">
-        <f>MAX(B55:F55)-MIN(B55:F55)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K55" s="18"/>
@@ -11861,16 +11861,16 @@
         <v>350</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349</v>
       </c>
       <c r="H56" s="18">
-        <f>IF(OR(G56&gt;=$P$6,G56&lt;=$P$7),0,G56)</f>
+        <f t="shared" si="12"/>
         <v>349</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="17">
-        <f>MAX(B56:F56)-MIN(B56:F56)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K56" s="18"/>
@@ -11899,16 +11899,16 @@
         <v>352</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>350.4</v>
       </c>
       <c r="H57" s="18">
-        <f>IF(OR(G57&gt;=$P$6,G57&lt;=$P$7),0,G57)</f>
+        <f t="shared" si="12"/>
         <v>350.4</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="17">
-        <f>MAX(B57:F57)-MIN(B57:F57)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K57" s="18"/>
@@ -11937,16 +11937,16 @@
         <v>351</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.8</v>
       </c>
       <c r="H58" s="18">
-        <f>IF(OR(G58&gt;=$P$6,G58&lt;=$P$7),0,G58)</f>
+        <f t="shared" si="12"/>
         <v>349.8</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="17">
-        <f>MAX(B58:F58)-MIN(B58:F58)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K58" s="18"/>
@@ -11975,16 +11975,16 @@
         <v>356</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.4</v>
       </c>
       <c r="H59" s="18">
-        <f>IF(OR(G59&gt;=$P$6,G59&lt;=$P$7),0,G59)</f>
+        <f t="shared" si="12"/>
         <v>349.4</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="17">
-        <f>MAX(B59:F59)-MIN(B59:F59)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="K59" s="18"/>
@@ -12013,16 +12013,16 @@
         <v>355</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.2</v>
       </c>
       <c r="H60" s="18">
-        <f>IF(OR(G60&gt;=$P$6,G60&lt;=$P$7),0,G60)</f>
+        <f t="shared" si="12"/>
         <v>349.2</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="17">
-        <f>MAX(B60:F60)-MIN(B60:F60)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="K60" s="18"/>
@@ -12051,16 +12051,16 @@
         <v>348</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>347</v>
       </c>
       <c r="H61" s="18">
-        <f>IF(OR(G61&gt;=$P$6,G61&lt;=$P$7),0,G61)</f>
+        <f t="shared" si="12"/>
         <v>347</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="17">
-        <f>MAX(B61:F61)-MIN(B61:F61)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K61" s="18"/>
@@ -12089,16 +12089,16 @@
         <v>349</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>347.8</v>
       </c>
       <c r="H62" s="18">
-        <f>IF(OR(G62&gt;=$P$6,G62&lt;=$P$7),0,G62)</f>
+        <f t="shared" si="12"/>
         <v>347.8</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="17">
-        <f>MAX(B62:F62)-MIN(B62:F62)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K62" s="18"/>
@@ -12127,16 +12127,16 @@
         <v>353</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>350.4</v>
       </c>
       <c r="H63" s="18">
-        <f>IF(OR(G63&gt;=$P$6,G63&lt;=$P$7),0,G63)</f>
+        <f t="shared" si="12"/>
         <v>350.4</v>
       </c>
       <c r="I63" s="18"/>
       <c r="J63" s="17">
-        <f>MAX(B63:F63)-MIN(B63:F63)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K63" s="18"/>
@@ -12165,16 +12165,16 @@
         <v>351</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.8</v>
       </c>
       <c r="H64" s="18">
-        <f>IF(OR(G64&gt;=$P$6,G64&lt;=$P$7),0,G64)</f>
+        <f t="shared" si="12"/>
         <v>349.8</v>
       </c>
       <c r="I64" s="18"/>
       <c r="J64" s="17">
-        <f>MAX(B64:F64)-MIN(B64:F64)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K64" s="18"/>
@@ -12203,16 +12203,16 @@
         <v>351</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.8</v>
       </c>
       <c r="H65" s="18">
-        <f>IF(OR(G65&gt;=$P$6,G65&lt;=$P$7),0,G65)</f>
+        <f t="shared" si="12"/>
         <v>349.8</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="17">
-        <f>MAX(B65:F65)-MIN(B65:F65)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K65" s="18"/>
@@ -12241,16 +12241,16 @@
         <v>348</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>346.6</v>
       </c>
       <c r="H66" s="18">
-        <f>IF(OR(G66&gt;=$P$6,G66&lt;=$P$7),0,G66)</f>
+        <f t="shared" si="12"/>
         <v>346.6</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="17">
-        <f>MAX(B66:F66)-MIN(B66:F66)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="K66" s="18"/>
@@ -12279,16 +12279,16 @@
         <v>350</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>348.6</v>
       </c>
       <c r="H67" s="18">
-        <f>IF(OR(G67&gt;=$P$6,G67&lt;=$P$7),0,G67)</f>
+        <f t="shared" si="12"/>
         <v>348.6</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="17">
-        <f>MAX(B67:F67)-MIN(B67:F67)</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="K67" s="18"/>
@@ -12317,16 +12317,16 @@
         <v>352</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>350.6</v>
       </c>
       <c r="H68" s="18">
-        <f>IF(OR(G68&gt;=$P$6,G68&lt;=$P$7),0,G68)</f>
+        <f t="shared" si="12"/>
         <v>350.6</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="17">
-        <f>MAX(B68:F68)-MIN(B68:F68)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K68" s="18"/>
@@ -12355,16 +12355,16 @@
         <v>349</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G88" si="10">AVERAGE(B69:F69)</f>
+        <f t="shared" ref="G69:G88" si="14">AVERAGE(B69:F69)</f>
         <v>347.8</v>
       </c>
       <c r="H69" s="18">
-        <f t="shared" ref="H69:H88" si="11">IF(OR(G69&gt;=$P$6,G69&lt;=$P$7),0,G69)</f>
+        <f t="shared" ref="H69:H88" si="15">IF(OR(G69&gt;=$P$6,G69&lt;=$P$7),0,G69)</f>
         <v>347.8</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="17">
-        <f t="shared" ref="J69:J88" si="12">MAX(B69:F69)-MIN(B69:F69)</f>
+        <f t="shared" ref="J69:J88" si="16">MAX(B69:F69)-MIN(B69:F69)</f>
         <v>3</v>
       </c>
       <c r="K69" s="18"/>
@@ -12393,16 +12393,16 @@
         <v>349</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>348.4</v>
       </c>
       <c r="H70" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>348.4</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="K70" s="18"/>
@@ -12431,16 +12431,16 @@
         <v>348</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>347.4</v>
       </c>
       <c r="H71" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>347.4</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="K71" s="18"/>
@@ -12469,16 +12469,16 @@
         <v>348</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>346.8</v>
       </c>
       <c r="H72" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>346.8</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K72" s="18"/>
@@ -12507,16 +12507,16 @@
         <v>347</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>347</v>
       </c>
       <c r="H73" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>347</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K73" s="18"/>
@@ -12545,16 +12545,16 @@
         <v>350</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>348.8</v>
       </c>
       <c r="H74" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>348.8</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K74" s="18"/>
@@ -12583,16 +12583,16 @@
         <v>340</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>338.4</v>
       </c>
       <c r="H75" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>338.4</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K75" s="18"/>
@@ -12621,16 +12621,16 @@
         <v>349</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>347.8</v>
       </c>
       <c r="H76" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>347.8</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K76" s="18"/>
@@ -12659,16 +12659,16 @@
         <v>348</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>347.6</v>
       </c>
       <c r="H77" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>347.6</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="K77" s="18"/>
@@ -12697,16 +12697,16 @@
         <v>347</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>346</v>
       </c>
       <c r="H78" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>346</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K78" s="18"/>
@@ -12735,16 +12735,16 @@
         <v>349</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>347.6</v>
       </c>
       <c r="H79" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>347.6</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K79" s="18"/>
@@ -12773,16 +12773,16 @@
         <v>348</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>346.6</v>
       </c>
       <c r="H80" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>346.6</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K80" s="18"/>
@@ -12811,16 +12811,16 @@
         <v>350</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>349</v>
       </c>
       <c r="H81" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>349</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K81" s="18"/>
@@ -12849,16 +12849,16 @@
         <v>351</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>349.8</v>
       </c>
       <c r="H82" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>349.8</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K82" s="18"/>
@@ -12887,16 +12887,16 @@
         <v>351</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>349.6</v>
       </c>
       <c r="H83" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>349.6</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K83" s="18"/>
@@ -12925,16 +12925,16 @@
         <v>350</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>348</v>
       </c>
       <c r="H84" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>348</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K84" s="18"/>
@@ -12963,16 +12963,16 @@
         <v>350</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>349</v>
       </c>
       <c r="H85" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>349</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K85" s="18"/>
@@ -13001,16 +13001,16 @@
         <v>347</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>346.6</v>
       </c>
       <c r="H86" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>346.6</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K86" s="18"/>
@@ -13039,16 +13039,16 @@
         <v>352</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>350.4</v>
       </c>
       <c r="H87" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>350.4</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K87" s="18"/>
@@ -13077,16 +13077,16 @@
         <v>351</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>348.6</v>
       </c>
       <c r="H88" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>348.6</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="K88" s="18"/>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW7/hw_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C69D86-E2FE-47C3-927A-5738823ADFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87012172-318F-4B48-88D6-4B32FA2347AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{213A9671-E847-410E-8CCB-309101DC3D62}"/>
   </bookViews>
   <sheets>
     <sheet name="第1題a-d" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="第1題g" sheetId="3" r:id="rId3"/>
     <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4576,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532C8597-63B2-470E-BA6D-7DF44C990D1C}">
   <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
